--- a/spotify/d_80_1.xlsx
+++ b/spotify/d_80_1.xlsx
@@ -431,7 +431,7 @@
         <v>8512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004334346982069705</v>
+        <v>0.0004334346982069706</v>
       </c>
       <c r="F3" t="n">
         <v>0.4790318715552361</v>
@@ -475,7 +475,7 @@
         <v>6666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003022792133958887</v>
+        <v>0.0003022792133958888</v>
       </c>
       <c r="F5" t="n">
         <v>0.4686987104337632</v>
@@ -519,7 +519,7 @@
         <v>8465</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006985755247897718</v>
+        <v>0.000698575524789772</v>
       </c>
       <c r="F7" t="n">
         <v>0.4799519807923169</v>
@@ -541,7 +541,7 @@
         <v>2529</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007218148550447786</v>
+        <v>0.0007218148550447789</v>
       </c>
       <c r="F8" t="n">
         <v>0.4692488262910798</v>
@@ -563,7 +563,7 @@
         <v>6719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001956397157952365</v>
+        <v>0.0001956397157952364</v>
       </c>
       <c r="F9" t="n">
         <v>0.4448153093012906</v>
@@ -585,7 +585,7 @@
         <v>2031</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002071271618808754</v>
+        <v>0.0002071271618808755</v>
       </c>
       <c r="F10" t="n">
         <v>0.448709315375982</v>
@@ -717,7 +717,7 @@
         <v>548</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0009208470129255486</v>
+        <v>0.0009208470129255484</v>
       </c>
       <c r="F16" t="n">
         <v>0.4028617492946392</v>
@@ -739,7 +739,7 @@
         <v>138</v>
       </c>
       <c r="E17" t="n">
-        <v>7.028545638978003e-06</v>
+        <v>7.028545638978004e-06</v>
       </c>
       <c r="F17" t="n">
         <v>0.3469281499479347</v>
@@ -783,7 +783,7 @@
         <v>1015</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0002981965260877318</v>
+        <v>0.000298196526087732</v>
       </c>
       <c r="F19" t="n">
         <v>0.439051175049418</v>
@@ -805,7 +805,7 @@
         <v>2852</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001592858023843803</v>
+        <v>0.0001592858023843804</v>
       </c>
       <c r="F20" t="n">
         <v>0.4515473232437316</v>
@@ -1023,7 +1023,7 @@
         <v>20131</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001168667875334521</v>
+        <v>0.00116866787533452</v>
       </c>
       <c r="F30" t="n">
         <v>0.5020090406830738</v>
@@ -1089,7 +1089,7 @@
         <v>22619</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005726275847026988</v>
+        <v>0.0005726275847026987</v>
       </c>
       <c r="F33" t="n">
         <v>0.4872044845235194</v>
@@ -1243,7 +1243,7 @@
         <v>6409</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0006458667302333391</v>
+        <v>0.0006458667302333392</v>
       </c>
       <c r="F40" t="n">
         <v>0.4753864447086801</v>
@@ -1265,7 +1265,7 @@
         <v>3272</v>
       </c>
       <c r="E41" t="n">
-        <v>9.103784231542028e-05</v>
+        <v>9.103784231542027e-05</v>
       </c>
       <c r="F41" t="n">
         <v>0.4538024971623156</v>
@@ -1309,7 +1309,7 @@
         <v>10132</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0002995484614156771</v>
+        <v>0.0002995484614156772</v>
       </c>
       <c r="F43" t="n">
         <v>0.4796065259117082</v>
@@ -1331,7 +1331,7 @@
         <v>481</v>
       </c>
       <c r="E44" t="n">
-        <v>1.582585202941035e-06</v>
+        <v>1.582585202941036e-06</v>
       </c>
       <c r="F44" t="n">
         <v>0.3987632156393378</v>
@@ -1375,7 +1375,7 @@
         <v>7126</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000589877774768102</v>
+        <v>0.0005898777747681019</v>
       </c>
       <c r="F46" t="n">
         <v>0.4807599807599808</v>
@@ -1397,7 +1397,7 @@
         <v>2903</v>
       </c>
       <c r="E47" t="n">
-        <v>6.754730259519012e-05</v>
+        <v>6.754730259519014e-05</v>
       </c>
       <c r="F47" t="n">
         <v>0.4372265966754156</v>
@@ -1441,7 +1441,7 @@
         <v>5344</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0006126972961581196</v>
+        <v>0.0006126972961581198</v>
       </c>
       <c r="F49" t="n">
         <v>0.4648837209302326</v>
@@ -1485,7 +1485,7 @@
         <v>2158</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000174621065810532</v>
+        <v>0.0001746210658105319</v>
       </c>
       <c r="F51" t="n">
         <v>0.448709315375982</v>
@@ -1529,7 +1529,7 @@
         <v>15768</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0004686985858621398</v>
+        <v>0.0004686985858621399</v>
       </c>
       <c r="F53" t="n">
         <v>0.4791466922339405</v>
@@ -1573,7 +1573,7 @@
         <v>20706</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0005961135129000018</v>
+        <v>0.0005961135129000014</v>
       </c>
       <c r="F55" t="n">
         <v>0.4941903584672436</v>
@@ -1661,7 +1661,7 @@
         <v>1629</v>
       </c>
       <c r="E59" t="n">
-        <v>5.811814044767202e-05</v>
+        <v>5.811814044767203e-05</v>
       </c>
       <c r="F59" t="n">
         <v>0.435038084874864</v>
@@ -1793,7 +1793,7 @@
         <v>7807</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0005536833677848761</v>
+        <v>0.0005536833677848762</v>
       </c>
       <c r="F65" t="n">
         <v>0.4828502415458937</v>
@@ -1815,7 +1815,7 @@
         <v>9033</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0007256686970646453</v>
+        <v>0.0007256686970646458</v>
       </c>
       <c r="F66" t="n">
         <v>0.474709095226787</v>
@@ -1925,7 +1925,7 @@
         <v>61</v>
       </c>
       <c r="E71" t="n">
-        <v>4.554264465924506e-05</v>
+        <v>4.554264465924507e-05</v>
       </c>
       <c r="F71" t="n">
         <v>0.373226288274832</v>
@@ -1969,7 +1969,7 @@
         <v>25131</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001013389430333827</v>
+        <v>0.001013389430333826</v>
       </c>
       <c r="F73" t="n">
         <v>0.49900149775337</v>
@@ -1991,7 +1991,7 @@
         <v>2448</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0004415616667105425</v>
+        <v>0.0004415616667105426</v>
       </c>
       <c r="F74" t="n">
         <v>0.4520578923563998</v>
@@ -2057,7 +2057,7 @@
         <v>6594</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0003955246209694203</v>
+        <v>0.0003955246209694204</v>
       </c>
       <c r="F77" t="n">
         <v>0.478115283425018</v>
@@ -2101,7 +2101,7 @@
         <v>5117</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002051389832695281</v>
+        <v>0.00205138983269528</v>
       </c>
       <c r="F79" t="n">
         <v>0.4726885788602506</v>
@@ -2123,7 +2123,7 @@
         <v>10459</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005955755763641904</v>
+        <v>0.005955755763641905</v>
       </c>
       <c r="F80" t="n">
         <v>0.4970164097463948</v>
@@ -2145,7 +2145,7 @@
         <v>2450</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0002914808884766438</v>
+        <v>0.0002914808884766437</v>
       </c>
       <c r="F81" t="n">
         <v>0.4564969171043617</v>
@@ -2167,7 +2167,7 @@
         <v>18057</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000913718211831579</v>
+        <v>0.0009137182118315789</v>
       </c>
       <c r="F82" t="n">
         <v>0.4999999999999999</v>
@@ -2189,7 +2189,7 @@
         <v>285</v>
       </c>
       <c r="E83" t="n">
-        <v>2.213114563834664e-06</v>
+        <v>2.213114563834665e-06</v>
       </c>
       <c r="F83" t="n">
         <v>0.411740473738414</v>
@@ -2211,7 +2211,7 @@
         <v>89</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002141036471798192</v>
+        <v>0.002141036471798193</v>
       </c>
       <c r="F84" t="n">
         <v>0.3614828209764919</v>
@@ -2255,7 +2255,7 @@
         <v>3667</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0002794305319409423</v>
+        <v>0.0002794305319409422</v>
       </c>
       <c r="F86" t="n">
         <v>0.4502252252252252</v>
@@ -2277,7 +2277,7 @@
         <v>109</v>
       </c>
       <c r="E87" t="n">
-        <v>3.571805844934134e-06</v>
+        <v>3.571805844934135e-06</v>
       </c>
       <c r="F87" t="n">
         <v>0.2974702380952381</v>
@@ -2343,7 +2343,7 @@
         <v>2022</v>
       </c>
       <c r="E90" t="n">
-        <v>5.041977742098469e-06</v>
+        <v>5.041977742098468e-06</v>
       </c>
       <c r="F90" t="n">
         <v>0.4429426102370929</v>
@@ -2365,7 +2365,7 @@
         <v>276</v>
       </c>
       <c r="E91" t="n">
-        <v>5.807695573374104e-06</v>
+        <v>5.807695573374105e-06</v>
       </c>
       <c r="F91" t="n">
         <v>0.3293788103476685</v>
@@ -2453,7 +2453,7 @@
         <v>2298</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002641734224451911</v>
+        <v>0.000264173422445191</v>
       </c>
       <c r="F95" t="n">
         <v>0.4346597086323113</v>
@@ -2519,7 +2519,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="n">
-        <v>7.034343250296424e-05</v>
+        <v>7.034343250296426e-05</v>
       </c>
       <c r="F98" t="n">
         <v>0.2649436713055003</v>
@@ -2541,7 +2541,7 @@
         <v>20349</v>
       </c>
       <c r="E99" t="n">
-        <v>0.002949060232436324</v>
+        <v>0.002949060232436323</v>
       </c>
       <c r="F99" t="n">
         <v>0.5124327095616509</v>
@@ -2563,7 +2563,7 @@
         <v>1499</v>
       </c>
       <c r="E100" t="n">
-        <v>2.020392180168198e-05</v>
+        <v>2.020392180168199e-05</v>
       </c>
       <c r="F100" t="n">
         <v>0.4308189655172414</v>
@@ -2607,7 +2607,7 @@
         <v>1844</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0002641710636438503</v>
+        <v>0.0002641710636438504</v>
       </c>
       <c r="F102" t="n">
         <v>0.4444197421076034</v>
@@ -2629,7 +2629,7 @@
         <v>352</v>
       </c>
       <c r="E103" t="n">
-        <v>3.666276845960452e-06</v>
+        <v>3.666276845960453e-06</v>
       </c>
       <c r="F103" t="n">
         <v>0.4150747508305648</v>
@@ -2651,7 +2651,7 @@
         <v>130</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0002890993284857644</v>
+        <v>0.0002890993284857643</v>
       </c>
       <c r="F104" t="n">
         <v>0.296235921754594</v>
@@ -2673,7 +2673,7 @@
         <v>1310</v>
       </c>
       <c r="E105" t="n">
-        <v>1.457422494439703e-05</v>
+        <v>1.457422494439702e-05</v>
       </c>
       <c r="F105" t="n">
         <v>0.4293384879725086</v>
@@ -2695,7 +2695,7 @@
         <v>21643</v>
       </c>
       <c r="E106" t="n">
-        <v>0.001321451222326823</v>
+        <v>0.001321451222326824</v>
       </c>
       <c r="F106" t="n">
         <v>0.4917589175891758</v>
@@ -2761,7 +2761,7 @@
         <v>407</v>
       </c>
       <c r="E109" t="n">
-        <v>2.350447077063915e-06</v>
+        <v>2.350447077063914e-06</v>
       </c>
       <c r="F109" t="n">
         <v>0.4095472239295226</v>
@@ -2783,7 +2783,7 @@
         <v>2617</v>
       </c>
       <c r="E110" t="n">
-        <v>5.170144890415751e-05</v>
+        <v>5.17014489041575e-05</v>
       </c>
       <c r="F110" t="n">
         <v>0.4445185679341783</v>
@@ -2805,7 +2805,7 @@
         <v>14225</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0007156412762580787</v>
+        <v>0.0007156412762580786</v>
       </c>
       <c r="F111" t="n">
         <v>0.5015052684395384</v>
@@ -2849,7 +2849,7 @@
         <v>1731</v>
       </c>
       <c r="E113" t="n">
-        <v>8.493958219793669e-05</v>
+        <v>8.493958219793668e-05</v>
       </c>
       <c r="F113" t="n">
         <v>0.4318427306113631</v>
@@ -2893,7 +2893,7 @@
         <v>24436</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0009190180856408516</v>
+        <v>0.0009190180856408514</v>
       </c>
       <c r="F115" t="n">
         <v>0.4988769653107063</v>
@@ -2915,7 +2915,7 @@
         <v>938</v>
       </c>
       <c r="E116" t="n">
-        <v>3.670063959169142e-05</v>
+        <v>3.67006395916914e-05</v>
       </c>
       <c r="F116" t="n">
         <v>0.4255908026399829</v>
@@ -2937,7 +2937,7 @@
         <v>4053</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0007523811234646905</v>
+        <v>0.0007523811234646906</v>
       </c>
       <c r="F117" t="n">
         <v>0.466837926202709</v>
@@ -2959,7 +2959,7 @@
         <v>12673</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0006966952175910941</v>
+        <v>0.0006966952175910943</v>
       </c>
       <c r="F118" t="n">
         <v>0.4961528915363614</v>
@@ -2981,7 +2981,7 @@
         <v>10680</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0007905085556104161</v>
+        <v>0.0007905085556104162</v>
       </c>
       <c r="F119" t="n">
         <v>0.4887530562347188</v>
@@ -3047,7 +3047,7 @@
         <v>5843</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0006433555489454177</v>
+        <v>0.0006433555489454176</v>
       </c>
       <c r="F122" t="n">
         <v>0.4726885788602506</v>
@@ -3091,7 +3091,7 @@
         <v>8431</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0004144842487533602</v>
+        <v>0.0004144842487533604</v>
       </c>
       <c r="F124" t="n">
         <v>0.4813387912352516</v>
@@ -3113,7 +3113,7 @@
         <v>244</v>
       </c>
       <c r="E125" t="n">
-        <v>0.006221869110475609</v>
+        <v>0.006221869110475606</v>
       </c>
       <c r="F125" t="n">
         <v>0.4100512820512821</v>
@@ -3201,7 +3201,7 @@
         <v>344</v>
       </c>
       <c r="E129" t="n">
-        <v>2.389246839569205e-05</v>
+        <v>2.389246839569204e-05</v>
       </c>
       <c r="F129" t="n">
         <v>0.3926537026124534</v>
@@ -3223,7 +3223,7 @@
         <v>432</v>
       </c>
       <c r="E130" t="n">
-        <v>2.341034259762675e-06</v>
+        <v>2.339883874377041e-06</v>
       </c>
       <c r="F130" t="n">
         <v>0.4073772162217241</v>
@@ -3245,7 +3245,7 @@
         <v>278</v>
       </c>
       <c r="E131" t="n">
-        <v>8.452392813814418e-06</v>
+        <v>8.448239303832199e-06</v>
       </c>
       <c r="F131" t="n">
         <v>0.3263140711720535</v>
@@ -3267,7 +3267,7 @@
         <v>4791</v>
       </c>
       <c r="E132" t="n">
-        <v>0.003597918212473526</v>
+        <v>0.003596150193695895</v>
       </c>
       <c r="F132" t="n">
         <v>0.484136594817147</v>
@@ -3289,7 +3289,7 @@
         <v>5739</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0004702105115344091</v>
+        <v>0.0004699794498579792</v>
       </c>
       <c r="F133" t="n">
         <v>0.4750475285171102</v>
@@ -3311,7 +3311,7 @@
         <v>1667</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0001016158328559511</v>
+        <v>0.0001015658987857517</v>
       </c>
       <c r="F134" t="n">
         <v>0.4394372389536162</v>
@@ -3333,7 +3333,7 @@
         <v>182</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0001583554645211308</v>
+        <v>0.0001583554645211309</v>
       </c>
       <c r="F135" t="n">
         <v>0.3087735557615076</v>
@@ -3377,7 +3377,7 @@
         <v>1736</v>
       </c>
       <c r="E137" t="n">
-        <v>5.595679400904807e-05</v>
+        <v>5.595679400904808e-05</v>
       </c>
       <c r="F137" t="n">
         <v>0.4346597086323113</v>
@@ -3399,7 +3399,7 @@
         <v>500</v>
       </c>
       <c r="E138" t="n">
-        <v>0.002863030291540855</v>
+        <v>0.002863030291540854</v>
       </c>
       <c r="F138" t="n">
         <v>0.4139573410644026</v>
@@ -3641,7 +3641,7 @@
         <v>4802</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0003854449860940658</v>
+        <v>0.0003854449860940657</v>
       </c>
       <c r="F149" t="n">
         <v>0.462410363173722</v>
@@ -3685,7 +3685,7 @@
         <v>516</v>
       </c>
       <c r="E151" t="n">
-        <v>4.285578282379602e-07</v>
+        <v>4.285578282379601e-07</v>
       </c>
       <c r="F151" t="n">
         <v>0.414300518134715</v>
@@ -3707,7 +3707,7 @@
         <v>8576</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0005812273153398179</v>
+        <v>0.0005812273153398181</v>
       </c>
       <c r="F152" t="n">
         <v>0.4808756314649988</v>
@@ -3729,7 +3729,7 @@
         <v>20243</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0010245843314723</v>
+        <v>0.001024584331472301</v>
       </c>
       <c r="F153" t="n">
         <v>0.5002502502502503</v>
@@ -3839,7 +3839,7 @@
         <v>4030</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0002869160771747847</v>
+        <v>0.0002869160771747846</v>
       </c>
       <c r="F158" t="n">
         <v>0.4693590044611411</v>
@@ -3861,7 +3861,7 @@
         <v>2975</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0002149426602918943</v>
+        <v>0.0002149426602918942</v>
       </c>
       <c r="F159" t="n">
         <v>0.4553530751708428</v>
@@ -3883,7 +3883,7 @@
         <v>15670</v>
       </c>
       <c r="E160" t="n">
-        <v>0.001936089023774564</v>
+        <v>0.001936089023774563</v>
       </c>
       <c r="F160" t="n">
         <v>0.5035264483627204</v>
@@ -3993,7 +3993,7 @@
         <v>15292</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0008115558104995752</v>
+        <v>0.0008115558104995751</v>
       </c>
       <c r="F165" t="n">
         <v>0.5011281022812735</v>
@@ -4015,7 +4015,7 @@
         <v>10566</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0007258949396626131</v>
+        <v>0.000725894939662613</v>
       </c>
       <c r="F166" t="n">
         <v>0.4596458956081858</v>
@@ -4059,7 +4059,7 @@
         <v>22514</v>
       </c>
       <c r="E168" t="n">
-        <v>0.00074536678923976</v>
+        <v>0.0007453667892397599</v>
       </c>
       <c r="F168" t="n">
         <v>0.50050075112669</v>
@@ -4147,7 +4147,7 @@
         <v>98</v>
       </c>
       <c r="E172" t="n">
-        <v>0.01197969082696769</v>
+        <v>0.01197969082696768</v>
       </c>
       <c r="F172" t="n">
         <v>0.3857583944423003</v>
@@ -4169,7 +4169,7 @@
         <v>16622</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0007298136722920362</v>
+        <v>0.0007298136722920363</v>
       </c>
       <c r="F173" t="n">
         <v>0.4950470529965329</v>
@@ -4257,7 +4257,7 @@
         <v>5277</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0002629593478500976</v>
+        <v>0.0002629593478500975</v>
       </c>
       <c r="F177" t="n">
         <v>0.4630530460968265</v>
@@ -4279,7 +4279,7 @@
         <v>719</v>
       </c>
       <c r="E178" t="n">
-        <v>2.526778894867461e-06</v>
+        <v>2.526778894867462e-06</v>
       </c>
       <c r="F178" t="n">
         <v>0.4074602527517326</v>
@@ -4345,7 +4345,7 @@
         <v>678</v>
       </c>
       <c r="E181" t="n">
-        <v>3.317126085357822e-05</v>
+        <v>3.317126085357823e-05</v>
       </c>
       <c r="F181" t="n">
         <v>0.3382975122694195</v>
@@ -4367,7 +4367,7 @@
         <v>11630</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0007667201255175607</v>
+        <v>0.0007667201255175602</v>
       </c>
       <c r="F182" t="n">
         <v>0.4846060606060606</v>
@@ -4389,7 +4389,7 @@
         <v>3132</v>
       </c>
       <c r="E183" t="n">
-        <v>5.259583443737582e-05</v>
+        <v>5.259583443737581e-05</v>
       </c>
       <c r="F183" t="n">
         <v>0.4386657888962037</v>
@@ -4411,7 +4411,7 @@
         <v>2434</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0008737530525698392</v>
+        <v>0.000873753052569839</v>
       </c>
       <c r="F184" t="n">
         <v>0.4538024971623156</v>
@@ -4519,7 +4519,7 @@
         <v>114</v>
       </c>
       <c r="E189" t="n">
-        <v>3.653074743271718e-08</v>
+        <v>3.653074743271719e-08</v>
       </c>
       <c r="F189" t="n">
         <v>0.321279331404693</v>
@@ -4541,7 +4541,7 @@
         <v>51</v>
       </c>
       <c r="E190" t="n">
-        <v>1.990033845610274e-05</v>
+        <v>1.990033845610275e-05</v>
       </c>
       <c r="F190" t="n">
         <v>0.3109831985065339</v>
@@ -4585,7 +4585,7 @@
         <v>11926</v>
       </c>
       <c r="E192" t="n">
-        <v>0.002556022895154766</v>
+        <v>0.002556022895154764</v>
       </c>
       <c r="F192" t="n">
         <v>0.5018830027617374</v>
@@ -4607,7 +4607,7 @@
         <v>9831</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0005635680247360111</v>
+        <v>0.0005635680247360112</v>
       </c>
       <c r="F193" t="n">
         <v>0.4891118179593834</v>
@@ -4629,7 +4629,7 @@
         <v>7958</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0007548781032864572</v>
+        <v>0.0007548781032864581</v>
       </c>
       <c r="F194" t="n">
         <v>0.4921221073362876</v>
@@ -4651,7 +4651,7 @@
         <v>279</v>
       </c>
       <c r="E195" t="n">
-        <v>0.004556288751736201</v>
+        <v>0.004556288751736202</v>
       </c>
       <c r="F195" t="n">
         <v>0.398207171314741</v>
@@ -4673,7 +4673,7 @@
         <v>1003</v>
       </c>
       <c r="E196" t="n">
-        <v>6.747315513205595e-06</v>
+        <v>6.747315513205596e-06</v>
       </c>
       <c r="F196" t="n">
         <v>0.4131018805538335</v>
@@ -4717,7 +4717,7 @@
         <v>19</v>
       </c>
       <c r="E198" t="n">
-        <v>8.882376689262107e-08</v>
+        <v>8.882376689262105e-08</v>
       </c>
       <c r="F198" t="n">
         <v>0.3169494212779452</v>
@@ -4739,7 +4739,7 @@
         <v>3348</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0005876383921832154</v>
+        <v>0.0005876383921832153</v>
       </c>
       <c r="F199" t="n">
         <v>0.4662934452997434</v>
@@ -4761,7 +4761,7 @@
         <v>8860</v>
       </c>
       <c r="E200" t="n">
-        <v>0.001964798531175262</v>
+        <v>0.001964798531175263</v>
       </c>
       <c r="F200" t="n">
         <v>0.495169680455784</v>
@@ -4783,7 +4783,7 @@
         <v>15019</v>
       </c>
       <c r="E201" t="n">
-        <v>0.004313667936222864</v>
+        <v>0.004313667936222866</v>
       </c>
       <c r="F201" t="n">
         <v>0.5025138260432378</v>
@@ -4871,7 +4871,7 @@
         <v>335</v>
       </c>
       <c r="E205" t="n">
-        <v>0.006603427185008869</v>
+        <v>0.006603427185008867</v>
       </c>
       <c r="F205" t="n">
         <v>0.4042467138523761</v>
@@ -4893,7 +4893,7 @@
         <v>5351</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0009352076329600393</v>
+        <v>0.0009352076329600395</v>
       </c>
       <c r="F206" t="n">
         <v>0.4872044845235194</v>
@@ -4937,7 +4937,7 @@
         <v>7467</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0009159078135045311</v>
+        <v>0.000915907813504531</v>
       </c>
       <c r="F208" t="n">
         <v>0.4864930640058408</v>
@@ -5003,7 +5003,7 @@
         <v>3637</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0003573092280468167</v>
+        <v>0.0003573092280468166</v>
       </c>
       <c r="F211" t="n">
         <v>0.4579610538373425</v>
@@ -5069,7 +5069,7 @@
         <v>17444</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0007589447820991517</v>
+        <v>0.0007589447820991518</v>
       </c>
       <c r="F214" t="n">
         <v>0.4971400149216613</v>
@@ -5091,7 +5091,7 @@
         <v>591</v>
       </c>
       <c r="E215" t="n">
-        <v>5.559928634297001e-06</v>
+        <v>5.559928634297e-06</v>
       </c>
       <c r="F215" t="n">
         <v>0.4193413048038598</v>
@@ -5113,7 +5113,7 @@
         <v>6771</v>
       </c>
       <c r="E216" t="n">
-        <v>0.0003440188738003448</v>
+        <v>0.0003440188738003449</v>
       </c>
       <c r="F216" t="n">
         <v>0.473696682464455</v>
@@ -5155,7 +5155,7 @@
         <v>19073</v>
       </c>
       <c r="E218" t="n">
-        <v>0.0006215684269680326</v>
+        <v>0.0006215684269680323</v>
       </c>
       <c r="F218" t="n">
         <v>0.4903115035565366</v>
@@ -5199,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="E220" t="n">
-        <v>7.587349210523789e-05</v>
+        <v>7.587349210523792e-05</v>
       </c>
       <c r="F220" t="n">
         <v>0.3401974132062627</v>
@@ -5243,7 +5243,7 @@
         <v>444</v>
       </c>
       <c r="E222" t="n">
-        <v>5.273374585715138e-06</v>
+        <v>5.27337458571514e-06</v>
       </c>
       <c r="F222" t="n">
         <v>0.4088770709756597</v>
@@ -5309,7 +5309,7 @@
         <v>11375</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0006860456840383037</v>
+        <v>0.0006860456840383041</v>
       </c>
       <c r="F225" t="n">
         <v>0.4869671132764921</v>
@@ -5375,7 +5375,7 @@
         <v>10812</v>
       </c>
       <c r="E228" t="n">
-        <v>0.0007224951139050144</v>
+        <v>0.0007224951139050147</v>
       </c>
       <c r="F228" t="n">
         <v>0.4934584053320168</v>
@@ -5441,7 +5441,7 @@
         <v>8505</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0009629520832743482</v>
+        <v>0.0009629520832743483</v>
       </c>
       <c r="F231" t="n">
         <v>0.4870857699805068</v>
@@ -5463,7 +5463,7 @@
         <v>9720</v>
       </c>
       <c r="E232" t="n">
-        <v>0.0009420036149647571</v>
+        <v>0.0009420036149647572</v>
       </c>
       <c r="F232" t="n">
         <v>0.4818028440588094</v>
@@ -5485,7 +5485,7 @@
         <v>4045</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0003888970900967253</v>
+        <v>0.0003888970900967252</v>
       </c>
       <c r="F233" t="n">
         <v>0.4628386200509377</v>
@@ -5551,7 +5551,7 @@
         <v>4965</v>
       </c>
       <c r="E236" t="n">
-        <v>0.002055351202549846</v>
+        <v>0.002055351202549847</v>
       </c>
       <c r="F236" t="n">
         <v>0.4669469750058397</v>
@@ -5617,7 +5617,7 @@
         <v>9851</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0006032289645018653</v>
+        <v>0.0006032289645018651</v>
       </c>
       <c r="F239" t="n">
         <v>0.4881562881562881</v>
@@ -5661,7 +5661,7 @@
         <v>4242</v>
       </c>
       <c r="E241" t="n">
-        <v>0.0006056776396189598</v>
+        <v>0.00060567763961896</v>
       </c>
       <c r="F241" t="n">
         <v>0.4590126291618829</v>
@@ -5727,7 +5727,7 @@
         <v>13061</v>
       </c>
       <c r="E244" t="n">
-        <v>0.000761656556776375</v>
+        <v>0.0007616565567763751</v>
       </c>
       <c r="F244" t="n">
         <v>0.4986280868046895</v>
@@ -5793,7 +5793,7 @@
         <v>183</v>
       </c>
       <c r="E247" t="n">
-        <v>9.008901434212742e-05</v>
+        <v>9.008901434212743e-05</v>
       </c>
       <c r="F247" t="n">
         <v>0.307349323493235</v>
@@ -5859,7 +5859,7 @@
         <v>16706</v>
       </c>
       <c r="E250" t="n">
-        <v>0.002630472382560587</v>
+        <v>0.002630472382560588</v>
       </c>
       <c r="F250" t="n">
         <v>0.5126955629648627</v>
@@ -5925,7 +5925,7 @@
         <v>60</v>
       </c>
       <c r="E253" t="n">
-        <v>7.455930710952558e-07</v>
+        <v>7.455930710952557e-07</v>
       </c>
       <c r="F253" t="n">
         <v>0.318514977692798</v>
@@ -5991,7 +5991,7 @@
         <v>668</v>
       </c>
       <c r="E256" t="n">
-        <v>1.249793787535268e-05</v>
+        <v>1.249793787535267e-05</v>
       </c>
       <c r="F256" t="n">
         <v>0.41165568369028</v>
@@ -6035,7 +6035,7 @@
         <v>8</v>
       </c>
       <c r="E258" t="n">
-        <v>3.348285338272835e-05</v>
+        <v>3.348285338272838e-05</v>
       </c>
       <c r="F258" t="n">
         <v>0.2972932778108269</v>
@@ -6101,7 +6101,7 @@
         <v>3113</v>
       </c>
       <c r="E261" t="n">
-        <v>0.0004602090795450132</v>
+        <v>0.0004602090795450133</v>
       </c>
       <c r="F261" t="n">
         <v>0.4694692343823392</v>
@@ -6255,7 +6255,7 @@
         <v>197</v>
       </c>
       <c r="E268" t="n">
-        <v>8.970264562177818e-05</v>
+        <v>8.970264562177814e-05</v>
       </c>
       <c r="F268" t="n">
         <v>0.307443863426638</v>
@@ -6343,7 +6343,7 @@
         <v>3911</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0001865249544475968</v>
+        <v>0.0001865249544475967</v>
       </c>
       <c r="F272" t="n">
         <v>0.4535965509416837</v>
@@ -6409,7 +6409,7 @@
         <v>1181</v>
       </c>
       <c r="E275" t="n">
-        <v>2.177411201978414e-05</v>
+        <v>2.177411201978415e-05</v>
       </c>
       <c r="F275" t="n">
         <v>0.4339991315675206</v>
@@ -6475,7 +6475,7 @@
         <v>8222</v>
       </c>
       <c r="E278" t="n">
-        <v>0.000620074816409772</v>
+        <v>0.0006200748164097721</v>
       </c>
       <c r="F278" t="n">
         <v>0.4775441949354993</v>
@@ -6519,7 +6519,7 @@
         <v>10930</v>
       </c>
       <c r="E280" t="n">
-        <v>0.0006145025724993675</v>
+        <v>0.0006145025724993677</v>
       </c>
       <c r="F280" t="n">
         <v>0.4943125618199802</v>
@@ -6585,7 +6585,7 @@
         <v>11328</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0007511732716298766</v>
+        <v>0.0007511732716298765</v>
       </c>
       <c r="F283" t="n">
         <v>0.4977589641434263</v>
@@ -6629,7 +6629,7 @@
         <v>10981</v>
       </c>
       <c r="E285" t="n">
-        <v>0.0008604846446575984</v>
+        <v>0.0008604846446575981</v>
       </c>
       <c r="F285" t="n">
         <v>0.495169680455784</v>
@@ -6673,7 +6673,7 @@
         <v>9029</v>
       </c>
       <c r="E287" t="n">
-        <v>0.0007702003468491891</v>
+        <v>0.000770200346849189</v>
       </c>
       <c r="F287" t="n">
         <v>0.4888725849841037</v>
@@ -6695,7 +6695,7 @@
         <v>1655</v>
       </c>
       <c r="E288" t="n">
-        <v>0.000128883110727916</v>
+        <v>0.0001288831107279159</v>
       </c>
       <c r="F288" t="n">
         <v>0.4389547650417216</v>
@@ -6761,7 +6761,7 @@
         <v>22713</v>
       </c>
       <c r="E291" t="n">
-        <v>0.001530799035153613</v>
+        <v>0.001530799035153612</v>
       </c>
       <c r="F291" t="n">
         <v>0.5046705377429942</v>
@@ -6827,7 +6827,7 @@
         <v>9668</v>
       </c>
       <c r="E294" t="n">
-        <v>0.0006688640940686896</v>
+        <v>0.0006688640940686894</v>
       </c>
       <c r="F294" t="n">
         <v>0.4628386200509377</v>
@@ -6915,7 +6915,7 @@
         <v>217</v>
       </c>
       <c r="E298" t="n">
-        <v>1.843673215199903e-08</v>
+        <v>1.843673215199904e-08</v>
       </c>
       <c r="F298" t="n">
         <v>0.3263673469387755</v>
@@ -7091,7 +7091,7 @@
         <v>620</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0009456394278362259</v>
+        <v>0.0009456394278362262</v>
       </c>
       <c r="F306" t="n">
         <v>0.4275935828877005</v>
@@ -7113,7 +7113,7 @@
         <v>59</v>
       </c>
       <c r="E307" t="n">
-        <v>8.840856329088101e-07</v>
+        <v>8.8408563290881e-07</v>
       </c>
       <c r="F307" t="n">
         <v>0.3446551724137931</v>
@@ -7135,7 +7135,7 @@
         <v>2764</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0002583342699983456</v>
+        <v>0.0002583342699983454</v>
       </c>
       <c r="F308" t="n">
         <v>0.4502252252252252</v>
@@ -7157,7 +7157,7 @@
         <v>401</v>
       </c>
       <c r="E309" t="n">
-        <v>2.308499448229961e-06</v>
+        <v>2.30849944822996e-06</v>
       </c>
       <c r="F309" t="n">
         <v>0.3348969676662757</v>
@@ -7267,7 +7267,7 @@
         <v>6493</v>
       </c>
       <c r="E314" t="n">
-        <v>0.0008802535305080105</v>
+        <v>0.00088025353050801</v>
       </c>
       <c r="F314" t="n">
         <v>0.4593290441176471</v>
@@ -7399,7 +7399,7 @@
         <v>1101</v>
       </c>
       <c r="E320" t="n">
-        <v>6.405704033640876e-05</v>
+        <v>6.405704033640879e-05</v>
       </c>
       <c r="F320" t="n">
         <v>0.4383771929824561</v>
@@ -7421,7 +7421,7 @@
         <v>13298</v>
       </c>
       <c r="E321" t="n">
-        <v>0.0009703961034835096</v>
+        <v>0.0009703961034835097</v>
       </c>
       <c r="F321" t="n">
         <v>0.500751503006012</v>
@@ -7443,7 +7443,7 @@
         <v>1293</v>
       </c>
       <c r="E322" t="n">
-        <v>2.749381529353425e-05</v>
+        <v>2.749381529353424e-05</v>
       </c>
       <c r="F322" t="n">
         <v>0.4309118344470791</v>
@@ -7487,7 +7487,7 @@
         <v>1258</v>
       </c>
       <c r="E324" t="n">
-        <v>8.906076462313666e-05</v>
+        <v>8.906076462313673e-05</v>
       </c>
       <c r="F324" t="n">
         <v>0.4323096885813149</v>
@@ -7509,7 +7509,7 @@
         <v>7264</v>
       </c>
       <c r="E325" t="n">
-        <v>0.0005461776285744606</v>
+        <v>0.0005461776285744608</v>
       </c>
       <c r="F325" t="n">
         <v>0.482500603427468</v>
@@ -7619,7 +7619,7 @@
         <v>10744</v>
       </c>
       <c r="E330" t="n">
-        <v>0.0005736714558425138</v>
+        <v>0.0005736714558425135</v>
       </c>
       <c r="F330" t="n">
         <v>0.4881562881562881</v>
@@ -7641,7 +7641,7 @@
         <v>1149</v>
       </c>
       <c r="E331" t="n">
-        <v>7.44189845639976e-05</v>
+        <v>7.441898456399754e-05</v>
       </c>
       <c r="F331" t="n">
         <v>0.4343763581051717</v>
@@ -7685,7 +7685,7 @@
         <v>23</v>
       </c>
       <c r="E333" t="n">
-        <v>7.172231438739359e-07</v>
+        <v>7.172231438739361e-07</v>
       </c>
       <c r="F333" t="n">
         <v>0.2671745522587544</v>
@@ -7795,7 +7795,7 @@
         <v>1307</v>
       </c>
       <c r="E338" t="n">
-        <v>2.271453477664491e-05</v>
+        <v>2.271453477664492e-05</v>
       </c>
       <c r="F338" t="n">
         <v>0.4330589254766031</v>
@@ -7817,7 +7817,7 @@
         <v>1443</v>
       </c>
       <c r="E339" t="n">
-        <v>4.433178821653809e-05</v>
+        <v>4.433178821653808e-05</v>
       </c>
       <c r="F339" t="n">
         <v>0.4340933767643865</v>
@@ -7861,7 +7861,7 @@
         <v>10069</v>
       </c>
       <c r="E341" t="n">
-        <v>0.0007617502885543384</v>
+        <v>0.0007617502885543386</v>
       </c>
       <c r="F341" t="n">
         <v>0.4922432898300911</v>
@@ -7883,7 +7883,7 @@
         <v>15685</v>
       </c>
       <c r="E342" t="n">
-        <v>0.005608927122361242</v>
+        <v>0.005608927122361241</v>
       </c>
       <c r="F342" t="n">
         <v>0.5161373612186935</v>
@@ -7991,7 +7991,7 @@
         <v>6222</v>
       </c>
       <c r="E347" t="n">
-        <v>0.0008178348394698763</v>
+        <v>0.0008178348394698761</v>
       </c>
       <c r="F347" t="n">
         <v>0.480297933685728</v>
@@ -8013,7 +8013,7 @@
         <v>9082</v>
       </c>
       <c r="E348" t="n">
-        <v>0.0005823765204320241</v>
+        <v>0.0005823765204320239</v>
       </c>
       <c r="F348" t="n">
         <v>0.4875609756097561</v>
@@ -8035,7 +8035,7 @@
         <v>13</v>
       </c>
       <c r="E349" t="n">
-        <v>7.954283380306536e-06</v>
+        <v>7.954283380306537e-06</v>
       </c>
       <c r="F349" t="n">
         <v>0.3654478976234004</v>
@@ -8057,7 +8057,7 @@
         <v>6517</v>
       </c>
       <c r="E350" t="n">
-        <v>0.000158946859330409</v>
+        <v>0.0001589468593304091</v>
       </c>
       <c r="F350" t="n">
         <v>0.4640204271123491</v>
@@ -8145,7 +8145,7 @@
         <v>3003</v>
       </c>
       <c r="E354" t="n">
-        <v>0.0002325865896946754</v>
+        <v>0.0002325865896946753</v>
       </c>
       <c r="F354" t="n">
         <v>0.4630530460968265</v>
@@ -8167,7 +8167,7 @@
         <v>14018</v>
       </c>
       <c r="E355" t="n">
-        <v>0.0006385378656416332</v>
+        <v>0.0006385378656416334</v>
       </c>
       <c r="F355" t="n">
         <v>0.4927286172048311</v>
@@ -8189,7 +8189,7 @@
         <v>17513</v>
       </c>
       <c r="E356" t="n">
-        <v>0.0008154171367821991</v>
+        <v>0.0008154171367821989</v>
       </c>
       <c r="F356" t="n">
         <v>0.4966459627329193</v>
@@ -8233,7 +8233,7 @@
         <v>2913</v>
       </c>
       <c r="E358" t="n">
-        <v>0.0002721305139476188</v>
+        <v>0.0002721305139476189</v>
       </c>
       <c r="F358" t="n">
         <v>0.4511396975851952</v>
@@ -8299,7 +8299,7 @@
         <v>940</v>
       </c>
       <c r="E361" t="n">
-        <v>8.372638803704713e-05</v>
+        <v>8.372638803704715e-05</v>
       </c>
       <c r="F361" t="n">
         <v>0.3726001863932898</v>
@@ -8321,7 +8321,7 @@
         <v>4391</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0004743804856602094</v>
+        <v>0.0004743804856602096</v>
       </c>
       <c r="F362" t="n">
         <v>0.461449676823638</v>
@@ -8343,7 +8343,7 @@
         <v>16516</v>
       </c>
       <c r="E363" t="n">
-        <v>0.007124734834398756</v>
+        <v>0.007124734834398757</v>
       </c>
       <c r="F363" t="n">
         <v>0.5094291539245668</v>
@@ -8365,7 +8365,7 @@
         <v>8749</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0005794122016745908</v>
+        <v>0.0005794122016745911</v>
       </c>
       <c r="F364" t="n">
         <v>0.4785731386162317</v>
@@ -8409,7 +8409,7 @@
         <v>8444</v>
       </c>
       <c r="E366" t="n">
-        <v>0.001357816312664263</v>
+        <v>0.001357816312664264</v>
       </c>
       <c r="F366" t="n">
         <v>0.4559762773722628</v>
@@ -8431,7 +8431,7 @@
         <v>7289</v>
       </c>
       <c r="E367" t="n">
-        <v>0.001091048017532491</v>
+        <v>0.00109104801753249</v>
       </c>
       <c r="F367" t="n">
         <v>0.4774301409123478</v>
@@ -8475,7 +8475,7 @@
         <v>6675</v>
       </c>
       <c r="E369" t="n">
-        <v>0.0004321100120786736</v>
+        <v>0.0004321100120786737</v>
       </c>
       <c r="F369" t="n">
         <v>0.4801825606533749</v>
@@ -8497,7 +8497,7 @@
         <v>19051</v>
       </c>
       <c r="E370" t="n">
-        <v>0.000641373434518967</v>
+        <v>0.0006413734345189669</v>
       </c>
       <c r="F370" t="n">
         <v>0.4935802469135803</v>
@@ -8563,7 +8563,7 @@
         <v>4939</v>
       </c>
       <c r="E373" t="n">
-        <v>0.002194790154147044</v>
+        <v>0.002194790154147045</v>
       </c>
       <c r="F373" t="n">
         <v>0.4701317027281279</v>
@@ -8607,7 +8607,7 @@
         <v>148</v>
       </c>
       <c r="E375" t="n">
-        <v>0.0002379486925233961</v>
+        <v>0.0002379486925233962</v>
       </c>
       <c r="F375" t="n">
         <v>0.2842718998862344</v>
@@ -8695,7 +8695,7 @@
         <v>9007</v>
       </c>
       <c r="E379" t="n">
-        <v>0.0005009994988936433</v>
+        <v>0.0005009994988936434</v>
       </c>
       <c r="F379" t="n">
         <v>0.4391476274165202</v>
@@ -8717,7 +8717,7 @@
         <v>19966</v>
       </c>
       <c r="E380" t="n">
-        <v>0.001031569268018728</v>
+        <v>0.001031569268018729</v>
       </c>
       <c r="F380" t="n">
         <v>0.4991260923845193</v>
@@ -8739,7 +8739,7 @@
         <v>69</v>
       </c>
       <c r="E381" t="n">
-        <v>5.25793654742582e-07</v>
+        <v>5.257936547425821e-07</v>
       </c>
       <c r="F381" t="n">
         <v>0.3269010629599346</v>
@@ -8761,7 +8761,7 @@
         <v>19928</v>
       </c>
       <c r="E382" t="n">
-        <v>0.0009662529644597909</v>
+        <v>0.0009662529644597907</v>
       </c>
       <c r="F382" t="n">
         <v>0.4944348256245363</v>
@@ -8783,7 +8783,7 @@
         <v>5856</v>
       </c>
       <c r="E383" t="n">
-        <v>0.001563246568546513</v>
+        <v>0.001563246568546514</v>
       </c>
       <c r="F383" t="n">
         <v>0.4710179076343072</v>
@@ -8805,7 +8805,7 @@
         <v>19137</v>
       </c>
       <c r="E384" t="n">
-        <v>0.008974913341136984</v>
+        <v>0.008974913341136986</v>
       </c>
       <c r="F384" t="n">
         <v>0.5089103869653767</v>
@@ -8871,7 +8871,7 @@
         <v>6064</v>
       </c>
       <c r="E387" t="n">
-        <v>0.0005166156599563578</v>
+        <v>0.0005166156599563579</v>
       </c>
       <c r="F387" t="n">
         <v>0.4740336732274129</v>
@@ -8893,7 +8893,7 @@
         <v>6297</v>
       </c>
       <c r="E388" t="n">
-        <v>0.0003620624338734499</v>
+        <v>0.0003620624338734498</v>
       </c>
       <c r="F388" t="n">
         <v>0.4632676709154114</v>
@@ -8915,7 +8915,7 @@
         <v>1743</v>
       </c>
       <c r="E389" t="n">
-        <v>0.0002304575935422436</v>
+        <v>0.0002304575935422437</v>
       </c>
       <c r="F389" t="n">
         <v>0.399879975995199</v>
@@ -8959,7 +8959,7 @@
         <v>7915</v>
       </c>
       <c r="E391" t="n">
-        <v>0.0006226530218731215</v>
+        <v>0.0006226530218731219</v>
       </c>
       <c r="F391" t="n">
         <v>0.4886335859203129</v>
@@ -9003,7 +9003,7 @@
         <v>7813</v>
       </c>
       <c r="E393" t="n">
-        <v>0.0005197543376401824</v>
+        <v>0.0005197543376401826</v>
       </c>
       <c r="F393" t="n">
         <v>0.4816867469879518</v>
@@ -9025,7 +9025,7 @@
         <v>319</v>
       </c>
       <c r="E394" t="n">
-        <v>2.407452364729611e-05</v>
+        <v>2.40745236472961e-05</v>
       </c>
       <c r="F394" t="n">
         <v>0.4182008368200836</v>
@@ -9113,7 +9113,7 @@
         <v>344</v>
       </c>
       <c r="E398" t="n">
-        <v>6.878401283395256e-06</v>
+        <v>6.878401283395255e-06</v>
       </c>
       <c r="F398" t="n">
         <v>0.3823641928079571</v>
@@ -9157,7 +9157,7 @@
         <v>175</v>
       </c>
       <c r="E400" t="n">
-        <v>0.001754635706174028</v>
+        <v>0.001754635706174029</v>
       </c>
       <c r="F400" t="n">
         <v>0.3876284661624976</v>
@@ -9179,7 +9179,7 @@
         <v>57</v>
       </c>
       <c r="E401" t="n">
-        <v>7.662111379165809e-07</v>
+        <v>7.662111379165807e-07</v>
       </c>
       <c r="F401" t="n">
         <v>0.3588224735236044</v>
@@ -9201,7 +9201,7 @@
         <v>175</v>
       </c>
       <c r="E402" t="n">
-        <v>0.0007937210983329172</v>
+        <v>0.0007937210983329175</v>
       </c>
       <c r="F402" t="n">
         <v>0.3875533152384645</v>
@@ -9245,7 +9245,7 @@
         <v>461</v>
       </c>
       <c r="E404" t="n">
-        <v>0.0002091075000253599</v>
+        <v>0.0002091075000253598</v>
       </c>
       <c r="F404" t="n">
         <v>0.4063008130081301</v>
@@ -9267,7 +9267,7 @@
         <v>4411</v>
       </c>
       <c r="E405" t="n">
-        <v>0.000704473158345272</v>
+        <v>0.0007044731583452715</v>
       </c>
       <c r="F405" t="n">
         <v>0.4652082848498953</v>
@@ -9289,7 +9289,7 @@
         <v>3979</v>
       </c>
       <c r="E406" t="n">
-        <v>0.0005836685995502209</v>
+        <v>0.000583668599550221</v>
       </c>
       <c r="F406" t="n">
         <v>0.4578561612459918</v>
@@ -9333,7 +9333,7 @@
         <v>12217</v>
       </c>
       <c r="E408" t="n">
-        <v>0.0007170259270142725</v>
+        <v>0.0007170259270142724</v>
       </c>
       <c r="F408" t="n">
         <v>0.4910341439449766</v>
@@ -9377,7 +9377,7 @@
         <v>5063</v>
       </c>
       <c r="E410" t="n">
-        <v>0.0004231954208222702</v>
+        <v>0.0004231954208222703</v>
       </c>
       <c r="F410" t="n">
         <v>0.4611303344867358</v>
@@ -9399,7 +9399,7 @@
         <v>13090</v>
       </c>
       <c r="E411" t="n">
-        <v>0.0007199873480012094</v>
+        <v>0.000719987348001209</v>
       </c>
       <c r="F411" t="n">
         <v>0.4879179887722724</v>
@@ -9443,7 +9443,7 @@
         <v>957</v>
       </c>
       <c r="E413" t="n">
-        <v>1.454253030152479e-05</v>
+        <v>1.454253030152478e-05</v>
       </c>
       <c r="F413" t="n">
         <v>0.4287859287859288</v>
@@ -9465,7 +9465,7 @@
         <v>2153</v>
       </c>
       <c r="E414" t="n">
-        <v>9.599498261414861e-05</v>
+        <v>9.599498261414862e-05</v>
       </c>
       <c r="F414" t="n">
         <v>0.4351327818894209</v>
@@ -9487,7 +9487,7 @@
         <v>10724</v>
       </c>
       <c r="E415" t="n">
-        <v>0.009885613933633743</v>
+        <v>0.009885613933633741</v>
       </c>
       <c r="F415" t="n">
         <v>0.5012537612838516</v>
@@ -9509,7 +9509,7 @@
         <v>74</v>
       </c>
       <c r="E416" t="n">
-        <v>7.596073983119808e-05</v>
+        <v>7.596073983119813e-05</v>
       </c>
       <c r="F416" t="n">
         <v>0.3859818497779494</v>
@@ -9553,7 +9553,7 @@
         <v>3081</v>
       </c>
       <c r="E418" t="n">
-        <v>0.002005240429765192</v>
+        <v>0.002005240429765191</v>
       </c>
       <c r="F418" t="n">
         <v>0.4617694617694618</v>
@@ -9597,7 +9597,7 @@
         <v>8</v>
       </c>
       <c r="E420" t="n">
-        <v>4.61265744928934e-05</v>
+        <v>4.612657449289341e-05</v>
       </c>
       <c r="F420" t="n">
         <v>0.3251992842036766</v>
@@ -9619,7 +9619,7 @@
         <v>15208</v>
       </c>
       <c r="E421" t="n">
-        <v>0.0009052446460218666</v>
+        <v>0.0009052446460218664</v>
       </c>
       <c r="F421" t="n">
         <v>0.4970164097463948</v>
@@ -9641,7 +9641,7 @@
         <v>471</v>
       </c>
       <c r="E422" t="n">
-        <v>0.001436662378668135</v>
+        <v>0.001436662378668136</v>
       </c>
       <c r="F422" t="n">
         <v>0.4093794798279746</v>
@@ -9663,7 +9663,7 @@
         <v>3897</v>
       </c>
       <c r="E423" t="n">
-        <v>0.0001199643650512917</v>
+        <v>0.0001199643650512918</v>
       </c>
       <c r="F423" t="n">
         <v>0.433340559288966</v>
@@ -9685,7 +9685,7 @@
         <v>44</v>
       </c>
       <c r="E424" t="n">
-        <v>5.272144704543705e-06</v>
+        <v>5.272144704543703e-06</v>
       </c>
       <c r="F424" t="n">
         <v>0.3081547710806228</v>
@@ -9707,7 +9707,7 @@
         <v>10578</v>
       </c>
       <c r="E425" t="n">
-        <v>0.0004573201134682186</v>
+        <v>0.0004573201134682185</v>
       </c>
       <c r="F425" t="n">
         <v>0.4780009564801531</v>
@@ -9773,7 +9773,7 @@
         <v>255</v>
       </c>
       <c r="E428" t="n">
-        <v>9.037789122527022e-06</v>
+        <v>9.037789122527019e-06</v>
       </c>
       <c r="F428" t="n">
         <v>0.4087934560327198</v>
@@ -9839,7 +9839,7 @@
         <v>44</v>
       </c>
       <c r="E431" t="n">
-        <v>1.837958007637036e-05</v>
+        <v>1.837958007637037e-05</v>
       </c>
       <c r="F431" t="n">
         <v>0.3143081761006289</v>
@@ -9861,7 +9861,7 @@
         <v>862</v>
       </c>
       <c r="E432" t="n">
-        <v>0.002073637719836768</v>
+        <v>0.002073637719836767</v>
       </c>
       <c r="F432" t="n">
         <v>0.3392735913102512</v>
@@ -9971,7 +9971,7 @@
         <v>22224</v>
       </c>
       <c r="E437" t="n">
-        <v>0.000757564742685173</v>
+        <v>0.0007575647426851735</v>
       </c>
       <c r="F437" t="n">
         <v>0.49975</v>
@@ -9993,7 +9993,7 @@
         <v>29</v>
       </c>
       <c r="E438" t="n">
-        <v>0.0009669253119826252</v>
+        <v>0.0009669253119826251</v>
       </c>
       <c r="F438" t="n">
         <v>0.3544326241134752</v>
@@ -10015,7 +10015,7 @@
         <v>19133</v>
       </c>
       <c r="E439" t="n">
-        <v>0.0006448772085295528</v>
+        <v>0.0006448772085295525</v>
       </c>
       <c r="F439" t="n">
         <v>0.4975111996017919</v>
@@ -10103,7 +10103,7 @@
         <v>66</v>
       </c>
       <c r="E443" t="n">
-        <v>2.366471139658477e-05</v>
+        <v>2.366471139658476e-05</v>
       </c>
       <c r="F443" t="n">
         <v>0.3806893924966673</v>
@@ -10169,7 +10169,7 @@
         <v>7878</v>
       </c>
       <c r="E446" t="n">
-        <v>0.0008217824401018858</v>
+        <v>0.0008217824401018857</v>
       </c>
       <c r="F446" t="n">
         <v>0.4870857699805068</v>
@@ -10191,7 +10191,7 @@
         <v>530</v>
       </c>
       <c r="E447" t="n">
-        <v>7.363954999644118e-06</v>
+        <v>7.363954999644119e-06</v>
       </c>
       <c r="F447" t="n">
         <v>0.4164583333333334</v>
@@ -10279,7 +10279,7 @@
         <v>9377</v>
       </c>
       <c r="E451" t="n">
-        <v>0.0005490627948819015</v>
+        <v>0.0005490627948819013</v>
       </c>
       <c r="F451" t="n">
         <v>0.478115283425018</v>
@@ -10301,7 +10301,7 @@
         <v>12687</v>
       </c>
       <c r="E452" t="n">
-        <v>0.0008899135693185449</v>
+        <v>0.0008899135693185447</v>
       </c>
       <c r="F452" t="n">
         <v>0.4967693836978131</v>
@@ -10323,7 +10323,7 @@
         <v>12456</v>
       </c>
       <c r="E453" t="n">
-        <v>0.000812857146366638</v>
+        <v>0.0008128571463666382</v>
       </c>
       <c r="F453" t="n">
         <v>0.4963993046933201</v>
@@ -10345,7 +10345,7 @@
         <v>7167</v>
       </c>
       <c r="E454" t="n">
-        <v>0.0003368139001032914</v>
+        <v>0.0003368139001032912</v>
       </c>
       <c r="F454" t="n">
         <v>0.4384733494187322</v>
@@ -10367,7 +10367,7 @@
         <v>3357</v>
       </c>
       <c r="E455" t="n">
-        <v>0.0002209982647654097</v>
+        <v>0.0002209982647654098</v>
       </c>
       <c r="F455" t="n">
         <v>0.4547315741583258</v>
@@ -10389,7 +10389,7 @@
         <v>2772</v>
       </c>
       <c r="E456" t="n">
-        <v>0.0001000104251271193</v>
+        <v>0.0001000104251271194</v>
       </c>
       <c r="F456" t="n">
         <v>0.441280353200883</v>
@@ -10411,7 +10411,7 @@
         <v>4887</v>
       </c>
       <c r="E457" t="n">
-        <v>0.0003577617350404144</v>
+        <v>0.0003577617350404145</v>
       </c>
       <c r="F457" t="n">
         <v>0.4643437862950058</v>
@@ -10455,7 +10455,7 @@
         <v>13528</v>
       </c>
       <c r="E459" t="n">
-        <v>0.0009897735615296594</v>
+        <v>0.0009897735615296591</v>
       </c>
       <c r="F459" t="n">
         <v>0.4921221073362876</v>
@@ -10499,7 +10499,7 @@
         <v>3958</v>
       </c>
       <c r="E461" t="n">
-        <v>0.004418246766209309</v>
+        <v>0.004418246766209308</v>
       </c>
       <c r="F461" t="n">
         <v>0.4302625914765389</v>
@@ -10543,7 +10543,7 @@
         <v>10153</v>
       </c>
       <c r="E463" t="n">
-        <v>0.0005816928689896346</v>
+        <v>0.0005816928689896345</v>
       </c>
       <c r="F463" t="n">
         <v>0.4892315222711699</v>
@@ -10565,7 +10565,7 @@
         <v>9279</v>
       </c>
       <c r="E464" t="n">
-        <v>0.0007208843006645568</v>
+        <v>0.0007208843006645564</v>
       </c>
       <c r="F464" t="n">
         <v>0.4794914847685296</v>
@@ -10587,7 +10587,7 @@
         <v>22006</v>
       </c>
       <c r="E465" t="n">
-        <v>0.0008751101799818254</v>
+        <v>0.0008751101799818258</v>
       </c>
       <c r="F465" t="n">
         <v>0.4998749687421856</v>
@@ -10609,7 +10609,7 @@
         <v>9344</v>
       </c>
       <c r="E466" t="n">
-        <v>0.0007150126410049855</v>
+        <v>0.0007150126410049854</v>
       </c>
       <c r="F466" t="n">
         <v>0.4873232569478303</v>
@@ -10631,7 +10631,7 @@
         <v>1040</v>
       </c>
       <c r="E467" t="n">
-        <v>5.08427583260109e-06</v>
+        <v>5.084275832601089e-06</v>
       </c>
       <c r="F467" t="n">
         <v>0.4222644697929869</v>
@@ -10675,7 +10675,7 @@
         <v>20276</v>
       </c>
       <c r="E469" t="n">
-        <v>0.000778215044922119</v>
+        <v>0.0007782150449221189</v>
       </c>
       <c r="F469" t="n">
         <v>0.5006260956674179</v>
@@ -10741,7 +10741,7 @@
         <v>7466</v>
       </c>
       <c r="E472" t="n">
-        <v>0.0002476474628912769</v>
+        <v>0.0002476474628912768</v>
       </c>
       <c r="F472" t="n">
         <v>0.4776583034647551</v>
@@ -10763,7 +10763,7 @@
         <v>13051</v>
       </c>
       <c r="E473" t="n">
-        <v>0.0007697300484769357</v>
+        <v>0.0007697300484769361</v>
       </c>
       <c r="F473" t="n">
         <v>0.4944348256245363</v>
@@ -10807,7 +10807,7 @@
         <v>4885</v>
       </c>
       <c r="E475" t="n">
-        <v>0.005079819164162493</v>
+        <v>0.005079819164162497</v>
       </c>
       <c r="F475" t="n">
         <v>0.4436307146027519</v>
@@ -10829,7 +10829,7 @@
         <v>537</v>
       </c>
       <c r="E476" t="n">
-        <v>2.754371414705373e-06</v>
+        <v>2.754371414705372e-06</v>
       </c>
       <c r="F476" t="n">
         <v>0.4125051588939332</v>
@@ -10895,7 +10895,7 @@
         <v>2230</v>
       </c>
       <c r="E479" t="n">
-        <v>4.620947207263577e-05</v>
+        <v>4.620947207263578e-05</v>
       </c>
       <c r="F479" t="n">
         <v>0.4516493447808405</v>
@@ -10939,7 +10939,7 @@
         <v>1917</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0001138384372921348</v>
+        <v>0.0001138384372921347</v>
       </c>
       <c r="F481" t="n">
         <v>0.4360820244328098</v>
@@ -10961,7 +10961,7 @@
         <v>4787</v>
       </c>
       <c r="E482" t="n">
-        <v>0.000126022317080547</v>
+        <v>0.0001260223170805469</v>
       </c>
       <c r="F482" t="n">
         <v>0.458276020174232</v>
@@ -11027,7 +11027,7 @@
         <v>4334</v>
       </c>
       <c r="E485" t="n">
-        <v>0.009393164761509065</v>
+        <v>0.009393164761509063</v>
       </c>
       <c r="F485" t="n">
         <v>0.4596458956081858</v>
@@ -11049,7 +11049,7 @@
         <v>613</v>
       </c>
       <c r="E486" t="n">
-        <v>8.218091185270057e-05</v>
+        <v>8.218091185270062e-05</v>
       </c>
       <c r="F486" t="n">
         <v>0.4129312125593885</v>
@@ -11093,7 +11093,7 @@
         <v>104</v>
       </c>
       <c r="E488" t="n">
-        <v>6.294093740643573e-08</v>
+        <v>6.294093740643574e-08</v>
       </c>
       <c r="F488" t="n">
         <v>0.3327230359520639</v>
@@ -11115,7 +11115,7 @@
         <v>4398</v>
       </c>
       <c r="E489" t="n">
-        <v>0.0001315015207588773</v>
+        <v>0.0001315015207588772</v>
       </c>
       <c r="F489" t="n">
         <v>0.4569142857142857</v>
@@ -11159,7 +11159,7 @@
         <v>726</v>
       </c>
       <c r="E491" t="n">
-        <v>1.379979479867199e-05</v>
+        <v>1.379979479867198e-05</v>
       </c>
       <c r="F491" t="n">
         <v>0.4323096885813149</v>
@@ -11203,7 +11203,7 @@
         <v>18</v>
       </c>
       <c r="E493" t="n">
-        <v>0.001945964685683477</v>
+        <v>0.001945964685683476</v>
       </c>
       <c r="F493" t="n">
         <v>0.3337785940891635</v>
@@ -11269,7 +11269,7 @@
         <v>2460</v>
       </c>
       <c r="E496" t="n">
-        <v>7.515016962673232e-05</v>
+        <v>7.515016962673234e-05</v>
       </c>
       <c r="F496" t="n">
         <v>0.4385695480473892</v>
@@ -11291,7 +11291,7 @@
         <v>4790</v>
       </c>
       <c r="E497" t="n">
-        <v>0.0007720180153057604</v>
+        <v>0.0007720180153057602</v>
       </c>
       <c r="F497" t="n">
         <v>0.4752734189253447</v>
@@ -11379,7 +11379,7 @@
         <v>9420</v>
       </c>
       <c r="E501" t="n">
-        <v>0.0005261649903284813</v>
+        <v>0.0005261649903284815</v>
       </c>
       <c r="F501" t="n">
         <v>0.4926071956628881</v>
@@ -11401,7 +11401,7 @@
         <v>9225</v>
       </c>
       <c r="E502" t="n">
-        <v>0.0008267977910117367</v>
+        <v>0.0008267977910117365</v>
       </c>
       <c r="F502" t="n">
         <v>0.4797216222702184</v>
@@ -11467,7 +11467,7 @@
         <v>2748</v>
       </c>
       <c r="E505" t="n">
-        <v>0.005417877402270999</v>
+        <v>0.005417877402271</v>
       </c>
       <c r="F505" t="n">
         <v>0.4431389935712702</v>
@@ -11489,7 +11489,7 @@
         <v>2186</v>
       </c>
       <c r="E506" t="n">
-        <v>0.0004189867208853915</v>
+        <v>0.0004189867208853914</v>
       </c>
       <c r="F506" t="n">
         <v>0.4397272327320721</v>
@@ -11555,7 +11555,7 @@
         <v>5087</v>
       </c>
       <c r="E509" t="n">
-        <v>0.0001970369498798323</v>
+        <v>0.0001970369498798322</v>
       </c>
       <c r="F509" t="n">
         <v>0.465967365967366</v>
@@ -11577,7 +11577,7 @@
         <v>7552</v>
       </c>
       <c r="E510" t="n">
-        <v>0.0003976470884590535</v>
+        <v>0.0003976470884590534</v>
       </c>
       <c r="F510" t="n">
         <v>0.4712399811409713</v>
@@ -11621,7 +11621,7 @@
         <v>2208</v>
       </c>
       <c r="E512" t="n">
-        <v>0.0003167235578472469</v>
+        <v>0.0003167235578472467</v>
       </c>
       <c r="F512" t="n">
         <v>0.4324032013843825</v>
@@ -11709,7 +11709,7 @@
         <v>1072</v>
       </c>
       <c r="E516" t="n">
-        <v>5.176098890815868e-05</v>
+        <v>5.176098890815867e-05</v>
       </c>
       <c r="F516" t="n">
         <v>0.4214632089394897</v>
@@ -11775,7 +11775,7 @@
         <v>6886</v>
       </c>
       <c r="E519" t="n">
-        <v>0.0004435565637798542</v>
+        <v>0.0004435565637798541</v>
       </c>
       <c r="F519" t="n">
         <v>0.4554568238778765</v>
@@ -11797,7 +11797,7 @@
         <v>23493</v>
       </c>
       <c r="E520" t="n">
-        <v>0.0009127802351278701</v>
+        <v>0.0009127802351278702</v>
       </c>
       <c r="F520" t="n">
         <v>0.4996250937265684</v>
@@ -11819,7 +11819,7 @@
         <v>3915</v>
       </c>
       <c r="E521" t="n">
-        <v>0.0004786258223680237</v>
+        <v>0.0004786258223680236</v>
       </c>
       <c r="F521" t="n">
         <v>0.4645596095747153</v>
@@ -11885,7 +11885,7 @@
         <v>702</v>
       </c>
       <c r="E524" t="n">
-        <v>5.995631582836881e-06</v>
+        <v>5.995631582836882e-06</v>
       </c>
       <c r="F524" t="n">
         <v>0.3401395269695423</v>
@@ -11907,7 +11907,7 @@
         <v>17078</v>
       </c>
       <c r="E525" t="n">
-        <v>0.0008196938768896242</v>
+        <v>0.0008196938768896241</v>
       </c>
       <c r="F525" t="n">
         <v>0.500751503006012</v>
@@ -11929,7 +11929,7 @@
         <v>8930</v>
       </c>
       <c r="E526" t="n">
-        <v>0.004690069565510355</v>
+        <v>0.00469006956551036</v>
       </c>
       <c r="F526" t="n">
         <v>0.4726885788602506</v>
@@ -11951,7 +11951,7 @@
         <v>47</v>
       </c>
       <c r="E527" t="n">
-        <v>0.0007924605759784524</v>
+        <v>0.0007924605759784525</v>
       </c>
       <c r="F527" t="n">
         <v>0.3697743248242694</v>
@@ -11995,7 +11995,7 @@
         <v>98</v>
       </c>
       <c r="E529" t="n">
-        <v>0.01458426175321718</v>
+        <v>0.01458426175321717</v>
       </c>
       <c r="F529" t="n">
         <v>0.3399659863945578</v>
@@ -12039,7 +12039,7 @@
         <v>433</v>
       </c>
       <c r="E531" t="n">
-        <v>2.139580979104917e-05</v>
+        <v>2.139580979104916e-05</v>
       </c>
       <c r="F531" t="n">
         <v>0.3399659863945578</v>
@@ -12083,7 +12083,7 @@
         <v>2616</v>
       </c>
       <c r="E533" t="n">
-        <v>7.95303574331244e-05</v>
+        <v>7.953035743312443e-05</v>
       </c>
       <c r="F533" t="n">
         <v>0.450428120775124</v>
@@ -12105,7 +12105,7 @@
         <v>7620</v>
       </c>
       <c r="E534" t="n">
-        <v>0.0001942830514590101</v>
+        <v>0.00019428305145901</v>
       </c>
       <c r="F534" t="n">
         <v>0.4634824947832135</v>
@@ -12259,7 +12259,7 @@
         <v>8850</v>
       </c>
       <c r="E541" t="n">
-        <v>0.0008528003466934271</v>
+        <v>0.0008528003466934276</v>
       </c>
       <c r="F541" t="n">
         <v>0.4788023952095808</v>
@@ -12347,7 +12347,7 @@
         <v>19866</v>
       </c>
       <c r="E545" t="n">
-        <v>0.0007979729816083357</v>
+        <v>0.0007979729816083356</v>
       </c>
       <c r="F545" t="n">
         <v>0.4903115035565366</v>
@@ -12391,7 +12391,7 @@
         <v>7802</v>
       </c>
       <c r="E547" t="n">
-        <v>0.001234208313463247</v>
+        <v>0.001234208313463248</v>
       </c>
       <c r="F547" t="n">
         <v>0.485429820301117</v>
@@ -12413,7 +12413,7 @@
         <v>22</v>
       </c>
       <c r="E548" t="n">
-        <v>5.082685792123817e-06</v>
+        <v>5.082685792123818e-06</v>
       </c>
       <c r="F548" t="n">
         <v>0.3378972278566599</v>
@@ -12457,7 +12457,7 @@
         <v>242</v>
       </c>
       <c r="E550" t="n">
-        <v>5.067357076316736e-06</v>
+        <v>5.067357076316735e-06</v>
       </c>
       <c r="F550" t="n">
         <v>0.3284587578047979</v>
@@ -12501,7 +12501,7 @@
         <v>8142</v>
       </c>
       <c r="E552" t="n">
-        <v>0.0003340332783012789</v>
+        <v>0.0003340332783012788</v>
       </c>
       <c r="F552" t="n">
         <v>0.471351096439519</v>
@@ -12523,7 +12523,7 @@
         <v>11237</v>
       </c>
       <c r="E553" t="n">
-        <v>0.0005172093724825447</v>
+        <v>0.0005172093724825445</v>
       </c>
       <c r="F553" t="n">
         <v>0.4895909870193485</v>
@@ -12589,7 +12589,7 @@
         <v>7414</v>
       </c>
       <c r="E556" t="n">
-        <v>0.0005438998832375674</v>
+        <v>0.0005438998832375672</v>
       </c>
       <c r="F556" t="n">
         <v>0.4594346127327051</v>
@@ -12611,7 +12611,7 @@
         <v>13180</v>
       </c>
       <c r="E557" t="n">
-        <v>0.0006376200047685161</v>
+        <v>0.0006376200047685163</v>
       </c>
       <c r="F557" t="n">
         <v>0.4932149025413274</v>
@@ -12633,7 +12633,7 @@
         <v>714</v>
       </c>
       <c r="E558" t="n">
-        <v>5.640476719663867e-05</v>
+        <v>5.640476719663865e-05</v>
       </c>
       <c r="F558" t="n">
         <v>0.4324967546516659</v>
@@ -12655,7 +12655,7 @@
         <v>8445</v>
       </c>
       <c r="E559" t="n">
-        <v>0.0004538645616529609</v>
+        <v>0.0004538645616529607</v>
       </c>
       <c r="F559" t="n">
         <v>0.454835039817975</v>
@@ -12697,7 +12697,7 @@
         <v>9114</v>
       </c>
       <c r="E561" t="n">
-        <v>0.0005500944367235536</v>
+        <v>0.0005500944367235533</v>
       </c>
       <c r="F561" t="n">
         <v>0.4502252252252252</v>
@@ -12719,7 +12719,7 @@
         <v>915</v>
       </c>
       <c r="E562" t="n">
-        <v>1.579364224639961e-05</v>
+        <v>1.579364224639962e-05</v>
       </c>
       <c r="F562" t="n">
         <v>0.4324967546516659</v>
@@ -12741,7 +12741,7 @@
         <v>6436</v>
       </c>
       <c r="E563" t="n">
-        <v>0.0003051763492879202</v>
+        <v>0.0003051763492879201</v>
       </c>
       <c r="F563" t="n">
         <v>0.4743711438063598</v>
@@ -12785,7 +12785,7 @@
         <v>4089</v>
       </c>
       <c r="E565" t="n">
-        <v>0.0002148156644647657</v>
+        <v>0.0002148156644647656</v>
       </c>
       <c r="F565" t="n">
         <v>0.465316573556797</v>
@@ -12807,7 +12807,7 @@
         <v>181</v>
       </c>
       <c r="E566" t="n">
-        <v>1.656749284999903e-05</v>
+        <v>1.656749284999904e-05</v>
       </c>
       <c r="F566" t="n">
         <v>0.3684113527460376</v>
@@ -12829,7 +12829,7 @@
         <v>372</v>
       </c>
       <c r="E567" t="n">
-        <v>3.16374182618477e-06</v>
+        <v>3.163741826184769e-06</v>
       </c>
       <c r="F567" t="n">
         <v>0.4051479529793271</v>
@@ -12873,7 +12873,7 @@
         <v>7053</v>
       </c>
       <c r="E569" t="n">
-        <v>0.0004529145977746143</v>
+        <v>0.0004529145977746142</v>
       </c>
       <c r="F569" t="n">
         <v>0.4761791329204383</v>
@@ -12917,7 +12917,7 @@
         <v>407</v>
       </c>
       <c r="E571" t="n">
-        <v>4.676040894900347e-07</v>
+        <v>4.676040894900348e-07</v>
       </c>
       <c r="F571" t="n">
         <v>0.3330556481172943</v>
@@ -12939,7 +12939,7 @@
         <v>5459</v>
       </c>
       <c r="E572" t="n">
-        <v>0.0001937226656405488</v>
+        <v>0.0001937226656405489</v>
       </c>
       <c r="F572" t="n">
         <v>0.4701317027281279</v>
@@ -12961,7 +12961,7 @@
         <v>15684</v>
       </c>
       <c r="E573" t="n">
-        <v>0.004016778405197595</v>
+        <v>0.004016778405197597</v>
       </c>
       <c r="F573" t="n">
         <v>0.5086513994910942</v>
@@ -13027,7 +13027,7 @@
         <v>974</v>
       </c>
       <c r="E576" t="n">
-        <v>1.05888553795982e-05</v>
+        <v>1.058885537959819e-05</v>
       </c>
       <c r="F576" t="n">
         <v>0.4186387434554974</v>
@@ -13071,7 +13071,7 @@
         <v>9246</v>
       </c>
       <c r="E578" t="n">
-        <v>0.002064414483908178</v>
+        <v>0.002064414483908179</v>
       </c>
       <c r="F578" t="n">
         <v>0.4898309237931879</v>
@@ -13115,7 +13115,7 @@
         <v>5983</v>
       </c>
       <c r="E580" t="n">
-        <v>0.0007420811292006757</v>
+        <v>0.0007420811292006755</v>
       </c>
       <c r="F580" t="n">
         <v>0.46208969024503</v>
@@ -13137,7 +13137,7 @@
         <v>1942</v>
       </c>
       <c r="E581" t="n">
-        <v>0.0001725588021939816</v>
+        <v>0.0001725588021939817</v>
       </c>
       <c r="F581" t="n">
         <v>0.4437291897891232</v>
@@ -13181,7 +13181,7 @@
         <v>5602</v>
       </c>
       <c r="E583" t="n">
-        <v>0.0003834264828599592</v>
+        <v>0.0003834264828599591</v>
       </c>
       <c r="F583" t="n">
         <v>0.4751604468742572</v>
@@ -13203,7 +13203,7 @@
         <v>11124</v>
       </c>
       <c r="E584" t="n">
-        <v>0.0005681293537134356</v>
+        <v>0.0005681293537134354</v>
       </c>
       <c r="F584" t="n">
         <v>0.4826170931916948</v>
@@ -13291,7 +13291,7 @@
         <v>16984</v>
       </c>
       <c r="E588" t="n">
-        <v>0.0007158579954237391</v>
+        <v>0.0007158579954237389</v>
       </c>
       <c r="F588" t="n">
         <v>0.49875249500998</v>
@@ -13379,7 +13379,7 @@
         <v>5262</v>
       </c>
       <c r="E592" t="n">
-        <v>0.000505633744743946</v>
+        <v>0.0005056337447439459</v>
       </c>
       <c r="F592" t="n">
         <v>0.4731360946745562</v>
@@ -13423,7 +13423,7 @@
         <v>11726</v>
       </c>
       <c r="E594" t="n">
-        <v>0.0008360626781176731</v>
+        <v>0.0008360626781176734</v>
       </c>
       <c r="F594" t="n">
         <v>0.4840193704600484</v>
@@ -13489,7 +13489,7 @@
         <v>15967</v>
       </c>
       <c r="E597" t="n">
-        <v>0.002055627336798393</v>
+        <v>0.002055627336798395</v>
       </c>
       <c r="F597" t="n">
         <v>0.5173395445134575</v>
@@ -13511,7 +13511,7 @@
         <v>10019</v>
       </c>
       <c r="E598" t="n">
-        <v>0.000583714429817055</v>
+        <v>0.0005837144298170551</v>
       </c>
       <c r="F598" t="n">
         <v>0.4859017987360233</v>
@@ -13577,7 +13577,7 @@
         <v>3368</v>
       </c>
       <c r="E601" t="n">
-        <v>3.576335985074845e-05</v>
+        <v>3.576335985074846e-05</v>
       </c>
       <c r="F601" t="n">
         <v>0.4470035778175313</v>
@@ -13599,7 +13599,7 @@
         <v>5391</v>
       </c>
       <c r="E602" t="n">
-        <v>0.0009531867644840312</v>
+        <v>0.0009531867644840309</v>
       </c>
       <c r="F602" t="n">
         <v>0.4726885788602506</v>
@@ -13665,7 +13665,7 @@
         <v>9398</v>
       </c>
       <c r="E605" t="n">
-        <v>0.0008224563107395893</v>
+        <v>0.000822456310739589</v>
       </c>
       <c r="F605" t="n">
         <v>0.4866114897760467</v>
@@ -13687,7 +13687,7 @@
         <v>7962</v>
       </c>
       <c r="E606" t="n">
-        <v>0.0006800656039190641</v>
+        <v>0.0006800656039190642</v>
       </c>
       <c r="F606" t="n">
         <v>0.4883948204251161</v>
@@ -13709,7 +13709,7 @@
         <v>164</v>
       </c>
       <c r="E607" t="n">
-        <v>4.095656385789263e-05</v>
+        <v>4.095656385789261e-05</v>
       </c>
       <c r="F607" t="n">
         <v>0.4209307222573173</v>
@@ -13753,7 +13753,7 @@
         <v>534</v>
       </c>
       <c r="E609" t="n">
-        <v>0.0009002365486849053</v>
+        <v>0.0009002365486849056</v>
       </c>
       <c r="F609" t="n">
         <v>0.4205764780138859</v>
@@ -13775,7 +13775,7 @@
         <v>10729</v>
       </c>
       <c r="E610" t="n">
-        <v>0.0007611059011220028</v>
+        <v>0.000761105901122003</v>
       </c>
       <c r="F610" t="n">
         <v>0.4891118179593834</v>
@@ -13797,7 +13797,7 @@
         <v>2530</v>
       </c>
       <c r="E611" t="n">
-        <v>0.0001337906100848344</v>
+        <v>0.0001337906100848345</v>
       </c>
       <c r="F611" t="n">
         <v>0.4344707672245164</v>
@@ -13973,7 +13973,7 @@
         <v>111</v>
       </c>
       <c r="E619" t="n">
-        <v>3.549268450481188e-05</v>
+        <v>3.549268450481189e-05</v>
       </c>
       <c r="F619" t="n">
         <v>0.3012810851544838</v>
@@ -14061,7 +14061,7 @@
         <v>5291</v>
       </c>
       <c r="E623" t="n">
-        <v>0.0005723234943464107</v>
+        <v>0.0005723234943464109</v>
       </c>
       <c r="F623" t="n">
         <v>0.4385695480473892</v>
@@ -14105,7 +14105,7 @@
         <v>10401</v>
       </c>
       <c r="E625" t="n">
-        <v>0.000675805670402292</v>
+        <v>0.0006758056704022919</v>
       </c>
       <c r="F625" t="n">
         <v>0.4894711067580803</v>
@@ -14171,7 +14171,7 @@
         <v>5717</v>
       </c>
       <c r="E628" t="n">
-        <v>0.0004451773937810837</v>
+        <v>0.0004451773937810838</v>
       </c>
       <c r="F628" t="n">
         <v>0.4627314814814815</v>
@@ -14193,7 +14193,7 @@
         <v>12065</v>
       </c>
       <c r="E629" t="n">
-        <v>0.000475649311619138</v>
+        <v>0.0004756493116191379</v>
       </c>
       <c r="F629" t="n">
         <v>0.4929716399506782</v>
@@ -14215,7 +14215,7 @@
         <v>1115</v>
       </c>
       <c r="E630" t="n">
-        <v>2.920199776152206e-05</v>
+        <v>2.920199776152207e-05</v>
       </c>
       <c r="F630" t="n">
         <v>0.4165451135653261</v>
@@ -14237,7 +14237,7 @@
         <v>6569</v>
       </c>
       <c r="E631" t="n">
-        <v>0.0008864915233317038</v>
+        <v>0.000886491523331704</v>
       </c>
       <c r="F631" t="n">
         <v>0.484841135095804</v>
@@ -14345,7 +14345,7 @@
         <v>10297</v>
       </c>
       <c r="E636" t="n">
-        <v>0.0008793492752087289</v>
+        <v>0.0008793492752087287</v>
       </c>
       <c r="F636" t="n">
         <v>0.4901912702305052</v>
@@ -14433,7 +14433,7 @@
         <v>67</v>
       </c>
       <c r="E640" t="n">
-        <v>0.0007395780863265333</v>
+        <v>0.0007395780863265334</v>
       </c>
       <c r="F640" t="n">
         <v>0.3532426223714437</v>
@@ -14455,7 +14455,7 @@
         <v>22250</v>
       </c>
       <c r="E641" t="n">
-        <v>0.001273592900468434</v>
+        <v>0.001273592900468435</v>
       </c>
       <c r="F641" t="n">
         <v>0.5144107050952136</v>
@@ -14477,7 +14477,7 @@
         <v>2254</v>
       </c>
       <c r="E642" t="n">
-        <v>0.0001590922412764437</v>
+        <v>0.0001590922412764438</v>
       </c>
       <c r="F642" t="n">
         <v>0.4563926940639269</v>
@@ -14521,7 +14521,7 @@
         <v>16693</v>
       </c>
       <c r="E644" t="n">
-        <v>0.001046763140479993</v>
+        <v>0.001046763140479992</v>
       </c>
       <c r="F644" t="n">
         <v>0.5124327095616509</v>
@@ -14543,7 +14543,7 @@
         <v>8</v>
       </c>
       <c r="E645" t="n">
-        <v>6.729414245480315e-06</v>
+        <v>6.729414245480316e-06</v>
       </c>
       <c r="F645" t="n">
         <v>0.292336940625914</v>
@@ -14565,7 +14565,7 @@
         <v>1279</v>
       </c>
       <c r="E646" t="n">
-        <v>7.311102523682033e-06</v>
+        <v>7.311102523682034e-06</v>
       </c>
       <c r="F646" t="n">
         <v>0.4267719897523484</v>
@@ -14609,7 +14609,7 @@
         <v>17774</v>
       </c>
       <c r="E648" t="n">
-        <v>0.0005592605292346461</v>
+        <v>0.0005592605292346464</v>
       </c>
       <c r="F648" t="n">
         <v>0.4935802469135803</v>
@@ -14741,7 +14741,7 @@
         <v>10133</v>
       </c>
       <c r="E654" t="n">
-        <v>0.001261181539191338</v>
+        <v>0.001261181539191337</v>
       </c>
       <c r="F654" t="n">
         <v>0.4872044845235194</v>
@@ -14829,7 +14829,7 @@
         <v>10508</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0006549774585846455</v>
+        <v>0.0006549774585846454</v>
       </c>
       <c r="F658" t="n">
         <v>0.4851941747572815</v>
@@ -14873,7 +14873,7 @@
         <v>1214</v>
       </c>
       <c r="E660" t="n">
-        <v>0.0003217446902781137</v>
+        <v>0.0003217446902781136</v>
       </c>
       <c r="F660" t="n">
         <v>0.3778113778113778</v>
@@ -14895,7 +14895,7 @@
         <v>418</v>
       </c>
       <c r="E661" t="n">
-        <v>3.318004820532059e-05</v>
+        <v>3.31800482053206e-05</v>
       </c>
       <c r="F661" t="n">
         <v>0.4147302904564315</v>
@@ -14939,7 +14939,7 @@
         <v>846</v>
       </c>
       <c r="E663" t="n">
-        <v>7.073391577854984e-05</v>
+        <v>7.073391577854989e-05</v>
       </c>
       <c r="F663" t="n">
         <v>0.4360820244328098</v>
@@ -14961,7 +14961,7 @@
         <v>12626</v>
       </c>
       <c r="E664" t="n">
-        <v>0.0004916620052032509</v>
+        <v>0.0004916620052032508</v>
       </c>
       <c r="F664" t="n">
         <v>0.4836680377449794</v>
@@ -15027,7 +15027,7 @@
         <v>772</v>
       </c>
       <c r="E667" t="n">
-        <v>1.318865800869549e-05</v>
+        <v>1.318865800869548e-05</v>
       </c>
       <c r="F667" t="n">
         <v>0.4250478418031044</v>
@@ -15093,7 +15093,7 @@
         <v>3468</v>
       </c>
       <c r="E670" t="n">
-        <v>0.0007768294237558763</v>
+        <v>0.0007768294237558765</v>
       </c>
       <c r="F670" t="n">
         <v>0.4588019279320634</v>
@@ -15137,7 +15137,7 @@
         <v>17457</v>
       </c>
       <c r="E672" t="n">
-        <v>0.01592733852114151</v>
+        <v>0.01592733852114152</v>
       </c>
       <c r="F672" t="n">
         <v>0.4995002498750625</v>
@@ -15159,7 +15159,7 @@
         <v>461</v>
       </c>
       <c r="E673" t="n">
-        <v>5.559422344828074e-06</v>
+        <v>5.559422344828075e-06</v>
       </c>
       <c r="F673" t="n">
         <v>0.3330556481172943</v>
@@ -15181,7 +15181,7 @@
         <v>7630</v>
       </c>
       <c r="E674" t="n">
-        <v>0.0005726225797667718</v>
+        <v>0.0005726225797667719</v>
       </c>
       <c r="F674" t="n">
         <v>0.4793764988009592</v>
@@ -15335,7 +15335,7 @@
         <v>24</v>
       </c>
       <c r="E681" t="n">
-        <v>9.486528796979723e-05</v>
+        <v>9.486528796979721e-05</v>
       </c>
       <c r="F681" t="n">
         <v>0.292936694021102</v>
@@ -15357,7 +15357,7 @@
         <v>1533</v>
       </c>
       <c r="E682" t="n">
-        <v>0.00327425925610938</v>
+        <v>0.003274259256109379</v>
       </c>
       <c r="F682" t="n">
         <v>0.4411829618185831</v>
@@ -15423,7 +15423,7 @@
         <v>7998</v>
       </c>
       <c r="E685" t="n">
-        <v>0.003622035307873305</v>
+        <v>0.003622035307873306</v>
       </c>
       <c r="F685" t="n">
         <v>0.486256385307711</v>
@@ -15511,7 +15511,7 @@
         <v>1699</v>
       </c>
       <c r="E689" t="n">
-        <v>3.6855342528632e-05</v>
+        <v>3.685534252863199e-05</v>
       </c>
       <c r="F689" t="n">
         <v>0.4496176338281602</v>
@@ -15533,7 +15533,7 @@
         <v>7397</v>
       </c>
       <c r="E690" t="n">
-        <v>0.0006797881331942378</v>
+        <v>0.0006797881331942376</v>
       </c>
       <c r="F690" t="n">
         <v>0.4703529411764706</v>
@@ -15599,7 +15599,7 @@
         <v>3093</v>
       </c>
       <c r="E693" t="n">
-        <v>0.0001258229927058358</v>
+        <v>0.0001258229927058357</v>
       </c>
       <c r="F693" t="n">
         <v>0.4418656056587091</v>
@@ -15621,7 +15621,7 @@
         <v>9161</v>
       </c>
       <c r="E694" t="n">
-        <v>0.0008170820151125653</v>
+        <v>0.0008170820151125655</v>
       </c>
       <c r="F694" t="n">
         <v>0.4941903584672436</v>
@@ -15643,7 +15643,7 @@
         <v>4565</v>
       </c>
       <c r="E695" t="n">
-        <v>0.0003163420518312359</v>
+        <v>0.0003163420518312361</v>
       </c>
       <c r="F695" t="n">
         <v>0.4626243925017357</v>
@@ -15665,7 +15665,7 @@
         <v>1618</v>
       </c>
       <c r="E696" t="n">
-        <v>0.0003256643718452943</v>
+        <v>0.0003256643718452946</v>
       </c>
       <c r="F696" t="n">
         <v>0.4393406593406594</v>
@@ -15775,7 +15775,7 @@
         <v>19345</v>
       </c>
       <c r="E701" t="n">
-        <v>0.0006865965056819456</v>
+        <v>0.0006865965056819458</v>
       </c>
       <c r="F701" t="n">
         <v>0.4881562881562881</v>
@@ -15819,7 +15819,7 @@
         <v>452</v>
       </c>
       <c r="E703" t="n">
-        <v>4.576715495034129e-05</v>
+        <v>4.576715495034128e-05</v>
       </c>
       <c r="F703" t="n">
         <v>0.419253355704698</v>
@@ -15951,7 +15951,7 @@
         <v>2495</v>
       </c>
       <c r="E709" t="n">
-        <v>0.0004141721624643197</v>
+        <v>0.0004141721624643198</v>
       </c>
       <c r="F709" t="n">
         <v>0.4722419088117175</v>
@@ -15973,7 +15973,7 @@
         <v>293</v>
       </c>
       <c r="E710" t="n">
-        <v>1.043605226296166e-05</v>
+        <v>1.043605226296165e-05</v>
       </c>
       <c r="F710" t="n">
         <v>0.3365319865319866</v>
@@ -16017,7 +16017,7 @@
         <v>5761</v>
       </c>
       <c r="E712" t="n">
-        <v>0.0003059120222321658</v>
+        <v>0.0003059120222321657</v>
       </c>
       <c r="F712" t="n">
         <v>0.4690286250586579</v>
@@ -16105,7 +16105,7 @@
         <v>8293</v>
       </c>
       <c r="E716" t="n">
-        <v>0.0003216703565764529</v>
+        <v>0.000321670356576453</v>
       </c>
       <c r="F716" t="n">
         <v>0.4786877394636015</v>
@@ -16193,7 +16193,7 @@
         <v>11729</v>
       </c>
       <c r="E720" t="n">
-        <v>0.001337210715533581</v>
+        <v>0.001337210715533582</v>
       </c>
       <c r="F720" t="n">
         <v>0.5069743849860512</v>
@@ -16345,7 +16345,7 @@
         <v>9187</v>
       </c>
       <c r="E727" t="n">
-        <v>0.0007125693620305015</v>
+        <v>0.0007125693620305016</v>
       </c>
       <c r="F727" t="n">
         <v>0.4857837181044958</v>
@@ -16433,7 +16433,7 @@
         <v>15086</v>
       </c>
       <c r="E731" t="n">
-        <v>0.001729237937458697</v>
+        <v>0.001729237937458696</v>
       </c>
       <c r="F731" t="n">
         <v>0.4955379276152702</v>
@@ -16455,7 +16455,7 @@
         <v>73</v>
       </c>
       <c r="E732" t="n">
-        <v>7.902164412229519e-07</v>
+        <v>7.90216441222952e-07</v>
       </c>
       <c r="F732" t="n">
         <v>0.3163975941753719</v>
@@ -16543,7 +16543,7 @@
         <v>3585</v>
       </c>
       <c r="E736" t="n">
-        <v>0.0001559990481172094</v>
+        <v>0.0001559990481172095</v>
       </c>
       <c r="F736" t="n">
         <v>0.4601749539594844</v>
@@ -16587,7 +16587,7 @@
         <v>1144</v>
       </c>
       <c r="E738" t="n">
-        <v>7.624892844861875e-05</v>
+        <v>7.624892844861876e-05</v>
       </c>
       <c r="F738" t="n">
         <v>0.332280585106383</v>
@@ -16631,7 +16631,7 @@
         <v>6008</v>
       </c>
       <c r="E740" t="n">
-        <v>0.0004484627920357804</v>
+        <v>0.0004484627920357803</v>
       </c>
       <c r="F740" t="n">
         <v>0.4543181818181818</v>
@@ -16653,7 +16653,7 @@
         <v>7903</v>
       </c>
       <c r="E741" t="n">
-        <v>0.0009505900239683694</v>
+        <v>0.0009505900239683698</v>
       </c>
       <c r="F741" t="n">
         <v>0.4777724665391969</v>
@@ -16697,7 +16697,7 @@
         <v>725</v>
       </c>
       <c r="E743" t="n">
-        <v>2.22222673615433e-06</v>
+        <v>2.222226736154331e-06</v>
       </c>
       <c r="F743" t="n">
         <v>0.4332466406588643</v>
@@ -16719,7 +16719,7 @@
         <v>1820</v>
       </c>
       <c r="E744" t="n">
-        <v>3.314562396941098e-05</v>
+        <v>3.314562396941099e-05</v>
       </c>
       <c r="F744" t="n">
         <v>0.4332466406588643</v>
@@ -16785,7 +16785,7 @@
         <v>1285</v>
       </c>
       <c r="E747" t="n">
-        <v>1.187610942646931e-05</v>
+        <v>1.187610942646932e-05</v>
       </c>
       <c r="F747" t="n">
         <v>0.4339991315675206</v>
@@ -16895,7 +16895,7 @@
         <v>14786</v>
       </c>
       <c r="E752" t="n">
-        <v>0.0009270195484532382</v>
+        <v>0.0009270195484532379</v>
       </c>
       <c r="F752" t="n">
         <v>0.4971400149216613</v>
@@ -16961,7 +16961,7 @@
         <v>5292</v>
       </c>
       <c r="E755" t="n">
-        <v>0.0002460305022742743</v>
+        <v>0.0002460305022742742</v>
       </c>
       <c r="F755" t="n">
         <v>0.4436307146027519</v>
@@ -17005,7 +17005,7 @@
         <v>11969</v>
       </c>
       <c r="E757" t="n">
-        <v>0.0007339844781707272</v>
+        <v>0.0007339844781707271</v>
       </c>
       <c r="F757" t="n">
         <v>0.4723534971644612</v>
@@ -17049,7 +17049,7 @@
         <v>7991</v>
       </c>
       <c r="E759" t="n">
-        <v>0.0004612994831180558</v>
+        <v>0.0004612994831180557</v>
       </c>
       <c r="F759" t="n">
         <v>0.4777724665391969</v>
@@ -17071,7 +17071,7 @@
         <v>13784</v>
       </c>
       <c r="E760" t="n">
-        <v>0.0008275588775349538</v>
+        <v>0.0008275588775349539</v>
       </c>
       <c r="F760" t="n">
         <v>0.4928500986193294</v>
@@ -17137,7 +17137,7 @@
         <v>16878</v>
       </c>
       <c r="E763" t="n">
-        <v>0.008782670140507135</v>
+        <v>0.008782670140507133</v>
       </c>
       <c r="F763" t="n">
         <v>0.5035264483627204</v>
@@ -17181,7 +17181,7 @@
         <v>12785</v>
       </c>
       <c r="E765" t="n">
-        <v>0.0008124124718006088</v>
+        <v>0.0008124124718006087</v>
       </c>
       <c r="F765" t="n">
         <v>0.4840193704600484</v>
@@ -17203,7 +17203,7 @@
         <v>5694</v>
       </c>
       <c r="E766" t="n">
-        <v>0.0005012087419151043</v>
+        <v>0.0005012087419151041</v>
       </c>
       <c r="F766" t="n">
         <v>0.4346597086323113</v>
@@ -17269,7 +17269,7 @@
         <v>21682</v>
       </c>
       <c r="E769" t="n">
-        <v>0.0005992815434463929</v>
+        <v>0.000599281543446393</v>
       </c>
       <c r="F769" t="n">
         <v>0.4952923686818632</v>
@@ -17313,7 +17313,7 @@
         <v>21635</v>
       </c>
       <c r="E771" t="n">
-        <v>0.001090720268370079</v>
+        <v>0.00109072026837008</v>
       </c>
       <c r="F771" t="n">
         <v>0.5123013839056894</v>
@@ -17357,7 +17357,7 @@
         <v>789</v>
       </c>
       <c r="E773" t="n">
-        <v>1.82138827288093e-06</v>
+        <v>1.821388272880931e-06</v>
       </c>
       <c r="F773" t="n">
         <v>0.4364628820960699</v>
@@ -17379,7 +17379,7 @@
         <v>14166</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005700663242442384</v>
+        <v>0.0005700663242442387</v>
       </c>
       <c r="F774" t="n">
         <v>0.4887530562347188</v>
@@ -17423,7 +17423,7 @@
         <v>1931</v>
       </c>
       <c r="E776" t="n">
-        <v>8.962943061194557e-05</v>
+        <v>8.962943061194559e-05</v>
       </c>
       <c r="F776" t="n">
         <v>0.447904996639032</v>
@@ -17445,7 +17445,7 @@
         <v>3660</v>
       </c>
       <c r="E777" t="n">
-        <v>0.0001459220219567873</v>
+        <v>0.0001459220219567872</v>
       </c>
       <c r="F777" t="n">
         <v>0.4610239852398524</v>
@@ -17599,7 +17599,7 @@
         <v>10976</v>
       </c>
       <c r="E784" t="n">
-        <v>0.002243769588677584</v>
+        <v>0.002243769588677585</v>
       </c>
       <c r="F784" t="n">
         <v>0.4978829389788293</v>
@@ -17621,7 +17621,7 @@
         <v>4911</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0001362102722853367</v>
+        <v>0.0001362102722853368</v>
       </c>
       <c r="F785" t="n">
         <v>0.4583811052510892</v>
@@ -17665,7 +17665,7 @@
         <v>8571</v>
       </c>
       <c r="E787" t="n">
-        <v>0.0004971110519506262</v>
+        <v>0.0004971110519506263</v>
       </c>
       <c r="F787" t="n">
         <v>0.4776583034647551</v>
@@ -17687,7 +17687,7 @@
         <v>3033</v>
       </c>
       <c r="E788" t="n">
-        <v>0.0001067169175187597</v>
+        <v>0.0001067169175187598</v>
       </c>
       <c r="F788" t="n">
         <v>0.4446174377224199</v>
@@ -17709,7 +17709,7 @@
         <v>16874</v>
       </c>
       <c r="E789" t="n">
-        <v>0.0006557639506487196</v>
+        <v>0.0006557639506487195</v>
       </c>
       <c r="F789" t="n">
         <v>0.4900710958568276</v>
@@ -17753,7 +17753,7 @@
         <v>8956</v>
       </c>
       <c r="E791" t="n">
-        <v>0.000409345405004201</v>
+        <v>0.0004093454050042008</v>
       </c>
       <c r="F791" t="n">
         <v>0.4785731386162317</v>
@@ -17819,7 +17819,7 @@
         <v>9859</v>
       </c>
       <c r="E794" t="n">
-        <v>0.0007178383357755189</v>
+        <v>0.000717838335775519</v>
       </c>
       <c r="F794" t="n">
         <v>0.4508344609833108</v>
@@ -17951,7 +17951,7 @@
         <v>158</v>
       </c>
       <c r="E800" t="n">
-        <v>3.832484370070636e-07</v>
+        <v>3.832484370070635e-07</v>
       </c>
       <c r="F800" t="n">
         <v>0.4067969067969068</v>
@@ -18039,7 +18039,7 @@
         <v>15434</v>
       </c>
       <c r="E804" t="n">
-        <v>0.0008362272322692742</v>
+        <v>0.0008362272322692741</v>
       </c>
       <c r="F804" t="n">
         <v>0.5017570281124497</v>
@@ -18061,7 +18061,7 @@
         <v>1483</v>
       </c>
       <c r="E805" t="n">
-        <v>9.788744592326144e-05</v>
+        <v>9.788744592326142e-05</v>
       </c>
       <c r="F805" t="n">
         <v>0.4423545032086745</v>
@@ -18083,7 +18083,7 @@
         <v>11819</v>
       </c>
       <c r="E806" t="n">
-        <v>0.000592784899120358</v>
+        <v>0.0005927848991203583</v>
       </c>
       <c r="F806" t="n">
         <v>0.4918799212598425</v>
@@ -18215,7 +18215,7 @@
         <v>16863</v>
       </c>
       <c r="E812" t="n">
-        <v>0.0008593909173489</v>
+        <v>0.0008593909173488999</v>
       </c>
       <c r="F812" t="n">
         <v>0.4903115035565366</v>
@@ -18259,7 +18259,7 @@
         <v>5691</v>
       </c>
       <c r="E814" t="n">
-        <v>0.0005172709237747567</v>
+        <v>0.0005172709237747565</v>
       </c>
       <c r="F814" t="n">
         <v>0.4702422959303693</v>
@@ -18281,7 +18281,7 @@
         <v>7148</v>
       </c>
       <c r="E815" t="n">
-        <v>0.0005248513506845298</v>
+        <v>0.0005248513506845296</v>
       </c>
       <c r="F815" t="n">
         <v>0.4742586002372479</v>
@@ -18303,7 +18303,7 @@
         <v>15010</v>
       </c>
       <c r="E816" t="n">
-        <v>0.0009343801199303447</v>
+        <v>0.0009343801199303448</v>
       </c>
       <c r="F816" t="n">
         <v>0.4917589175891758</v>
@@ -18347,7 +18347,7 @@
         <v>111</v>
       </c>
       <c r="E818" t="n">
-        <v>0.0006935958401365279</v>
+        <v>0.0006935958401365282</v>
       </c>
       <c r="F818" t="n">
         <v>0.2433946182880799</v>
@@ -18369,7 +18369,7 @@
         <v>15143</v>
       </c>
       <c r="E819" t="n">
-        <v>0.0005348663598184064</v>
+        <v>0.0005348663598184065</v>
       </c>
       <c r="F819" t="n">
         <v>0.5003754693366708</v>
@@ -18413,7 +18413,7 @@
         <v>1092</v>
       </c>
       <c r="E821" t="n">
-        <v>3.135283831108705e-05</v>
+        <v>3.135283831108706e-05</v>
       </c>
       <c r="F821" t="n">
         <v>0.4246866369237306</v>
@@ -18435,7 +18435,7 @@
         <v>6673</v>
       </c>
       <c r="E822" t="n">
-        <v>0.0008186243254438868</v>
+        <v>0.0008186243254438871</v>
       </c>
       <c r="F822" t="n">
         <v>0.4768606870229007</v>
@@ -18457,7 +18457,7 @@
         <v>77</v>
       </c>
       <c r="E823" t="n">
-        <v>0.007370967652464247</v>
+        <v>0.007370967652464246</v>
       </c>
       <c r="F823" t="n">
         <v>0.297116527942925</v>
@@ -18479,7 +18479,7 @@
         <v>16132</v>
       </c>
       <c r="E824" t="n">
-        <v>0.0008117355252247766</v>
+        <v>0.0008117355252247767</v>
       </c>
       <c r="F824" t="n">
         <v>0.5002502502502503</v>
@@ -18501,7 +18501,7 @@
         <v>2152</v>
       </c>
       <c r="E825" t="n">
-        <v>0.002310869482305837</v>
+        <v>0.002310869482305838</v>
       </c>
       <c r="F825" t="n">
         <v>0.4346597086323113</v>
@@ -18567,7 +18567,7 @@
         <v>5413</v>
       </c>
       <c r="E828" t="n">
-        <v>0.0001607327449164463</v>
+        <v>0.0001607327449164462</v>
       </c>
       <c r="F828" t="n">
         <v>0.4611303344867358</v>
@@ -18633,7 +18633,7 @@
         <v>15356</v>
       </c>
       <c r="E831" t="n">
-        <v>0.002438941376134464</v>
+        <v>0.002438941376134465</v>
       </c>
       <c r="F831" t="n">
         <v>0.5054361567635903</v>
@@ -18655,7 +18655,7 @@
         <v>6276</v>
       </c>
       <c r="E832" t="n">
-        <v>0.0007580106276583175</v>
+        <v>0.0007580106276583178</v>
       </c>
       <c r="F832" t="n">
         <v>0.4656417423713021</v>
@@ -18677,7 +18677,7 @@
         <v>7285</v>
       </c>
       <c r="E833" t="n">
-        <v>0.0007891467258955021</v>
+        <v>0.0007891467258955022</v>
       </c>
       <c r="F833" t="n">
         <v>0.4804133621725546</v>
@@ -18721,7 +18721,7 @@
         <v>1199</v>
       </c>
       <c r="E835" t="n">
-        <v>4.109287855481103e-05</v>
+        <v>4.109287855481102e-05</v>
       </c>
       <c r="F835" t="n">
         <v>0.4383771929824561</v>
@@ -18743,7 +18743,7 @@
         <v>26824</v>
       </c>
       <c r="E836" t="n">
-        <v>0.0007976420744234275</v>
+        <v>0.0007976420744234277</v>
       </c>
       <c r="F836" t="n">
         <v>0.5036533131771227</v>
@@ -18787,7 +18787,7 @@
         <v>19196</v>
       </c>
       <c r="E838" t="n">
-        <v>0.0005221505431363647</v>
+        <v>0.0005221505431363644</v>
       </c>
       <c r="F838" t="n">
         <v>0.4881562881562881</v>
@@ -18809,7 +18809,7 @@
         <v>46</v>
       </c>
       <c r="E839" t="n">
-        <v>4.807582791941776e-05</v>
+        <v>4.807582791941775e-05</v>
       </c>
       <c r="F839" t="n">
         <v>0.3119538077403246</v>
@@ -18897,7 +18897,7 @@
         <v>907</v>
       </c>
       <c r="E843" t="n">
-        <v>0.0004691042877365565</v>
+        <v>0.0004691042877365567</v>
       </c>
       <c r="F843" t="n">
         <v>0.4176765566234852</v>
@@ -18919,7 +18919,7 @@
         <v>95</v>
       </c>
       <c r="E844" t="n">
-        <v>2.16847678679177e-05</v>
+        <v>2.168476786791771e-05</v>
       </c>
       <c r="F844" t="n">
         <v>0.3773121932804832</v>
@@ -19029,7 +19029,7 @@
         <v>8839</v>
       </c>
       <c r="E849" t="n">
-        <v>0.0009059026577348415</v>
+        <v>0.0009059026577348416</v>
       </c>
       <c r="F849" t="n">
         <v>0.4784585926280517</v>
@@ -19051,7 +19051,7 @@
         <v>637</v>
       </c>
       <c r="E850" t="n">
-        <v>2.221173659038952e-05</v>
+        <v>2.221173659038953e-05</v>
       </c>
       <c r="F850" t="n">
         <v>0.4223536868793577</v>
@@ -19137,7 +19137,7 @@
         <v>1351</v>
       </c>
       <c r="E854" t="n">
-        <v>6.408035147772781e-05</v>
+        <v>6.408035147772782e-05</v>
       </c>
       <c r="F854" t="n">
         <v>0.4512415349887133</v>
@@ -19159,7 +19159,7 @@
         <v>9648</v>
       </c>
       <c r="E855" t="n">
-        <v>0.0006966487865616515</v>
+        <v>0.000696648786561652</v>
       </c>
       <c r="F855" t="n">
         <v>0.4778866841979441</v>
@@ -19247,7 +19247,7 @@
         <v>1087</v>
       </c>
       <c r="E859" t="n">
-        <v>6.925453367142247e-05</v>
+        <v>6.925453367142241e-05</v>
       </c>
       <c r="F859" t="n">
         <v>0.4437291897891232</v>
@@ -19379,7 +19379,7 @@
         <v>7982</v>
       </c>
       <c r="E865" t="n">
-        <v>0.001866615532677068</v>
+        <v>0.001866615532677069</v>
       </c>
       <c r="F865" t="n">
         <v>0.4626243925017357</v>
@@ -19423,7 +19423,7 @@
         <v>5035</v>
       </c>
       <c r="E867" t="n">
-        <v>0.0002712799866772456</v>
+        <v>0.0002712799866772457</v>
       </c>
       <c r="F867" t="n">
         <v>0.4406966490299823</v>
@@ -19445,7 +19445,7 @@
         <v>6396</v>
       </c>
       <c r="E868" t="n">
-        <v>0.000548144806249164</v>
+        <v>0.0005481448062491639</v>
       </c>
       <c r="F868" t="n">
         <v>0.4405995150980824</v>
@@ -19467,7 +19467,7 @@
         <v>13</v>
       </c>
       <c r="E869" t="n">
-        <v>0.0003745924560228699</v>
+        <v>0.00037459245602287</v>
       </c>
       <c r="F869" t="n">
         <v>0.3179071246819339</v>
@@ -19731,7 +19731,7 @@
         <v>6762</v>
       </c>
       <c r="E881" t="n">
-        <v>0.0005506157492012171</v>
+        <v>0.0005506157492012168</v>
       </c>
       <c r="F881" t="n">
         <v>0.4738089594690685</v>
@@ -19753,7 +19753,7 @@
         <v>8636</v>
       </c>
       <c r="E882" t="n">
-        <v>0.0006820496225937078</v>
+        <v>0.000682049622593708</v>
       </c>
       <c r="F882" t="n">
         <v>0.4830836152730788</v>
@@ -19775,7 +19775,7 @@
         <v>3254</v>
       </c>
       <c r="E883" t="n">
-        <v>0.0001744288150778394</v>
+        <v>0.0001744288150778393</v>
       </c>
       <c r="F883" t="n">
         <v>0.4507328072153326</v>
@@ -19841,7 +19841,7 @@
         <v>164</v>
       </c>
       <c r="E886" t="n">
-        <v>0.001836678664897933</v>
+        <v>0.001836678664897932</v>
       </c>
       <c r="F886" t="n">
         <v>0.3924224577934826</v>
@@ -19863,7 +19863,7 @@
         <v>7131</v>
       </c>
       <c r="E887" t="n">
-        <v>0.0003971142753459801</v>
+        <v>0.00039711427534598</v>
       </c>
       <c r="F887" t="n">
         <v>0.4705743879472693</v>
@@ -19929,7 +19929,7 @@
         <v>4879</v>
       </c>
       <c r="E890" t="n">
-        <v>0.0004287817068076106</v>
+        <v>0.0004287817068076107</v>
       </c>
       <c r="F890" t="n">
         <v>0.4657502329916123</v>
@@ -19951,7 +19951,7 @@
         <v>388</v>
       </c>
       <c r="E891" t="n">
-        <v>9.843971505806558e-07</v>
+        <v>9.843971505806554e-07</v>
       </c>
       <c r="F891" t="n">
         <v>0.4120799835085549</v>
@@ -20083,7 +20083,7 @@
         <v>622</v>
       </c>
       <c r="E897" t="n">
-        <v>0.0002963084949346823</v>
+        <v>0.0002963084949346824</v>
       </c>
       <c r="F897" t="n">
         <v>0.3563915136387948</v>
@@ -20105,7 +20105,7 @@
         <v>16</v>
       </c>
       <c r="E898" t="n">
-        <v>6.151872778396939e-05</v>
+        <v>6.15187277839694e-05</v>
       </c>
       <c r="F898" t="n">
         <v>0.3100666976888475</v>
@@ -20127,7 +20127,7 @@
         <v>4962</v>
       </c>
       <c r="E899" t="n">
-        <v>0.0003373170619997722</v>
+        <v>0.0003373170619997723</v>
       </c>
       <c r="F899" t="n">
         <v>0.465316573556797</v>
@@ -20149,7 +20149,7 @@
         <v>579</v>
       </c>
       <c r="E900" t="n">
-        <v>3.524180569780265e-05</v>
+        <v>3.524180569780264e-05</v>
       </c>
       <c r="F900" t="n">
         <v>0.4125051588939332</v>
@@ -20171,7 +20171,7 @@
         <v>285</v>
       </c>
       <c r="E901" t="n">
-        <v>0.0002086657102458696</v>
+        <v>0.0002086657102458697</v>
       </c>
       <c r="F901" t="n">
         <v>0.3494144380353085</v>
@@ -20193,7 +20193,7 @@
         <v>1415</v>
       </c>
       <c r="E902" t="n">
-        <v>3.223260210801483e-05</v>
+        <v>3.223260210801484e-05</v>
       </c>
       <c r="F902" t="n">
         <v>0.3446551724137931</v>
@@ -20215,7 +20215,7 @@
         <v>1028</v>
       </c>
       <c r="E903" t="n">
-        <v>9.561702602764311e-05</v>
+        <v>9.561702602764308e-05</v>
       </c>
       <c r="F903" t="n">
         <v>0.3560741004631279</v>
@@ -20281,7 +20281,7 @@
         <v>10239</v>
       </c>
       <c r="E906" t="n">
-        <v>0.002728670202798871</v>
+        <v>0.00272867020279887</v>
       </c>
       <c r="F906" t="n">
         <v>0.4847235693501455</v>
@@ -20303,7 +20303,7 @@
         <v>72</v>
       </c>
       <c r="E907" t="n">
-        <v>4.11242904612247e-05</v>
+        <v>4.112429046122469e-05</v>
       </c>
       <c r="F907" t="n">
         <v>0.2840699161574535</v>
@@ -20347,7 +20347,7 @@
         <v>10581</v>
       </c>
       <c r="E909" t="n">
-        <v>0.0009195121793683306</v>
+        <v>0.0009195121793683305</v>
       </c>
       <c r="F909" t="n">
         <v>0.4970164097463948</v>
@@ -20369,7 +20369,7 @@
         <v>9698</v>
       </c>
       <c r="E910" t="n">
-        <v>0.001002488283078222</v>
+        <v>0.001002488283078223</v>
       </c>
       <c r="F910" t="n">
         <v>0.4850764377578258</v>
@@ -20413,7 +20413,7 @@
         <v>2795</v>
       </c>
       <c r="E912" t="n">
-        <v>0.00490731836523672</v>
+        <v>0.004907318365236723</v>
       </c>
       <c r="F912" t="n">
         <v>0.4370354175776126</v>
@@ -20435,7 +20435,7 @@
         <v>11833</v>
       </c>
       <c r="E913" t="n">
-        <v>0.000960340988154386</v>
+        <v>0.0009603409881543857</v>
       </c>
       <c r="F913" t="n">
         <v>0.4950470529965329</v>
@@ -20479,7 +20479,7 @@
         <v>6807</v>
       </c>
       <c r="E915" t="n">
-        <v>0.000386657200569185</v>
+        <v>0.0003866572005691849</v>
       </c>
       <c r="F915" t="n">
         <v>0.474146110056926</v>
@@ -20501,7 +20501,7 @@
         <v>2981</v>
       </c>
       <c r="E916" t="n">
-        <v>3.215541586360391e-05</v>
+        <v>3.215541586360393e-05</v>
       </c>
       <c r="F916" t="n">
         <v>0.4272280401795255</v>
@@ -20545,7 +20545,7 @@
         <v>3826</v>
       </c>
       <c r="E918" t="n">
-        <v>0.0003423760199240243</v>
+        <v>0.0003423760199240242</v>
       </c>
       <c r="F918" t="n">
         <v>0.458276020174232</v>
@@ -20589,7 +20589,7 @@
         <v>8017</v>
       </c>
       <c r="E920" t="n">
-        <v>0.0005246117481792752</v>
+        <v>0.0005246117481792749</v>
       </c>
       <c r="F920" t="n">
         <v>0.4780009564801531</v>
@@ -20633,7 +20633,7 @@
         <v>1827</v>
       </c>
       <c r="E922" t="n">
-        <v>4.289770586131126e-05</v>
+        <v>4.289770586131125e-05</v>
       </c>
       <c r="F922" t="n">
         <v>0.4469036440867427</v>
@@ -20677,7 +20677,7 @@
         <v>468</v>
       </c>
       <c r="E924" t="n">
-        <v>7.845310427584388e-06</v>
+        <v>7.84531042758439e-06</v>
       </c>
       <c r="F924" t="n">
         <v>0.3885325558794946</v>
@@ -20699,7 +20699,7 @@
         <v>2918</v>
       </c>
       <c r="E925" t="n">
-        <v>0.0006015473150898184</v>
+        <v>0.0006015473150898181</v>
       </c>
       <c r="F925" t="n">
         <v>0.4562885186030587</v>
@@ -20787,7 +20787,7 @@
         <v>5624</v>
       </c>
       <c r="E929" t="n">
-        <v>0.003324112423190409</v>
+        <v>0.003324112423190407</v>
       </c>
       <c r="F929" t="n">
         <v>0.4730241362991008</v>
@@ -20809,7 +20809,7 @@
         <v>578</v>
       </c>
       <c r="E930" t="n">
-        <v>0.0005491382392048421</v>
+        <v>0.0005491382392048423</v>
       </c>
       <c r="F930" t="n">
         <v>0.3947472353870458</v>
@@ -20831,7 +20831,7 @@
         <v>4766</v>
       </c>
       <c r="E931" t="n">
-        <v>0.0009975280845375108</v>
+        <v>0.0009975280845375106</v>
       </c>
       <c r="F931" t="n">
         <v>0.4493144526859968</v>
@@ -20853,7 +20853,7 @@
         <v>399</v>
       </c>
       <c r="E932" t="n">
-        <v>1.038240235824885e-06</v>
+        <v>1.038240235824886e-06</v>
       </c>
       <c r="F932" t="n">
         <v>0.4229792636479052</v>
@@ -20875,7 +20875,7 @@
         <v>23791</v>
       </c>
       <c r="E933" t="n">
-        <v>0.0009647575662622724</v>
+        <v>0.0009647575662622723</v>
       </c>
       <c r="F933" t="n">
         <v>0.5016311166875784</v>
@@ -20919,7 +20919,7 @@
         <v>2714</v>
       </c>
       <c r="E935" t="n">
-        <v>0.000449284883195067</v>
+        <v>0.0004492848831950671</v>
       </c>
       <c r="F935" t="n">
         <v>0.4444197421076034</v>
@@ -20985,7 +20985,7 @@
         <v>32</v>
       </c>
       <c r="E938" t="n">
-        <v>4.937740005471248e-07</v>
+        <v>4.937740005471247e-07</v>
       </c>
       <c r="F938" t="n">
         <v>0.2922941950577569</v>
@@ -21007,7 +21007,7 @@
         <v>188</v>
       </c>
       <c r="E939" t="n">
-        <v>1.442452534691953e-05</v>
+        <v>1.442452534691954e-05</v>
       </c>
       <c r="F939" t="n">
         <v>0.392114554727344</v>
@@ -21029,7 +21029,7 @@
         <v>311</v>
       </c>
       <c r="E940" t="n">
-        <v>0.0009061512461742344</v>
+        <v>0.0009061512461742345</v>
       </c>
       <c r="F940" t="n">
         <v>0.4264078498293515</v>
@@ -21139,7 +21139,7 @@
         <v>455</v>
       </c>
       <c r="E945" t="n">
-        <v>0.0003068281105969473</v>
+        <v>0.0003068281105969476</v>
       </c>
       <c r="F945" t="n">
         <v>0.4235169491525423</v>
@@ -21161,7 +21161,7 @@
         <v>30</v>
       </c>
       <c r="E946" t="n">
-        <v>0.0001749021705693083</v>
+        <v>0.0001749021705693084</v>
       </c>
       <c r="F946" t="n">
         <v>0.2685744995297595</v>
@@ -21293,7 +21293,7 @@
         <v>10320</v>
       </c>
       <c r="E952" t="n">
-        <v>0.0006879238010903608</v>
+        <v>0.0006879238010903607</v>
       </c>
       <c r="F952" t="n">
         <v>0.4820352061731372</v>
@@ -21359,7 +21359,7 @@
         <v>316</v>
       </c>
       <c r="E955" t="n">
-        <v>0.008407902901950193</v>
+        <v>0.00840790290195019</v>
       </c>
       <c r="F955" t="n">
         <v>0.4191654434892011</v>
@@ -21425,7 +21425,7 @@
         <v>15925</v>
       </c>
       <c r="E958" t="n">
-        <v>0.001255993138030795</v>
+        <v>0.001255993138030796</v>
       </c>
       <c r="F958" t="n">
         <v>0.4966459627329193</v>
@@ -21447,7 +21447,7 @@
         <v>6895</v>
       </c>
       <c r="E959" t="n">
-        <v>0.0007272358130945387</v>
+        <v>0.0007272358130945392</v>
       </c>
       <c r="F959" t="n">
         <v>0.4766332856461611</v>
@@ -21469,7 +21469,7 @@
         <v>8245</v>
       </c>
       <c r="E960" t="n">
-        <v>0.0005104591948771331</v>
+        <v>0.0005104591948771329</v>
       </c>
       <c r="F960" t="n">
         <v>0.480297933685728</v>
@@ -21535,7 +21535,7 @@
         <v>2146</v>
       </c>
       <c r="E963" t="n">
-        <v>7.074275078382031e-05</v>
+        <v>7.074275078382029e-05</v>
       </c>
       <c r="F963" t="n">
         <v>0.4355119825708061</v>
@@ -21579,7 +21579,7 @@
         <v>780</v>
       </c>
       <c r="E965" t="n">
-        <v>2.05749894078747e-05</v>
+        <v>2.057498940787471e-05</v>
       </c>
       <c r="F965" t="n">
         <v>0.4256814310051107</v>
@@ -21623,7 +21623,7 @@
         <v>382</v>
       </c>
       <c r="E967" t="n">
-        <v>6.793945318911016e-07</v>
+        <v>6.793945318911015e-07</v>
       </c>
       <c r="F967" t="n">
         <v>0.4104722792607803</v>
@@ -21645,7 +21645,7 @@
         <v>308</v>
       </c>
       <c r="E968" t="n">
-        <v>0.004848150988228956</v>
+        <v>0.004848150988228958</v>
       </c>
       <c r="F968" t="n">
         <v>0.3976526755520191</v>
@@ -21689,7 +21689,7 @@
         <v>3208</v>
       </c>
       <c r="E970" t="n">
-        <v>9.319326110869344e-05</v>
+        <v>9.319326110869341e-05</v>
       </c>
       <c r="F970" t="n">
         <v>0.4532879818594104</v>
@@ -21733,7 +21733,7 @@
         <v>7510</v>
       </c>
       <c r="E972" t="n">
-        <v>0.001735914912251359</v>
+        <v>0.001735914912251358</v>
       </c>
       <c r="F972" t="n">
         <v>0.4818028440588094</v>
@@ -21755,7 +21755,7 @@
         <v>20</v>
       </c>
       <c r="E973" t="n">
-        <v>8.227417032766445e-05</v>
+        <v>8.227417032766448e-05</v>
       </c>
       <c r="F973" t="n">
         <v>0.2685023505708529</v>
@@ -21865,7 +21865,7 @@
         <v>530</v>
       </c>
       <c r="E978" t="n">
-        <v>4.289446568320761e-05</v>
+        <v>4.28944656832076e-05</v>
       </c>
       <c r="F978" t="n">
         <v>0.4299849429984943</v>
@@ -21909,7 +21909,7 @@
         <v>930</v>
       </c>
       <c r="E980" t="n">
-        <v>0.0006918316933203964</v>
+        <v>0.0006918316933203963</v>
       </c>
       <c r="F980" t="n">
         <v>0.3974945317160469</v>
@@ -21953,7 +21953,7 @@
         <v>14</v>
       </c>
       <c r="E982" t="n">
-        <v>4.611216804680788e-06</v>
+        <v>4.611216804680789e-06</v>
       </c>
       <c r="F982" t="n">
         <v>0.3251463890696162</v>
@@ -21995,7 +21995,7 @@
         <v>3</v>
       </c>
       <c r="E984" t="n">
-        <v>4.886893395760157e-06</v>
+        <v>4.886893395760156e-06</v>
       </c>
       <c r="F984" t="n">
         <v>0.2976474091721263</v>
@@ -22017,7 +22017,7 @@
         <v>431</v>
       </c>
       <c r="E985" t="n">
-        <v>7.702811799419269e-07</v>
+        <v>7.70281179941927e-07</v>
       </c>
       <c r="F985" t="n">
         <v>0.3355715964411616</v>
@@ -22039,7 +22039,7 @@
         <v>3838</v>
       </c>
       <c r="E986" t="n">
-        <v>0.0003890035327648995</v>
+        <v>0.0003890035327648996</v>
       </c>
       <c r="F986" t="n">
         <v>0.4527746319365799</v>
@@ -22061,7 +22061,7 @@
         <v>12127</v>
       </c>
       <c r="E987" t="n">
-        <v>0.0006797813781413701</v>
+        <v>0.00067978137814137</v>
       </c>
       <c r="F987" t="n">
         <v>0.4839022028564512</v>
@@ -22127,7 +22127,7 @@
         <v>9267</v>
       </c>
       <c r="E990" t="n">
-        <v>0.0003765917211323766</v>
+        <v>0.0003765917211323767</v>
       </c>
       <c r="F990" t="n">
         <v>0.4844886088221038</v>
@@ -22215,7 +22215,7 @@
         <v>7769</v>
       </c>
       <c r="E994" t="n">
-        <v>0.0006065125280088315</v>
+        <v>0.0006065125280088312</v>
       </c>
       <c r="F994" t="n">
         <v>0.4785731386162317</v>
@@ -22303,7 +22303,7 @@
         <v>703</v>
       </c>
       <c r="E998" t="n">
-        <v>0.0004230276139566819</v>
+        <v>0.000423027613956682</v>
       </c>
       <c r="F998" t="n">
         <v>0.4383771929824561</v>
@@ -22413,7 +22413,7 @@
         <v>9017</v>
       </c>
       <c r="E1003" t="n">
-        <v>0.0005504199518651037</v>
+        <v>0.0005504199518651031</v>
       </c>
       <c r="F1003" t="n">
         <v>0.4872044845235194</v>
@@ -22435,7 +22435,7 @@
         <v>107</v>
       </c>
       <c r="E1004" t="n">
-        <v>0.0009598741855620292</v>
+        <v>0.0009598741855620295</v>
       </c>
       <c r="F1004" t="n">
         <v>0.3297591553942593</v>
@@ -22457,7 +22457,7 @@
         <v>2700</v>
       </c>
       <c r="E1005" t="n">
-        <v>0.00109455306960385</v>
+        <v>0.001094553069603849</v>
       </c>
       <c r="F1005" t="n">
         <v>0.423966065747614</v>
@@ -22567,7 +22567,7 @@
         <v>11954</v>
       </c>
       <c r="E1010" t="n">
-        <v>0.0005503345421424233</v>
+        <v>0.0005503345421424235</v>
       </c>
       <c r="F1010" t="n">
         <v>0.495169680455784</v>
@@ -22589,7 +22589,7 @@
         <v>1696</v>
       </c>
       <c r="E1011" t="n">
-        <v>3.123089063902275e-05</v>
+        <v>3.123089063902277e-05</v>
       </c>
       <c r="F1011" t="n">
         <v>0.4407938257993385</v>
@@ -22677,7 +22677,7 @@
         <v>16742</v>
       </c>
       <c r="E1015" t="n">
-        <v>0.002582020282471603</v>
+        <v>0.002582020282471605</v>
       </c>
       <c r="F1015" t="n">
         <v>0.4917589175891758</v>
@@ -22787,7 +22787,7 @@
         <v>16357</v>
       </c>
       <c r="E1020" t="n">
-        <v>0.000939134519396041</v>
+        <v>0.0009391345193960409</v>
       </c>
       <c r="F1020" t="n">
         <v>0.5028930817610062</v>
@@ -22831,7 +22831,7 @@
         <v>2859</v>
       </c>
       <c r="E1022" t="n">
-        <v>3.249677083697191e-05</v>
+        <v>3.249677083697193e-05</v>
       </c>
       <c r="F1022" t="n">
         <v>0.4373222489608401</v>
@@ -22853,7 +22853,7 @@
         <v>12</v>
       </c>
       <c r="E1023" t="n">
-        <v>3.244745585665747e-05</v>
+        <v>3.244745585665746e-05</v>
       </c>
       <c r="F1023" t="n">
         <v>0.2975587972610896</v>
@@ -22941,7 +22941,7 @@
         <v>16095</v>
       </c>
       <c r="E1027" t="n">
-        <v>0.0009042837249695675</v>
+        <v>0.0009042837249695674</v>
       </c>
       <c r="F1027" t="n">
         <v>0.5031462371004279</v>
@@ -22963,7 +22963,7 @@
         <v>321</v>
       </c>
       <c r="E1028" t="n">
-        <v>4.107659737187713e-06</v>
+        <v>4.107659737187715e-06</v>
       </c>
       <c r="F1028" t="n">
         <v>0.4035123132821962</v>
@@ -22985,7 +22985,7 @@
         <v>13477</v>
       </c>
       <c r="E1029" t="n">
-        <v>0.0006319169791375819</v>
+        <v>0.0006319169791375818</v>
       </c>
       <c r="F1029" t="n">
         <v>0.4923645320197044</v>
@@ -23029,7 +23029,7 @@
         <v>7832</v>
       </c>
       <c r="E1031" t="n">
-        <v>0.0002887855541731681</v>
+        <v>0.0002887855541731682</v>
       </c>
       <c r="F1031" t="n">
         <v>0.4720188902007084</v>
@@ -23051,7 +23051,7 @@
         <v>366</v>
       </c>
       <c r="E1032" t="n">
-        <v>1.262057771224592e-06</v>
+        <v>1.262057771224593e-06</v>
       </c>
       <c r="F1032" t="n">
         <v>0.3372701197907879</v>
@@ -23095,7 +23095,7 @@
         <v>2128</v>
       </c>
       <c r="E1034" t="n">
-        <v>0.000317628520059</v>
+        <v>0.0003176285200590001</v>
       </c>
       <c r="F1034" t="n">
         <v>0.4542149511474665</v>
@@ -23117,7 +23117,7 @@
         <v>9075</v>
       </c>
       <c r="E1035" t="n">
-        <v>0.0007365335887642738</v>
+        <v>0.000736533588764274</v>
       </c>
       <c r="F1035" t="n">
         <v>0.4807599807599808</v>
@@ -23161,7 +23161,7 @@
         <v>15576</v>
       </c>
       <c r="E1037" t="n">
-        <v>0.0006548499884240568</v>
+        <v>0.0006548499884240566</v>
       </c>
       <c r="F1037" t="n">
         <v>0.4894711067580803</v>
@@ -23227,7 +23227,7 @@
         <v>19544</v>
       </c>
       <c r="E1040" t="n">
-        <v>0.0006607066568325467</v>
+        <v>0.0006607066568325468</v>
       </c>
       <c r="F1040" t="n">
         <v>0.5016311166875784</v>
@@ -23249,7 +23249,7 @@
         <v>648</v>
       </c>
       <c r="E1041" t="n">
-        <v>6.806191522446086e-05</v>
+        <v>6.806191522446082e-05</v>
       </c>
       <c r="F1041" t="n">
         <v>0.3959199841552782</v>
@@ -23293,7 +23293,7 @@
         <v>5742</v>
       </c>
       <c r="E1043" t="n">
-        <v>6.065226599549547e-05</v>
+        <v>6.065226599549546e-05</v>
       </c>
       <c r="F1043" t="n">
         <v>0.448910846620256</v>
@@ -23315,7 +23315,7 @@
         <v>9043</v>
       </c>
       <c r="E1044" t="n">
-        <v>0.0007055359942822047</v>
+        <v>0.0007055359942822046</v>
       </c>
       <c r="F1044" t="n">
         <v>0.4898309237931879</v>
@@ -23359,7 +23359,7 @@
         <v>585</v>
       </c>
       <c r="E1046" t="n">
-        <v>8.182999830937732e-06</v>
+        <v>8.182999830937734e-06</v>
       </c>
       <c r="F1046" t="n">
         <v>0.425138239047214</v>
@@ -23447,7 +23447,7 @@
         <v>183</v>
       </c>
       <c r="E1050" t="n">
-        <v>5.941585140746773e-07</v>
+        <v>5.941585140746772e-07</v>
       </c>
       <c r="F1050" t="n">
         <v>0.3265272786671022</v>
@@ -23469,7 +23469,7 @@
         <v>4054</v>
       </c>
       <c r="E1051" t="n">
-        <v>0.0001165085486936042</v>
+        <v>0.0001165085486936041</v>
       </c>
       <c r="F1051" t="n">
         <v>0.4586966498393759</v>
@@ -23491,7 +23491,7 @@
         <v>17375</v>
       </c>
       <c r="E1052" t="n">
-        <v>0.0008802402740309221</v>
+        <v>0.0008802402740309222</v>
       </c>
       <c r="F1052" t="n">
         <v>0.4893512851897185</v>
@@ -23513,7 +23513,7 @@
         <v>237</v>
       </c>
       <c r="E1053" t="n">
-        <v>6.639582409110765e-05</v>
+        <v>6.639582409110763e-05</v>
       </c>
       <c r="F1053" t="n">
         <v>0.4093794798279746</v>
@@ -23535,7 +23535,7 @@
         <v>166</v>
       </c>
       <c r="E1054" t="n">
-        <v>1.405676879670363e-05</v>
+        <v>1.405676879670364e-05</v>
       </c>
       <c r="F1054" t="n">
         <v>0.321279331404693</v>
@@ -23557,7 +23557,7 @@
         <v>12356</v>
       </c>
       <c r="E1055" t="n">
-        <v>0.0005514784006523056</v>
+        <v>0.0005514784006523054</v>
       </c>
       <c r="F1055" t="n">
         <v>0.4921221073362876</v>
@@ -23689,7 +23689,7 @@
         <v>10272</v>
       </c>
       <c r="E1061" t="n">
-        <v>0.0005491944178906166</v>
+        <v>0.0005491944178906162</v>
       </c>
       <c r="F1061" t="n">
         <v>0.4875609756097561</v>
@@ -23799,7 +23799,7 @@
         <v>10490</v>
       </c>
       <c r="E1066" t="n">
-        <v>0.0005649105896390703</v>
+        <v>0.0005649105896390701</v>
       </c>
       <c r="F1066" t="n">
         <v>0.491275497665274</v>
@@ -23821,7 +23821,7 @@
         <v>9101</v>
       </c>
       <c r="E1067" t="n">
-        <v>0.0006872919013528195</v>
+        <v>0.0006872919013528196</v>
       </c>
       <c r="F1067" t="n">
         <v>0.4578561612459918</v>
@@ -23843,7 +23843,7 @@
         <v>5897</v>
       </c>
       <c r="E1068" t="n">
-        <v>0.0003876953583038112</v>
+        <v>0.0003876953583038111</v>
       </c>
       <c r="F1068" t="n">
         <v>0.4644516728624535</v>
@@ -23951,7 +23951,7 @@
         <v>20163</v>
       </c>
       <c r="E1073" t="n">
-        <v>0.0009827452103960089</v>
+        <v>0.0009827452103960087</v>
       </c>
       <c r="F1073" t="n">
         <v>0.5090399796282149</v>
@@ -23995,7 +23995,7 @@
         <v>13827</v>
       </c>
       <c r="E1075" t="n">
-        <v>0.001440431131900171</v>
+        <v>0.00144043113190017</v>
       </c>
       <c r="F1075" t="n">
         <v>0.4887530562347188</v>
@@ -24061,7 +24061,7 @@
         <v>11084</v>
       </c>
       <c r="E1078" t="n">
-        <v>0.0007347635923142288</v>
+        <v>0.0007347635923142287</v>
       </c>
       <c r="F1078" t="n">
         <v>0.4869671132764921</v>
@@ -24215,7 +24215,7 @@
         <v>301</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.0003032000440426403</v>
+        <v>0.0003032000440426404</v>
       </c>
       <c r="F1085" t="n">
         <v>0.3945913936044216</v>
@@ -24237,7 +24237,7 @@
         <v>6634</v>
       </c>
       <c r="E1086" t="n">
-        <v>0.0007393799527122059</v>
+        <v>0.0007393799527122058</v>
       </c>
       <c r="F1086" t="n">
         <v>0.4785731386162317</v>
@@ -24259,7 +24259,7 @@
         <v>14633</v>
       </c>
       <c r="E1087" t="n">
-        <v>0.0003785011924569241</v>
+        <v>0.0003785011924569242</v>
       </c>
       <c r="F1087" t="n">
         <v>0.4828502415458937</v>
@@ -24325,7 +24325,7 @@
         <v>15203</v>
       </c>
       <c r="E1090" t="n">
-        <v>0.0008088445626767629</v>
+        <v>0.0008088445626767628</v>
       </c>
       <c r="F1090" t="n">
         <v>0.5023875345564212</v>
@@ -24369,7 +24369,7 @@
         <v>10439</v>
       </c>
       <c r="E1092" t="n">
-        <v>0.0003186360269081348</v>
+        <v>0.0003186360269081349</v>
       </c>
       <c r="F1092" t="n">
         <v>0.474596391263058</v>
@@ -24391,7 +24391,7 @@
         <v>16483</v>
       </c>
       <c r="E1093" t="n">
-        <v>0.0007538285589304587</v>
+        <v>0.0007538285589304585</v>
       </c>
       <c r="F1093" t="n">
         <v>0.4967693836978131</v>
@@ -24413,7 +24413,7 @@
         <v>163</v>
       </c>
       <c r="E1094" t="n">
-        <v>3.061596713249328e-07</v>
+        <v>3.061596713249327e-07</v>
       </c>
       <c r="F1094" t="n">
         <v>0.3726696495152871</v>
@@ -24523,7 +24523,7 @@
         <v>342</v>
       </c>
       <c r="E1099" t="n">
-        <v>5.114886510417568e-06</v>
+        <v>5.114886510417569e-06</v>
       </c>
       <c r="F1099" t="n">
         <v>0.3358534946236559</v>
@@ -24545,7 +24545,7 @@
         <v>673</v>
       </c>
       <c r="E1100" t="n">
-        <v>9.492465613273091e-06</v>
+        <v>9.492465613273087e-06</v>
       </c>
       <c r="F1100" t="n">
         <v>0.4234272399915272</v>
@@ -24567,7 +24567,7 @@
         <v>5213</v>
       </c>
       <c r="E1101" t="n">
-        <v>0.003276130848085125</v>
+        <v>0.003276130848085124</v>
       </c>
       <c r="F1101" t="n">
         <v>0.4800672430355427</v>
@@ -24589,7 +24589,7 @@
         <v>1892</v>
       </c>
       <c r="E1102" t="n">
-        <v>1.983581451286845e-05</v>
+        <v>1.983581451286846e-05</v>
       </c>
       <c r="F1102" t="n">
         <v>0.4488100583744948</v>
@@ -24611,7 +24611,7 @@
         <v>23312</v>
       </c>
       <c r="E1103" t="n">
-        <v>0.0009316688831256334</v>
+        <v>0.0009316688831256337</v>
       </c>
       <c r="F1103" t="n">
         <v>0.4977589641434263</v>
@@ -24655,7 +24655,7 @@
         <v>16949</v>
       </c>
       <c r="E1105" t="n">
-        <v>0.0005549693169904827</v>
+        <v>0.0005549693169904831</v>
       </c>
       <c r="F1105" t="n">
         <v>0.495660798413092</v>
@@ -24677,7 +24677,7 @@
         <v>16848</v>
       </c>
       <c r="E1106" t="n">
-        <v>0.0006209855331153738</v>
+        <v>0.0006209855331153739</v>
       </c>
       <c r="F1106" t="n">
         <v>0.4921221073362876</v>
@@ -24765,7 +24765,7 @@
         <v>24131</v>
       </c>
       <c r="E1110" t="n">
-        <v>0.0007487261453577519</v>
+        <v>0.0007487261453577517</v>
       </c>
       <c r="F1110" t="n">
         <v>0.5040342914775593</v>
@@ -24875,7 +24875,7 @@
         <v>6711</v>
       </c>
       <c r="E1115" t="n">
-        <v>0.0009567356741307251</v>
+        <v>0.000956735674130725</v>
       </c>
       <c r="F1115" t="n">
         <v>0.4792615679693119</v>
@@ -24897,7 +24897,7 @@
         <v>11680</v>
       </c>
       <c r="E1116" t="n">
-        <v>0.0007335774259823435</v>
+        <v>0.0007335774259823437</v>
       </c>
       <c r="F1116" t="n">
         <v>0.4918799212598425</v>
@@ -24941,7 +24941,7 @@
         <v>7326</v>
       </c>
       <c r="E1118" t="n">
-        <v>0.0007151937717599444</v>
+        <v>0.0007151937717599443</v>
       </c>
       <c r="F1118" t="n">
         <v>0.475839085931921</v>
@@ -24963,7 +24963,7 @@
         <v>12256</v>
       </c>
       <c r="E1119" t="n">
-        <v>0.0006926324333807786</v>
+        <v>0.0006926324333807788</v>
       </c>
       <c r="F1119" t="n">
         <v>0.4887530562347188</v>
@@ -25007,7 +25007,7 @@
         <v>3640</v>
       </c>
       <c r="E1121" t="n">
-        <v>0.0002401005947570898</v>
+        <v>0.0002401005947570897</v>
       </c>
       <c r="F1121" t="n">
         <v>0.45002251238181</v>
@@ -25051,7 +25051,7 @@
         <v>9898</v>
       </c>
       <c r="E1123" t="n">
-        <v>0.0004328235770276518</v>
+        <v>0.0004328235770276517</v>
       </c>
       <c r="F1123" t="n">
         <v>0.4859017987360233</v>
@@ -25095,7 +25095,7 @@
         <v>21122</v>
       </c>
       <c r="E1125" t="n">
-        <v>0.0009259321372698453</v>
+        <v>0.0009259321372698454</v>
       </c>
       <c r="F1125" t="n">
         <v>0.5028930817610062</v>
@@ -25117,7 +25117,7 @@
         <v>5933</v>
       </c>
       <c r="E1126" t="n">
-        <v>0.007892389580523698</v>
+        <v>0.0078923895805237</v>
       </c>
       <c r="F1126" t="n">
         <v>0.4410856134157105</v>
@@ -25161,7 +25161,7 @@
         <v>6774</v>
       </c>
       <c r="E1128" t="n">
-        <v>0.0006609672479806055</v>
+        <v>0.0006609672479806052</v>
       </c>
       <c r="F1128" t="n">
         <v>0.4730241362991008</v>
@@ -25183,7 +25183,7 @@
         <v>9159</v>
       </c>
       <c r="E1129" t="n">
-        <v>0.007110835259623141</v>
+        <v>0.007110835259623139</v>
       </c>
       <c r="F1129" t="n">
         <v>0.4887530562347188</v>
@@ -25271,7 +25271,7 @@
         <v>16956</v>
       </c>
       <c r="E1133" t="n">
-        <v>0.0006978061518575049</v>
+        <v>0.0006978061518575051</v>
       </c>
       <c r="F1133" t="n">
         <v>0.4895909870193485</v>
@@ -25293,7 +25293,7 @@
         <v>71</v>
       </c>
       <c r="E1134" t="n">
-        <v>8.059241744671275e-08</v>
+        <v>8.059241744671274e-08</v>
       </c>
       <c r="F1134" t="n">
         <v>0.3770275367785741</v>
@@ -25315,7 +25315,7 @@
         <v>12648</v>
       </c>
       <c r="E1135" t="n">
-        <v>0.0008747946951812075</v>
+        <v>0.0008747946951812077</v>
       </c>
       <c r="F1135" t="n">
         <v>0.4869671132764921</v>
@@ -25337,7 +25337,7 @@
         <v>277</v>
       </c>
       <c r="E1136" t="n">
-        <v>3.7273595862818e-06</v>
+        <v>3.727359586281802e-06</v>
       </c>
       <c r="F1136" t="n">
         <v>0.3510096575943811</v>
@@ -25359,7 +25359,7 @@
         <v>1030</v>
       </c>
       <c r="E1137" t="n">
-        <v>0.0002546679361797924</v>
+        <v>0.0002546679361797923</v>
       </c>
       <c r="F1137" t="n">
         <v>0.4309118344470791</v>
@@ -25425,7 +25425,7 @@
         <v>519</v>
       </c>
       <c r="E1140" t="n">
-        <v>4.570327056084206e-06</v>
+        <v>4.570327056084205e-06</v>
       </c>
       <c r="F1140" t="n">
         <v>0.4259535478372043</v>
@@ -25469,7 +25469,7 @@
         <v>655</v>
       </c>
       <c r="E1142" t="n">
-        <v>0.03312006435033427</v>
+        <v>0.03312006435033426</v>
       </c>
       <c r="F1142" t="n">
         <v>0.4002002002002002</v>
@@ -25513,7 +25513,7 @@
         <v>2279</v>
       </c>
       <c r="E1144" t="n">
-        <v>9.955986778416141e-05</v>
+        <v>9.95598677841614e-05</v>
       </c>
       <c r="F1144" t="n">
         <v>0.4381850065760631</v>
@@ -25535,7 +25535,7 @@
         <v>3567</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.0004093007048206769</v>
+        <v>0.0004093007048206768</v>
       </c>
       <c r="F1145" t="n">
         <v>0.4382810787108091</v>
@@ -25579,7 +25579,7 @@
         <v>1743</v>
       </c>
       <c r="E1147" t="n">
-        <v>0.0002402919110303068</v>
+        <v>0.0002402919110303067</v>
       </c>
       <c r="F1147" t="n">
         <v>0.4488100583744948</v>
@@ -25601,7 +25601,7 @@
         <v>10969</v>
       </c>
       <c r="E1148" t="n">
-        <v>0.0007017939957379768</v>
+        <v>0.000701793995737977</v>
       </c>
       <c r="F1148" t="n">
         <v>0.4813387912352516</v>
@@ -25623,7 +25623,7 @@
         <v>8045</v>
       </c>
       <c r="E1149" t="n">
-        <v>0.0008572097417965514</v>
+        <v>0.0008572097417965513</v>
       </c>
       <c r="F1149" t="n">
         <v>0.4836680377449794</v>
@@ -25665,7 +25665,7 @@
         <v>3906</v>
       </c>
       <c r="E1151" t="n">
-        <v>0.000363042202521768</v>
+        <v>0.0003630422025217681</v>
       </c>
       <c r="F1151" t="n">
         <v>0.4621965317919075</v>
@@ -25709,7 +25709,7 @@
         <v>1021</v>
       </c>
       <c r="E1153" t="n">
-        <v>3.655999715711432e-05</v>
+        <v>3.655999715711433e-05</v>
       </c>
       <c r="F1153" t="n">
         <v>0.4162848812994586</v>
@@ -25753,7 +25753,7 @@
         <v>1604</v>
       </c>
       <c r="E1155" t="n">
-        <v>4.131558178564179e-05</v>
+        <v>4.13155817856418e-05</v>
       </c>
       <c r="F1155" t="n">
         <v>0.4250478418031044</v>
@@ -25775,7 +25775,7 @@
         <v>9464</v>
       </c>
       <c r="E1156" t="n">
-        <v>0.0009630030246153139</v>
+        <v>0.0009630030246153137</v>
       </c>
       <c r="F1156" t="n">
         <v>0.4822677925211097</v>
@@ -25797,7 +25797,7 @@
         <v>6976</v>
       </c>
       <c r="E1157" t="n">
-        <v>0.0005676648732128681</v>
+        <v>0.0005676648732128678</v>
       </c>
       <c r="F1157" t="n">
         <v>0.4686987104337632</v>
@@ -25819,7 +25819,7 @@
         <v>17682</v>
       </c>
       <c r="E1158" t="n">
-        <v>0.0009883966183597622</v>
+        <v>0.0009883966183597619</v>
       </c>
       <c r="F1158" t="n">
         <v>0.4932149025413274</v>
@@ -25863,7 +25863,7 @@
         <v>36</v>
       </c>
       <c r="E1160" t="n">
-        <v>0.000292006623684721</v>
+        <v>0.0002920066236847209</v>
       </c>
       <c r="F1160" t="n">
         <v>0.2686105885514646</v>
@@ -25907,7 +25907,7 @@
         <v>6992</v>
       </c>
       <c r="E1162" t="n">
-        <v>0.0007503870441713461</v>
+        <v>0.0007503870441713458</v>
       </c>
       <c r="F1162" t="n">
         <v>0.4753864447086801</v>
@@ -26017,7 +26017,7 @@
         <v>106</v>
       </c>
       <c r="E1167" t="n">
-        <v>3.405168159044747e-06</v>
+        <v>3.405168159044746e-06</v>
       </c>
       <c r="F1167" t="n">
         <v>0.4026994359387591</v>
@@ -26039,7 +26039,7 @@
         <v>7847</v>
       </c>
       <c r="E1168" t="n">
-        <v>0.001350158771414942</v>
+        <v>0.001350158771414941</v>
       </c>
       <c r="F1168" t="n">
         <v>0.4828502415458937</v>
@@ -26171,7 +26171,7 @@
         <v>1636</v>
       </c>
       <c r="E1174" t="n">
-        <v>0.002366389998648976</v>
+        <v>0.002366389998648977</v>
       </c>
       <c r="F1174" t="n">
         <v>0.4576465201465201</v>
@@ -26193,7 +26193,7 @@
         <v>17624</v>
       </c>
       <c r="E1175" t="n">
-        <v>0.0007492244195483338</v>
+        <v>0.0007492244195483339</v>
       </c>
       <c r="F1175" t="n">
         <v>0.4995002498750625</v>
@@ -26325,7 +26325,7 @@
         <v>11109</v>
       </c>
       <c r="E1181" t="n">
-        <v>0.0004279502663419633</v>
+        <v>0.0004279502663419632</v>
       </c>
       <c r="F1181" t="n">
         <v>0.484841135095804</v>
@@ -26347,7 +26347,7 @@
         <v>8220</v>
       </c>
       <c r="E1182" t="n">
-        <v>0.0003762203201045052</v>
+        <v>0.000376220320104505</v>
       </c>
       <c r="F1182" t="n">
         <v>0.4756126576255056</v>
@@ -26369,7 +26369,7 @@
         <v>4158</v>
       </c>
       <c r="E1183" t="n">
-        <v>0.0003322553446675891</v>
+        <v>0.000332255344667589</v>
       </c>
       <c r="F1183" t="n">
         <v>0.4566011877569667</v>
@@ -26391,7 +26391,7 @@
         <v>1202</v>
       </c>
       <c r="E1184" t="n">
-        <v>6.750786265718061e-05</v>
+        <v>6.750786265718062e-05</v>
       </c>
       <c r="F1184" t="n">
         <v>0.4455092489413863</v>
@@ -26435,7 +26435,7 @@
         <v>12902</v>
       </c>
       <c r="E1186" t="n">
-        <v>0.0006598432802316362</v>
+        <v>0.0006598432802316363</v>
       </c>
       <c r="F1186" t="n">
         <v>0.4881562881562881</v>
@@ -26479,7 +26479,7 @@
         <v>4586</v>
       </c>
       <c r="E1188" t="n">
-        <v>5.319588885120132e-05</v>
+        <v>5.31958888512013e-05</v>
       </c>
       <c r="F1188" t="n">
         <v>0.4316562297559922</v>
@@ -26501,7 +26501,7 @@
         <v>13079</v>
       </c>
       <c r="E1189" t="n">
-        <v>0.0005587598535890148</v>
+        <v>0.000558759853589015</v>
       </c>
       <c r="F1189" t="n">
         <v>0.4921221073362876</v>
@@ -26523,7 +26523,7 @@
         <v>103</v>
       </c>
       <c r="E1190" t="n">
-        <v>7.662013396186516e-05</v>
+        <v>7.662013396186513e-05</v>
       </c>
       <c r="F1190" t="n">
         <v>0.2951860602480803</v>
@@ -26545,7 +26545,7 @@
         <v>5378</v>
       </c>
       <c r="E1191" t="n">
-        <v>0.0006339635944998005</v>
+        <v>0.0006339635944998007</v>
       </c>
       <c r="F1191" t="n">
         <v>0.4714622641509434</v>
@@ -26677,7 +26677,7 @@
         <v>8499</v>
       </c>
       <c r="E1197" t="n">
-        <v>0.0006661010564767484</v>
+        <v>0.0006661010564767487</v>
       </c>
       <c r="F1197" t="n">
         <v>0.4749346638156332</v>
@@ -26721,7 +26721,7 @@
         <v>9333</v>
       </c>
       <c r="E1199" t="n">
-        <v>0.000466625872471533</v>
+        <v>0.0004666258724715329</v>
       </c>
       <c r="F1199" t="n">
         <v>0.4796065259117082</v>
@@ -26743,7 +26743,7 @@
         <v>24</v>
       </c>
       <c r="E1200" t="n">
-        <v>6.000305528210061e-06</v>
+        <v>6.00030552821006e-06</v>
       </c>
       <c r="F1200" t="n">
         <v>0.2598128411749415</v>
@@ -26787,7 +26787,7 @@
         <v>127</v>
       </c>
       <c r="E1202" t="n">
-        <v>8.081340374653956e-06</v>
+        <v>8.081340374653954e-06</v>
       </c>
       <c r="F1202" t="n">
         <v>0.3960768773528829</v>
@@ -26831,7 +26831,7 @@
         <v>12452</v>
       </c>
       <c r="E1204" t="n">
-        <v>0.008336615273730008</v>
+        <v>0.008336615273730011</v>
       </c>
       <c r="F1204" t="n">
         <v>0.5031462371004279</v>
@@ -26853,7 +26853,7 @@
         <v>1087</v>
       </c>
       <c r="E1205" t="n">
-        <v>9.387529286292993e-05</v>
+        <v>9.387529286292997e-05</v>
       </c>
       <c r="F1205" t="n">
         <v>0.3760346124905944</v>
@@ -26897,7 +26897,7 @@
         <v>19748</v>
       </c>
       <c r="E1207" t="n">
-        <v>0.0007645643118827899</v>
+        <v>0.00076456431188279</v>
       </c>
       <c r="F1207" t="n">
         <v>0.5026401810409856</v>
@@ -26919,7 +26919,7 @@
         <v>3981</v>
       </c>
       <c r="E1208" t="n">
-        <v>0.0007658801504985746</v>
+        <v>0.000765880150498575</v>
       </c>
       <c r="F1208" t="n">
         <v>0.4629458082445577</v>
@@ -27029,7 +27029,7 @@
         <v>1189</v>
       </c>
       <c r="E1213" t="n">
-        <v>0.0007731197530479051</v>
+        <v>0.0007731197530479049</v>
       </c>
       <c r="F1213" t="n">
         <v>0.3945135188474443</v>
@@ -27051,7 +27051,7 @@
         <v>31</v>
       </c>
       <c r="E1214" t="n">
-        <v>3.973932713609155e-06</v>
+        <v>3.973932713609154e-06</v>
       </c>
       <c r="F1214" t="n">
         <v>0.294186902133922</v>
@@ -27117,7 +27117,7 @@
         <v>73</v>
       </c>
       <c r="E1217" t="n">
-        <v>4.631278782912125e-05</v>
+        <v>4.631278782912124e-05</v>
       </c>
       <c r="F1217" t="n">
         <v>0.3979693410312562</v>
@@ -27139,7 +27139,7 @@
         <v>1590</v>
       </c>
       <c r="E1218" t="n">
-        <v>0.0002020943931085252</v>
+        <v>0.0002020943931085251</v>
       </c>
       <c r="F1218" t="n">
         <v>0.45002251238181</v>
@@ -27183,7 +27183,7 @@
         <v>2460</v>
       </c>
       <c r="E1220" t="n">
-        <v>6.284673478604507e-05</v>
+        <v>6.284673478604509e-05</v>
       </c>
       <c r="F1220" t="n">
         <v>0.4490116801437556</v>
@@ -27227,7 +27227,7 @@
         <v>223</v>
       </c>
       <c r="E1222" t="n">
-        <v>0.0005442505950157162</v>
+        <v>0.000544250595015716</v>
       </c>
       <c r="F1222" t="n">
         <v>0.423696481559983</v>
@@ -27271,7 +27271,7 @@
         <v>6497</v>
       </c>
       <c r="E1224" t="n">
-        <v>0.001150258285734634</v>
+        <v>0.001150258285734633</v>
       </c>
       <c r="F1224" t="n">
         <v>0.4613431802446342</v>
@@ -27337,7 +27337,7 @@
         <v>17898</v>
       </c>
       <c r="E1227" t="n">
-        <v>0.001489431315385406</v>
+        <v>0.001489431315385405</v>
       </c>
       <c r="F1227" t="n">
         <v>0.5094291539245668</v>
@@ -27359,7 +27359,7 @@
         <v>13957</v>
       </c>
       <c r="E1228" t="n">
-        <v>0.0005598921617179747</v>
+        <v>0.0005598921617179749</v>
       </c>
       <c r="F1228" t="n">
         <v>0.4944348256245363</v>
@@ -27381,7 +27381,7 @@
         <v>3060</v>
       </c>
       <c r="E1229" t="n">
-        <v>3.413837669695177e-05</v>
+        <v>3.413837669695178e-05</v>
       </c>
       <c r="F1229" t="n">
         <v>0.4530825022665458</v>
@@ -27425,7 +27425,7 @@
         <v>5046</v>
       </c>
       <c r="E1231" t="n">
-        <v>0.0007684191786651758</v>
+        <v>0.0007684191786651756</v>
       </c>
       <c r="F1231" t="n">
         <v>0.4621965317919075</v>
@@ -27447,7 +27447,7 @@
         <v>3123</v>
       </c>
       <c r="E1232" t="n">
-        <v>0.001199274406320467</v>
+        <v>0.001199274406320466</v>
       </c>
       <c r="F1232" t="n">
         <v>0.450428120775124</v>
@@ -27491,7 +27491,7 @@
         <v>681</v>
       </c>
       <c r="E1234" t="n">
-        <v>8.547023870076204e-05</v>
+        <v>8.547023870076206e-05</v>
       </c>
       <c r="F1234" t="n">
         <v>0.4299849429984943</v>
@@ -27557,7 +27557,7 @@
         <v>2715</v>
       </c>
       <c r="E1237" t="n">
-        <v>0.005908001601542882</v>
+        <v>0.005908001601542879</v>
       </c>
       <c r="F1237" t="n">
         <v>0.4318427306113631</v>
@@ -27601,7 +27601,7 @@
         <v>20927</v>
       </c>
       <c r="E1239" t="n">
-        <v>0.0006148106713522315</v>
+        <v>0.0006148106713522317</v>
       </c>
       <c r="F1239" t="n">
         <v>0.5026401810409856</v>
@@ -27645,7 +27645,7 @@
         <v>16923</v>
       </c>
       <c r="E1241" t="n">
-        <v>0.000594510701250273</v>
+        <v>0.0005945107012502726</v>
       </c>
       <c r="F1241" t="n">
         <v>0.4918799212598425</v>
@@ -27667,7 +27667,7 @@
         <v>134</v>
       </c>
       <c r="E1242" t="n">
-        <v>1.496726823010494e-07</v>
+        <v>1.496726823010495e-07</v>
       </c>
       <c r="F1242" t="n">
         <v>0.3828035235541938</v>
@@ -27689,7 +27689,7 @@
         <v>127</v>
       </c>
       <c r="E1243" t="n">
-        <v>0.001340755954633659</v>
+        <v>0.001340755954633658</v>
       </c>
       <c r="F1243" t="n">
         <v>0.2433946182880799</v>
@@ -27711,7 +27711,7 @@
         <v>90</v>
       </c>
       <c r="E1244" t="n">
-        <v>7.307117758243848e-05</v>
+        <v>7.307117758243845e-05</v>
       </c>
       <c r="F1244" t="n">
         <v>0.324987806860673</v>
@@ -27777,7 +27777,7 @@
         <v>22716</v>
       </c>
       <c r="E1247" t="n">
-        <v>0.000683800991586163</v>
+        <v>0.0006838009915861631</v>
       </c>
       <c r="F1247" t="n">
         <v>0.5020090406830738</v>
@@ -27799,7 +27799,7 @@
         <v>14535</v>
       </c>
       <c r="E1248" t="n">
-        <v>0.0006316593116984458</v>
+        <v>0.000631659311698446</v>
       </c>
       <c r="F1248" t="n">
         <v>0.4938241106719367</v>
@@ -27821,7 +27821,7 @@
         <v>690</v>
       </c>
       <c r="E1249" t="n">
-        <v>4.615957455041221e-06</v>
+        <v>4.61595745504122e-06</v>
       </c>
       <c r="F1249" t="n">
         <v>0.4415727855091672</v>
@@ -27843,7 +27843,7 @@
         <v>14338</v>
       </c>
       <c r="E1250" t="n">
-        <v>0.001049565703525149</v>
+        <v>0.001049565703525148</v>
       </c>
       <c r="F1250" t="n">
         <v>0.495906722897544</v>
@@ -27865,7 +27865,7 @@
         <v>7626</v>
       </c>
       <c r="E1251" t="n">
-        <v>0.0004796981758233464</v>
+        <v>0.0004796981758233465</v>
       </c>
       <c r="F1251" t="n">
         <v>0.4527746319365799</v>
@@ -27931,7 +27931,7 @@
         <v>393</v>
       </c>
       <c r="E1254" t="n">
-        <v>7.18294641263268e-06</v>
+        <v>7.182946412632679e-06</v>
       </c>
       <c r="F1254" t="n">
         <v>0.4147302904564315</v>
@@ -27997,7 +27997,7 @@
         <v>10195</v>
       </c>
       <c r="E1257" t="n">
-        <v>0.00348766043746286</v>
+        <v>0.003487660437462859</v>
       </c>
       <c r="F1257" t="n">
         <v>0.4970164097463948</v>
@@ -28041,7 +28041,7 @@
         <v>9112</v>
       </c>
       <c r="E1259" t="n">
-        <v>0.0008332870880489227</v>
+        <v>0.0008332870880489226</v>
       </c>
       <c r="F1259" t="n">
         <v>0.4777724665391969</v>
@@ -28107,7 +28107,7 @@
         <v>40</v>
       </c>
       <c r="E1262" t="n">
-        <v>1.099452565609947e-05</v>
+        <v>1.099452565609948e-05</v>
       </c>
       <c r="F1262" t="n">
         <v>0.3084400555469834</v>
@@ -28151,7 +28151,7 @@
         <v>15650</v>
       </c>
       <c r="E1264" t="n">
-        <v>0.0004680278655777133</v>
+        <v>0.0004680278655777132</v>
       </c>
       <c r="F1264" t="n">
         <v>0.4933366238894373</v>
@@ -28195,7 +28195,7 @@
         <v>50</v>
       </c>
       <c r="E1266" t="n">
-        <v>0.0001111401044724627</v>
+        <v>0.0001111401044724626</v>
       </c>
       <c r="F1266" t="n">
         <v>0.3610910404624277</v>
@@ -28239,7 +28239,7 @@
         <v>101</v>
       </c>
       <c r="E1268" t="n">
-        <v>0.0004002208040022698</v>
+        <v>0.0004002208040022696</v>
       </c>
       <c r="F1268" t="n">
         <v>0.3903534465924624</v>
@@ -28327,7 +28327,7 @@
         <v>12349</v>
       </c>
       <c r="E1272" t="n">
-        <v>0.0007941098738374647</v>
+        <v>0.0007941098738374649</v>
       </c>
       <c r="F1272" t="n">
         <v>0.4957837301587301</v>
@@ -28349,7 +28349,7 @@
         <v>14044</v>
       </c>
       <c r="E1273" t="n">
-        <v>0.000594497194807107</v>
+        <v>0.0005944971948071071</v>
       </c>
       <c r="F1273" t="n">
         <v>0.4905521472392638</v>
@@ -28371,7 +28371,7 @@
         <v>19915</v>
       </c>
       <c r="E1274" t="n">
-        <v>0.0008835982350551349</v>
+        <v>0.0008835982350551346</v>
       </c>
       <c r="F1274" t="n">
         <v>0.5016311166875784</v>
@@ -28415,7 +28415,7 @@
         <v>4110</v>
       </c>
       <c r="E1276" t="n">
-        <v>0.0004898713857664943</v>
+        <v>0.0004898713857664944</v>
       </c>
       <c r="F1276" t="n">
         <v>0.4603869184707508</v>
@@ -28437,7 +28437,7 @@
         <v>268</v>
       </c>
       <c r="E1277" t="n">
-        <v>0.0002637788287858983</v>
+        <v>0.0002637788287858984</v>
       </c>
       <c r="F1277" t="n">
         <v>0.4114862083161795</v>
@@ -28459,7 +28459,7 @@
         <v>11798</v>
       </c>
       <c r="E1278" t="n">
-        <v>0.0007524803755709149</v>
+        <v>0.0007524803755709148</v>
       </c>
       <c r="F1278" t="n">
         <v>0.4937021486786861</v>
@@ -28503,7 +28503,7 @@
         <v>1331</v>
       </c>
       <c r="E1280" t="n">
-        <v>0.0002674753818392378</v>
+        <v>0.0002674753818392377</v>
       </c>
       <c r="F1280" t="n">
         <v>0.4560803102897559</v>
@@ -28525,7 +28525,7 @@
         <v>13773</v>
       </c>
       <c r="E1281" t="n">
-        <v>0.0003897866167916127</v>
+        <v>0.0003897866167916126</v>
       </c>
       <c r="F1281" t="n">
         <v>0.4888725849841037</v>
@@ -28591,7 +28591,7 @@
         <v>3054</v>
       </c>
       <c r="E1284" t="n">
-        <v>0.000423325793734734</v>
+        <v>0.0004233257937347339</v>
       </c>
       <c r="F1284" t="n">
         <v>0.4465043555952647</v>
@@ -28613,7 +28613,7 @@
         <v>2979</v>
       </c>
       <c r="E1285" t="n">
-        <v>0.0003046542345314623</v>
+        <v>0.0003046542345314624</v>
       </c>
       <c r="F1285" t="n">
         <v>0.4512415349887133</v>
@@ -28635,7 +28635,7 @@
         <v>1088</v>
       </c>
       <c r="E1286" t="n">
-        <v>2.642423806993568e-05</v>
+        <v>2.642423806993567e-05</v>
       </c>
       <c r="F1286" t="n">
         <v>0.4166319299708212</v>
@@ -28679,7 +28679,7 @@
         <v>78</v>
       </c>
       <c r="E1288" t="n">
-        <v>2.971113734386534e-07</v>
+        <v>2.971113734386536e-07</v>
       </c>
       <c r="F1288" t="n">
         <v>0.3874781934483427</v>
@@ -28701,7 +28701,7 @@
         <v>172</v>
       </c>
       <c r="E1289" t="n">
-        <v>0.0004011025110581662</v>
+        <v>0.0004011025110581661</v>
       </c>
       <c r="F1289" t="n">
         <v>0.2720097972513267</v>
@@ -28723,7 +28723,7 @@
         <v>10318</v>
       </c>
       <c r="E1290" t="n">
-        <v>0.0007640544344469776</v>
+        <v>0.0007640544344469778</v>
       </c>
       <c r="F1290" t="n">
         <v>0.484136594817147</v>
@@ -28745,7 +28745,7 @@
         <v>12630</v>
       </c>
       <c r="E1291" t="n">
-        <v>0.0005982567709030391</v>
+        <v>0.0005982567709030387</v>
       </c>
       <c r="F1291" t="n">
         <v>0.4840193704600484</v>
@@ -28789,7 +28789,7 @@
         <v>5670</v>
       </c>
       <c r="E1293" t="n">
-        <v>0.001607066777631524</v>
+        <v>0.001607066777631523</v>
       </c>
       <c r="F1293" t="n">
         <v>0.468918601923528</v>
@@ -28811,7 +28811,7 @@
         <v>10936</v>
       </c>
       <c r="E1294" t="n">
-        <v>0.0007770013963307672</v>
+        <v>0.0007770013963307671</v>
       </c>
       <c r="F1294" t="n">
         <v>0.4894711067580803</v>
@@ -28941,7 +28941,7 @@
         <v>783</v>
       </c>
       <c r="E1300" t="n">
-        <v>9.373972410748996e-05</v>
+        <v>9.373972410749e-05</v>
       </c>
       <c r="F1300" t="n">
         <v>0.4315630397236614</v>
@@ -29007,7 +29007,7 @@
         <v>11040</v>
       </c>
       <c r="E1303" t="n">
-        <v>0.0006278671648291333</v>
+        <v>0.0006278671648291329</v>
       </c>
       <c r="F1303" t="n">
         <v>0.4835510401548137</v>
@@ -29029,7 +29029,7 @@
         <v>6027</v>
       </c>
       <c r="E1304" t="n">
-        <v>0.000295272671345759</v>
+        <v>0.0002952726713457591</v>
       </c>
       <c r="F1304" t="n">
         <v>0.4672744273024778</v>
@@ -29051,7 +29051,7 @@
         <v>17812</v>
       </c>
       <c r="E1305" t="n">
-        <v>0.0007121882795086562</v>
+        <v>0.0007121882795086563</v>
       </c>
       <c r="F1305" t="n">
         <v>0.4983794564946398</v>
@@ -29073,7 +29073,7 @@
         <v>1311</v>
       </c>
       <c r="E1306" t="n">
-        <v>5.980531668202433e-05</v>
+        <v>5.980531668202432e-05</v>
       </c>
       <c r="F1306" t="n">
         <v>0.4376094570928196</v>
@@ -29139,7 +29139,7 @@
         <v>69</v>
       </c>
       <c r="E1309" t="n">
-        <v>8.660877771944961e-06</v>
+        <v>8.660877771944963e-06</v>
       </c>
       <c r="F1309" t="n">
         <v>0.3389859250466339</v>
@@ -29161,7 +29161,7 @@
         <v>2747</v>
       </c>
       <c r="E1310" t="n">
-        <v>0.0002476782894683046</v>
+        <v>0.0002476782894683047</v>
       </c>
       <c r="F1310" t="n">
         <v>0.4545247839927239</v>
@@ -29183,7 +29183,7 @@
         <v>12177</v>
       </c>
       <c r="E1311" t="n">
-        <v>0.001184387300266451</v>
+        <v>0.00118438730026645</v>
       </c>
       <c r="F1311" t="n">
         <v>0.4876799219321786</v>
@@ -29205,7 +29205,7 @@
         <v>5901</v>
       </c>
       <c r="E1312" t="n">
-        <v>0.0008853502758598198</v>
+        <v>0.0008853502758598199</v>
       </c>
       <c r="F1312" t="n">
         <v>0.4676023391812866</v>
@@ -29249,7 +29249,7 @@
         <v>11600</v>
       </c>
       <c r="E1314" t="n">
-        <v>0.0006262892535064501</v>
+        <v>0.0006262892535064505</v>
       </c>
       <c r="F1314" t="n">
         <v>0.4828502415458937</v>
@@ -29271,7 +29271,7 @@
         <v>1155</v>
       </c>
       <c r="E1315" t="n">
-        <v>8.913389669978481e-05</v>
+        <v>8.913389669978482e-05</v>
       </c>
       <c r="F1315" t="n">
         <v>0.4461057799598304</v>
@@ -29293,7 +29293,7 @@
         <v>21824</v>
       </c>
       <c r="E1316" t="n">
-        <v>0.0007499663290577137</v>
+        <v>0.0007499663290577139</v>
       </c>
       <c r="F1316" t="n">
         <v>0.5045431600201918</v>
@@ -29337,7 +29337,7 @@
         <v>4058</v>
       </c>
       <c r="E1318" t="n">
-        <v>0.00571425661720103</v>
+        <v>0.005714256617201028</v>
       </c>
       <c r="F1318" t="n">
         <v>0.4294307196562836</v>
@@ -29381,7 +29381,7 @@
         <v>1732</v>
       </c>
       <c r="E1320" t="n">
-        <v>6.409557464162437e-05</v>
+        <v>6.409557464162441e-05</v>
       </c>
       <c r="F1320" t="n">
         <v>0.4252286747500532</v>
@@ -29403,7 +29403,7 @@
         <v>7795</v>
       </c>
       <c r="E1321" t="n">
-        <v>0.002077694491191301</v>
+        <v>0.0020776944911913</v>
       </c>
       <c r="F1321" t="n">
         <v>0.476292589945199</v>
@@ -29447,7 +29447,7 @@
         <v>5183</v>
       </c>
       <c r="E1323" t="n">
-        <v>0.0004237188559016196</v>
+        <v>0.0004237188559016194</v>
       </c>
       <c r="F1323" t="n">
         <v>0.4646675964667596</v>
@@ -29469,7 +29469,7 @@
         <v>4589</v>
       </c>
       <c r="E1324" t="n">
-        <v>0.0004647891486545254</v>
+        <v>0.0004647891486545253</v>
       </c>
       <c r="F1324" t="n">
         <v>0.4591180523656408</v>
@@ -29491,7 +29491,7 @@
         <v>247</v>
       </c>
       <c r="E1325" t="n">
-        <v>2.691072067365683e-07</v>
+        <v>2.691072067365684e-07</v>
       </c>
       <c r="F1325" t="n">
         <v>0.4040832827976551</v>
@@ -29557,7 +29557,7 @@
         <v>5421</v>
       </c>
       <c r="E1328" t="n">
-        <v>0.0004058544369177007</v>
+        <v>0.0004058544369177006</v>
       </c>
       <c r="F1328" t="n">
         <v>0.4648837209302326</v>
@@ -29601,7 +29601,7 @@
         <v>15927</v>
       </c>
       <c r="E1330" t="n">
-        <v>0.0009798713646339569</v>
+        <v>0.0009798713646339571</v>
       </c>
       <c r="F1330" t="n">
         <v>0.4995002498750625</v>
@@ -29623,7 +29623,7 @@
         <v>761</v>
       </c>
       <c r="E1331" t="n">
-        <v>4.522341834879422e-06</v>
+        <v>4.522341834879423e-06</v>
       </c>
       <c r="F1331" t="n">
         <v>0.4194292908099035</v>
@@ -29645,7 +29645,7 @@
         <v>49</v>
       </c>
       <c r="E1332" t="n">
-        <v>0.0009605853226617599</v>
+        <v>0.0009605853226617597</v>
       </c>
       <c r="F1332" t="n">
         <v>0.340023813573737</v>
@@ -29689,7 +29689,7 @@
         <v>15864</v>
       </c>
       <c r="E1334" t="n">
-        <v>0.0008195759772597932</v>
+        <v>0.0008195759772597929</v>
       </c>
       <c r="F1334" t="n">
         <v>0.5044158465808731</v>
@@ -29711,7 +29711,7 @@
         <v>4263</v>
       </c>
       <c r="E1335" t="n">
-        <v>0.004465133862646018</v>
+        <v>0.004465133862646017</v>
       </c>
       <c r="F1335" t="n">
         <v>0.4425503652866947</v>
@@ -29733,7 +29733,7 @@
         <v>581</v>
       </c>
       <c r="E1336" t="n">
-        <v>0.0006046157489786802</v>
+        <v>0.0006046157489786804</v>
       </c>
       <c r="F1336" t="n">
         <v>0.4227109325438782</v>
@@ -29865,7 +29865,7 @@
         <v>139</v>
       </c>
       <c r="E1342" t="n">
-        <v>4.767760456033106e-05</v>
+        <v>4.767760456033107e-05</v>
       </c>
       <c r="F1342" t="n">
         <v>0.2995205274198382</v>
@@ -29909,7 +29909,7 @@
         <v>4265</v>
       </c>
       <c r="E1344" t="n">
-        <v>0.0007286010455768566</v>
+        <v>0.0007286010455768569</v>
       </c>
       <c r="F1344" t="n">
         <v>0.4463049787899085</v>
@@ -29931,7 +29931,7 @@
         <v>10430</v>
       </c>
       <c r="E1345" t="n">
-        <v>0.0007270802329012397</v>
+        <v>0.0007270802329012396</v>
       </c>
       <c r="F1345" t="n">
         <v>0.4797216222702184</v>
@@ -29953,7 +29953,7 @@
         <v>809</v>
       </c>
       <c r="E1346" t="n">
-        <v>1.904703245482905e-05</v>
+        <v>1.903767273372103e-05</v>
       </c>
       <c r="F1346" t="n">
         <v>0.4276850663243474</v>
@@ -29975,7 +29975,7 @@
         <v>11682</v>
       </c>
       <c r="E1347" t="n">
-        <v>0.002724024563071819</v>
+        <v>0.00272268597606294</v>
       </c>
       <c r="F1347" t="n">
         <v>0.4909135559921414</v>
@@ -29997,7 +29997,7 @@
         <v>8</v>
       </c>
       <c r="E1348" t="n">
-        <v>2.376053116265654e-10</v>
+        <v>2.374885522596728e-10</v>
       </c>
       <c r="F1348" t="n">
         <v>0.3480153203342619</v>
@@ -30019,7 +30019,7 @@
         <v>6647</v>
       </c>
       <c r="E1349" t="n">
-        <v>0.0003438335126972189</v>
+        <v>0.0003436645527401195</v>
       </c>
       <c r="F1349" t="n">
         <v>0.475952380952381</v>
@@ -30041,7 +30041,7 @@
         <v>9956</v>
       </c>
       <c r="E1350" t="n">
-        <v>0.0005993784791872557</v>
+        <v>0.0005990839443080479</v>
       </c>
       <c r="F1350" t="n">
         <v>0.4882755251587689</v>
@@ -30063,7 +30063,7 @@
         <v>6798</v>
       </c>
       <c r="E1351" t="n">
-        <v>0.0007678790142049398</v>
+        <v>0.0007675016780800234</v>
       </c>
       <c r="F1351" t="n">
         <v>0.464128163454841</v>
@@ -30085,7 +30085,7 @@
         <v>21498</v>
       </c>
       <c r="E1352" t="n">
-        <v>0.0006897817030046562</v>
+        <v>0.0006894427439368404</v>
       </c>
       <c r="F1352" t="n">
         <v>0.4918799212598425</v>
@@ -30107,7 +30107,7 @@
         <v>10843</v>
       </c>
       <c r="E1353" t="n">
-        <v>0.001653082723506068</v>
+        <v>0.001652270397843412</v>
       </c>
       <c r="F1353" t="n">
         <v>0.4876799219321786</v>
@@ -30129,7 +30129,7 @@
         <v>1427</v>
       </c>
       <c r="E1354" t="n">
-        <v>5.261436176530823e-05</v>
+        <v>5.258850704208203e-05</v>
       </c>
       <c r="F1354" t="n">
         <v>0.4382810787108091</v>
@@ -30151,7 +30151,7 @@
         <v>89</v>
       </c>
       <c r="E1355" t="n">
-        <v>0.0003563911807318589</v>
+        <v>0.0003562160499305164</v>
       </c>
       <c r="F1355" t="n">
         <v>0.3942023269572077</v>
@@ -30173,7 +30173,7 @@
         <v>168</v>
       </c>
       <c r="E1356" t="n">
-        <v>1.358969221207944e-06</v>
+        <v>1.358301423064844e-06</v>
       </c>
       <c r="F1356" t="n">
         <v>0.393736458538507</v>
@@ -30195,7 +30195,7 @@
         <v>1892</v>
       </c>
       <c r="E1357" t="n">
-        <v>3.71669546987876e-05</v>
+        <v>3.714869083898475e-05</v>
       </c>
       <c r="F1357" t="n">
         <v>0.448608617594255</v>
@@ -30217,7 +30217,7 @@
         <v>5611</v>
       </c>
       <c r="E1358" t="n">
-        <v>0.0004506878836227244</v>
+        <v>0.000450466415375244</v>
       </c>
       <c r="F1358" t="n">
         <v>0.4710179076343072</v>
@@ -30239,7 +30239,7 @@
         <v>162</v>
       </c>
       <c r="E1359" t="n">
-        <v>4.249573943878185e-05</v>
+        <v>4.247485701153921e-05</v>
       </c>
       <c r="F1359" t="n">
         <v>0.410303776683087</v>
@@ -30261,7 +30261,7 @@
         <v>4258</v>
       </c>
       <c r="E1360" t="n">
-        <v>0.001147387797737524</v>
+        <v>0.001146823970809891</v>
       </c>
       <c r="F1360" t="n">
         <v>0.4631603336422613</v>
@@ -30305,7 +30305,7 @@
         <v>50</v>
       </c>
       <c r="E1362" t="n">
-        <v>8.064580283802913e-06</v>
+        <v>8.064580283802916e-06</v>
       </c>
       <c r="F1362" t="n">
         <v>0.3606350351795057</v>
@@ -30349,7 +30349,7 @@
         <v>11387</v>
       </c>
       <c r="E1364" t="n">
-        <v>0.001251952288559779</v>
+        <v>0.00125195228855978</v>
       </c>
       <c r="F1364" t="n">
         <v>0.4686987104337632</v>
@@ -30393,7 +30393,7 @@
         <v>53</v>
       </c>
       <c r="E1366" t="n">
-        <v>7.502992411026279e-05</v>
+        <v>7.50299241102628e-05</v>
       </c>
       <c r="F1366" t="n">
         <v>0.2433353621424224</v>
@@ -30437,7 +30437,7 @@
         <v>3141</v>
       </c>
       <c r="E1368" t="n">
-        <v>0.0004281753911806032</v>
+        <v>0.0004281753911806031</v>
       </c>
       <c r="F1368" t="n">
         <v>0.4540086304792187</v>
@@ -30459,7 +30459,7 @@
         <v>3152</v>
       </c>
       <c r="E1369" t="n">
-        <v>0.0004475752786885284</v>
+        <v>0.0004475752786885283</v>
       </c>
       <c r="F1369" t="n">
         <v>0.4543181818181818</v>
@@ -30525,7 +30525,7 @@
         <v>14099</v>
       </c>
       <c r="E1372" t="n">
-        <v>0.0007395144208847839</v>
+        <v>0.0007395144208847841</v>
       </c>
       <c r="F1372" t="n">
         <v>0.4853119689244962</v>
@@ -30591,7 +30591,7 @@
         <v>68</v>
       </c>
       <c r="E1375" t="n">
-        <v>8.273501300543053e-05</v>
+        <v>8.273501300543054e-05</v>
       </c>
       <c r="F1375" t="n">
         <v>0.3565822333214413</v>
@@ -30635,7 +30635,7 @@
         <v>4852</v>
       </c>
       <c r="E1377" t="n">
-        <v>0.001259542390165197</v>
+        <v>0.001259542390165196</v>
       </c>
       <c r="F1377" t="n">
         <v>0.4785731386162317</v>
@@ -30701,7 +30701,7 @@
         <v>3230</v>
       </c>
       <c r="E1380" t="n">
-        <v>0.0003479531008896835</v>
+        <v>0.0003479531008896837</v>
       </c>
       <c r="F1380" t="n">
         <v>0.4541117673784643</v>
@@ -30723,7 +30723,7 @@
         <v>897</v>
       </c>
       <c r="E1381" t="n">
-        <v>3.201031017833974e-05</v>
+        <v>3.201031017833973e-05</v>
       </c>
       <c r="F1381" t="n">
         <v>0.3515652479774886</v>
@@ -30811,7 +30811,7 @@
         <v>2210</v>
       </c>
       <c r="E1385" t="n">
-        <v>0.0001911407057958874</v>
+        <v>0.0001911407057958875</v>
       </c>
       <c r="F1385" t="n">
         <v>0.4411829618185831</v>
@@ -30987,7 +30987,7 @@
         <v>175</v>
       </c>
       <c r="E1393" t="n">
-        <v>6.916108791375048e-06</v>
+        <v>6.91610879137505e-06</v>
       </c>
       <c r="F1393" t="n">
         <v>0.3978109452736318</v>
@@ -31009,7 +31009,7 @@
         <v>2776</v>
       </c>
       <c r="E1394" t="n">
-        <v>0.0007573852984149229</v>
+        <v>0.000757385298414923</v>
       </c>
       <c r="F1394" t="n">
         <v>0.4502252252252252</v>
@@ -31053,7 +31053,7 @@
         <v>2499</v>
       </c>
       <c r="E1396" t="n">
-        <v>0.0001345974537633343</v>
+        <v>0.0001345974537633344</v>
       </c>
       <c r="F1396" t="n">
         <v>0.4535965509416837</v>
@@ -31075,7 +31075,7 @@
         <v>7231</v>
       </c>
       <c r="E1397" t="n">
-        <v>0.0003864413215155981</v>
+        <v>0.0003864413215155982</v>
       </c>
       <c r="F1397" t="n">
         <v>0.468918601923528</v>
@@ -31163,7 +31163,7 @@
         <v>10202</v>
       </c>
       <c r="E1401" t="n">
-        <v>0.001136566505511792</v>
+        <v>0.001136566505511791</v>
       </c>
       <c r="F1401" t="n">
         <v>0.4898309237931879</v>
@@ -31295,7 +31295,7 @@
         <v>12772</v>
       </c>
       <c r="E1407" t="n">
-        <v>0.000538075332955886</v>
+        <v>0.0005380753329558858</v>
       </c>
       <c r="F1407" t="n">
         <v>0.4786877394636015</v>
@@ -31339,7 +31339,7 @@
         <v>5899</v>
       </c>
       <c r="E1409" t="n">
-        <v>0.0004342866162614313</v>
+        <v>0.0004342866162614314</v>
       </c>
       <c r="F1409" t="n">
         <v>0.4631603336422613</v>
@@ -31361,7 +31361,7 @@
         <v>17340</v>
       </c>
       <c r="E1410" t="n">
-        <v>0.0005617504678425712</v>
+        <v>0.0005617504678425714</v>
       </c>
       <c r="F1410" t="n">
         <v>0.495660798413092</v>
@@ -31383,7 +31383,7 @@
         <v>4402</v>
       </c>
       <c r="E1411" t="n">
-        <v>0.002164669387234878</v>
+        <v>0.002164669387234877</v>
       </c>
       <c r="F1411" t="n">
         <v>0.4706851895455616</v>
@@ -31427,7 +31427,7 @@
         <v>414</v>
       </c>
       <c r="E1413" t="n">
-        <v>0.0004624389839468199</v>
+        <v>0.00046243898394682</v>
       </c>
       <c r="F1413" t="n">
         <v>0.3403132448076268</v>
@@ -31471,7 +31471,7 @@
         <v>806</v>
       </c>
       <c r="E1415" t="n">
-        <v>2.294870058754131e-05</v>
+        <v>2.29487005875413e-05</v>
       </c>
       <c r="F1415" t="n">
         <v>0.4287859287859288</v>
@@ -31493,7 +31493,7 @@
         <v>5092</v>
       </c>
       <c r="E1416" t="n">
-        <v>0.0004196207404403336</v>
+        <v>0.0004196207404403335</v>
       </c>
       <c r="F1416" t="n">
         <v>0.4599631845375058</v>
@@ -31581,7 +31581,7 @@
         <v>1203</v>
       </c>
       <c r="E1420" t="n">
-        <v>0.0001613646666916686</v>
+        <v>0.0001613646666916687</v>
       </c>
       <c r="F1420" t="n">
         <v>0.4361771765219289</v>
@@ -31669,7 +31669,7 @@
         <v>1526</v>
       </c>
       <c r="E1424" t="n">
-        <v>0.0001906396434657521</v>
+        <v>0.000190639643465752</v>
       </c>
       <c r="F1424" t="n">
         <v>0.4437291897891232</v>
@@ -31691,7 +31691,7 @@
         <v>10459</v>
       </c>
       <c r="E1425" t="n">
-        <v>0.0006603221206398451</v>
+        <v>0.000660322120639845</v>
       </c>
       <c r="F1425" t="n">
         <v>0.4847235693501455</v>
@@ -31713,7 +31713,7 @@
         <v>18845</v>
       </c>
       <c r="E1426" t="n">
-        <v>0.000720461782926503</v>
+        <v>0.0007204617829265032</v>
       </c>
       <c r="F1426" t="n">
         <v>0.5060759493670887</v>
@@ -31865,7 +31865,7 @@
         <v>6284</v>
       </c>
       <c r="E1433" t="n">
-        <v>0.0005767519236051667</v>
+        <v>0.0005767519236051668</v>
       </c>
       <c r="F1433" t="n">
         <v>0.4646675964667596</v>
@@ -31887,7 +31887,7 @@
         <v>334</v>
       </c>
       <c r="E1434" t="n">
-        <v>7.9343885868595e-06</v>
+        <v>7.934388586859498e-06</v>
       </c>
       <c r="F1434" t="n">
         <v>0.4211080682536339</v>
@@ -31909,7 +31909,7 @@
         <v>112</v>
       </c>
       <c r="E1435" t="n">
-        <v>0.0008961371910015484</v>
+        <v>0.0008961371910015485</v>
       </c>
       <c r="F1435" t="n">
         <v>0.3319495184324145</v>
@@ -31931,7 +31931,7 @@
         <v>5880</v>
       </c>
       <c r="E1436" t="n">
-        <v>0.0004638381848901431</v>
+        <v>0.0004638381848901429</v>
       </c>
       <c r="F1436" t="n">
         <v>0.4710179076343072</v>
@@ -31975,7 +31975,7 @@
         <v>358</v>
       </c>
       <c r="E1438" t="n">
-        <v>3.318543092339386e-05</v>
+        <v>3.318543092339385e-05</v>
       </c>
       <c r="F1438" t="n">
         <v>0.4126754748142031</v>
@@ -31997,7 +31997,7 @@
         <v>163</v>
       </c>
       <c r="E1439" t="n">
-        <v>5.410802934044474e-07</v>
+        <v>5.41080293404447e-07</v>
       </c>
       <c r="F1439" t="n">
         <v>0.3554409672830726</v>
@@ -32019,7 +32019,7 @@
         <v>1470</v>
       </c>
       <c r="E1440" t="n">
-        <v>4.392588861756892e-05</v>
+        <v>4.39258886175689e-05</v>
       </c>
       <c r="F1440" t="n">
         <v>0.4393406593406594</v>
@@ -32041,7 +32041,7 @@
         <v>17043</v>
       </c>
       <c r="E1441" t="n">
-        <v>0.0007200676844736253</v>
+        <v>0.0007200676844736249</v>
       </c>
       <c r="F1441" t="n">
         <v>0.500751503006012</v>
@@ -32063,7 +32063,7 @@
         <v>20750</v>
       </c>
       <c r="E1442" t="n">
-        <v>0.0006613062547236692</v>
+        <v>0.0006613062547236696</v>
       </c>
       <c r="F1442" t="n">
         <v>0.4983794564946398</v>
@@ -32085,7 +32085,7 @@
         <v>4939</v>
       </c>
       <c r="E1443" t="n">
-        <v>0.0002076635319277757</v>
+        <v>0.0002076635319277758</v>
       </c>
       <c r="F1443" t="n">
         <v>0.4704636385031772</v>
@@ -32107,7 +32107,7 @@
         <v>6734</v>
       </c>
       <c r="E1444" t="n">
-        <v>0.0003983082831214224</v>
+        <v>0.0003983082831214222</v>
       </c>
       <c r="F1444" t="n">
         <v>0.474709095226787</v>
@@ -32217,7 +32217,7 @@
         <v>7377</v>
       </c>
       <c r="E1449" t="n">
-        <v>0.0004671953482106661</v>
+        <v>0.0004671953482106662</v>
       </c>
       <c r="F1449" t="n">
         <v>0.4770883054892602</v>
@@ -32261,7 +32261,7 @@
         <v>18942</v>
       </c>
       <c r="E1451" t="n">
-        <v>0.0006808410694134967</v>
+        <v>0.0006808410694134965</v>
       </c>
       <c r="F1451" t="n">
         <v>0.488514173998045</v>
@@ -32305,7 +32305,7 @@
         <v>1177</v>
       </c>
       <c r="E1453" t="n">
-        <v>9.634921946623918e-05</v>
+        <v>9.634921946623916e-05</v>
       </c>
       <c r="F1453" t="n">
         <v>0.4165451135653261</v>
@@ -32393,7 +32393,7 @@
         <v>12269</v>
       </c>
       <c r="E1457" t="n">
-        <v>0.0009048600149648835</v>
+        <v>0.0009048600149648831</v>
       </c>
       <c r="F1457" t="n">
         <v>0.4975111996017919</v>
@@ -32415,7 +32415,7 @@
         <v>3081</v>
       </c>
       <c r="E1458" t="n">
-        <v>6.325381729693376e-05</v>
+        <v>6.325381729693372e-05</v>
       </c>
       <c r="F1458" t="n">
         <v>0.4549385525716887</v>
@@ -32437,7 +32437,7 @@
         <v>9764</v>
       </c>
       <c r="E1459" t="n">
-        <v>0.006886482903792248</v>
+        <v>0.006886482903792247</v>
       </c>
       <c r="F1459" t="n">
         <v>0.4873232569478303</v>
@@ -32525,7 +32525,7 @@
         <v>2584</v>
       </c>
       <c r="E1463" t="n">
-        <v>0.0004400789870396591</v>
+        <v>0.0004400789870396593</v>
       </c>
       <c r="F1463" t="n">
         <v>0.4452115812917595</v>
@@ -32547,7 +32547,7 @@
         <v>7444</v>
       </c>
       <c r="E1464" t="n">
-        <v>0.0009883063709256214</v>
+        <v>0.0009883063709256216</v>
       </c>
       <c r="F1464" t="n">
         <v>0.4774301409123478</v>
@@ -32679,7 +32679,7 @@
         <v>4060</v>
       </c>
       <c r="E1470" t="n">
-        <v>0.0002655442972452927</v>
+        <v>0.0002655442972452926</v>
       </c>
       <c r="F1470" t="n">
         <v>0.4476041200179131</v>
@@ -32701,7 +32701,7 @@
         <v>443</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.0004635580072526056</v>
+        <v>0.0004635580072526055</v>
       </c>
       <c r="F1471" t="n">
         <v>0.4397272327320721</v>
@@ -32723,7 +32723,7 @@
         <v>1901</v>
       </c>
       <c r="E1472" t="n">
-        <v>0.006294338904278171</v>
+        <v>0.00629433890427817</v>
       </c>
       <c r="F1472" t="n">
         <v>0.4406966490299823</v>
@@ -32745,7 +32745,7 @@
         <v>7294</v>
       </c>
       <c r="E1473" t="n">
-        <v>0.005457967417584684</v>
+        <v>0.005457967417584683</v>
       </c>
       <c r="F1473" t="n">
         <v>0.4944348256245363</v>
@@ -32767,7 +32767,7 @@
         <v>5612</v>
       </c>
       <c r="E1474" t="n">
-        <v>0.0005717072335751243</v>
+        <v>0.0005717072335751241</v>
       </c>
       <c r="F1474" t="n">
         <v>0.4740336732274129</v>
@@ -32789,7 +32789,7 @@
         <v>8289</v>
       </c>
       <c r="E1475" t="n">
-        <v>0.000299209663661359</v>
+        <v>0.0002992096636613591</v>
       </c>
       <c r="F1475" t="n">
         <v>0.4767469592177438</v>
@@ -32855,7 +32855,7 @@
         <v>178</v>
       </c>
       <c r="E1478" t="n">
-        <v>0.0009048624218724868</v>
+        <v>0.0009048624218724867</v>
       </c>
       <c r="F1478" t="n">
         <v>0.4087098752811286</v>
@@ -32899,7 +32899,7 @@
         <v>11649</v>
       </c>
       <c r="E1480" t="n">
-        <v>0.001497918173766211</v>
+        <v>0.00149791817376621</v>
       </c>
       <c r="F1480" t="n">
         <v>0.4944348256245363</v>
@@ -32943,7 +32943,7 @@
         <v>6209</v>
       </c>
       <c r="E1482" t="n">
-        <v>0.0006929240267622839</v>
+        <v>0.0006929240267622837</v>
       </c>
       <c r="F1482" t="n">
         <v>0.4754995242626071</v>
@@ -32965,7 +32965,7 @@
         <v>3969</v>
       </c>
       <c r="E1483" t="n">
-        <v>0.0006892360804540955</v>
+        <v>0.0006892360804540957</v>
       </c>
       <c r="F1483" t="n">
         <v>0.4430407801418439</v>
@@ -33053,7 +33053,7 @@
         <v>3208</v>
       </c>
       <c r="E1487" t="n">
-        <v>0.003957670753515669</v>
+        <v>0.00395767075351567</v>
       </c>
       <c r="F1487" t="n">
         <v>0.46208969024503</v>
@@ -33119,7 +33119,7 @@
         <v>66</v>
       </c>
       <c r="E1490" t="n">
-        <v>0.0001684330255494705</v>
+        <v>0.0001684330255494706</v>
       </c>
       <c r="F1490" t="n">
         <v>0.3565822333214413</v>
@@ -33163,7 +33163,7 @@
         <v>123</v>
       </c>
       <c r="E1492" t="n">
-        <v>6.693873221528668e-06</v>
+        <v>6.69387322152867e-06</v>
       </c>
       <c r="F1492" t="n">
         <v>0.3126857500391053</v>
@@ -33185,7 +33185,7 @@
         <v>773</v>
       </c>
       <c r="E1493" t="n">
-        <v>7.237400461083761e-05</v>
+        <v>7.23740046108376e-05</v>
       </c>
       <c r="F1493" t="n">
         <v>0.431190681622088</v>
@@ -33317,7 +33317,7 @@
         <v>78</v>
       </c>
       <c r="E1499" t="n">
-        <v>7.806878627570634e-06</v>
+        <v>7.806878627570632e-06</v>
       </c>
       <c r="F1499" t="n">
         <v>0.3271150384552446</v>
@@ -33339,7 +33339,7 @@
         <v>2310</v>
       </c>
       <c r="E1500" t="n">
-        <v>0.0003818543844767863</v>
+        <v>0.0003818543844767864</v>
       </c>
       <c r="F1500" t="n">
         <v>0.4354171204530604</v>
@@ -33361,7 +33361,7 @@
         <v>9905</v>
       </c>
       <c r="E1501" t="n">
-        <v>0.0003981702883393854</v>
+        <v>0.0003981702883393855</v>
       </c>
       <c r="F1501" t="n">
         <v>0.4816867469879518</v>
@@ -33383,7 +33383,7 @@
         <v>6116</v>
       </c>
       <c r="E1502" t="n">
-        <v>0.0006272622807282027</v>
+        <v>0.000627262280728203</v>
       </c>
       <c r="F1502" t="n">
         <v>0.4654249126891735</v>
@@ -33427,7 +33427,7 @@
         <v>19168</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.0003376339480765871</v>
+        <v>0.0003376339480765869</v>
       </c>
       <c r="F1504" t="n">
         <v>0.4888725849841037</v>
@@ -33471,7 +33471,7 @@
         <v>197</v>
       </c>
       <c r="E1506" t="n">
-        <v>1.217298161952322e-07</v>
+        <v>1.217298161952323e-07</v>
       </c>
       <c r="F1506" t="n">
         <v>0.4108096999588985</v>
@@ -33493,7 +33493,7 @@
         <v>8307</v>
       </c>
       <c r="E1507" t="n">
-        <v>0.008413119167332672</v>
+        <v>0.008413119167332667</v>
       </c>
       <c r="F1507" t="n">
         <v>0.495169680455784</v>
@@ -33515,7 +33515,7 @@
         <v>74</v>
       </c>
       <c r="E1508" t="n">
-        <v>7.206301731706597e-07</v>
+        <v>7.206301731706595e-07</v>
       </c>
       <c r="F1508" t="n">
         <v>0.3291618639881442</v>
@@ -33537,7 +33537,7 @@
         <v>9687</v>
       </c>
       <c r="E1509" t="n">
-        <v>0.0005943195450783131</v>
+        <v>0.0005943195450783133</v>
       </c>
       <c r="F1509" t="n">
         <v>0.4819189971070396</v>
@@ -33559,7 +33559,7 @@
         <v>9</v>
       </c>
       <c r="E1510" t="n">
-        <v>0.000820327137743295</v>
+        <v>0.0008203271377432946</v>
       </c>
       <c r="F1510" t="n">
         <v>0.2348725179179885</v>
@@ -33603,7 +33603,7 @@
         <v>8788</v>
       </c>
       <c r="E1512" t="n">
-        <v>0.0008186512907738336</v>
+        <v>0.0008186512907738338</v>
       </c>
       <c r="F1512" t="n">
         <v>0.4791466922339405</v>
@@ -33625,7 +33625,7 @@
         <v>6684</v>
       </c>
       <c r="E1513" t="n">
-        <v>0.0005876432987983961</v>
+        <v>0.0005876432987983962</v>
       </c>
       <c r="F1513" t="n">
         <v>0.4515473232437316</v>
@@ -33647,7 +33647,7 @@
         <v>233</v>
       </c>
       <c r="E1514" t="n">
-        <v>8.396745313146687e-05</v>
+        <v>8.39674531314669e-05</v>
       </c>
       <c r="F1514" t="n">
         <v>0.3909642088793272</v>
@@ -33713,7 +33713,7 @@
         <v>4830</v>
       </c>
       <c r="E1517" t="n">
-        <v>0.003285617969583871</v>
+        <v>0.003285617969583872</v>
       </c>
       <c r="F1517" t="n">
         <v>0.4711289182182418</v>
@@ -33735,7 +33735,7 @@
         <v>10511</v>
       </c>
       <c r="E1518" t="n">
-        <v>0.0008823758732872795</v>
+        <v>0.0008823758732872796</v>
       </c>
       <c r="F1518" t="n">
         <v>0.4809913378248316</v>
@@ -33757,7 +33757,7 @@
         <v>11143</v>
       </c>
       <c r="E1519" t="n">
-        <v>0.0005369621748445712</v>
+        <v>0.0005369621748445713</v>
       </c>
       <c r="F1519" t="n">
         <v>0.4777724665391969</v>
@@ -33801,7 +33801,7 @@
         <v>13700</v>
       </c>
       <c r="E1521" t="n">
-        <v>0.0004209541787376723</v>
+        <v>0.0004209541787376722</v>
       </c>
       <c r="F1521" t="n">
         <v>0.4945571499257794</v>
@@ -33823,7 +33823,7 @@
         <v>879</v>
       </c>
       <c r="E1522" t="n">
-        <v>6.525377610403112e-05</v>
+        <v>6.525377610403115e-05</v>
       </c>
       <c r="F1522" t="n">
         <v>0.4286020583190395</v>
@@ -33911,7 +33911,7 @@
         <v>49</v>
       </c>
       <c r="E1526" t="n">
-        <v>2.519566712339509e-06</v>
+        <v>2.519566712339508e-06</v>
       </c>
       <c r="F1526" t="n">
         <v>0.2922941950577569</v>
@@ -33933,7 +33933,7 @@
         <v>46</v>
       </c>
       <c r="E1527" t="n">
-        <v>9.183633709132648e-06</v>
+        <v>9.183633709132646e-06</v>
       </c>
       <c r="F1527" t="n">
         <v>0.3021919879062736</v>
@@ -33955,7 +33955,7 @@
         <v>8726</v>
       </c>
       <c r="E1528" t="n">
-        <v>0.0006059828289983043</v>
+        <v>0.0006059828289983042</v>
       </c>
       <c r="F1528" t="n">
         <v>0.4742586002372479</v>
@@ -33977,7 +33977,7 @@
         <v>276</v>
       </c>
       <c r="E1529" t="n">
-        <v>2.807589620889831e-06</v>
+        <v>2.80758962088983e-06</v>
       </c>
       <c r="F1529" t="n">
         <v>0.3300858652575958</v>
@@ -33999,7 +33999,7 @@
         <v>5399</v>
       </c>
       <c r="E1530" t="n">
-        <v>0.0002800864974213746</v>
+        <v>0.0002800864974213744</v>
       </c>
       <c r="F1530" t="n">
         <v>0.4388583973655324</v>
@@ -34021,7 +34021,7 @@
         <v>17372</v>
       </c>
       <c r="E1531" t="n">
-        <v>0.000781442281886892</v>
+        <v>0.0007814422818868921</v>
       </c>
       <c r="F1531" t="n">
         <v>0.4888725849841037</v>
@@ -34065,7 +34065,7 @@
         <v>11386</v>
       </c>
       <c r="E1533" t="n">
-        <v>0.0003943553857455744</v>
+        <v>0.0003943553857455743</v>
       </c>
       <c r="F1533" t="n">
         <v>0.4798367738838214</v>
@@ -34087,7 +34087,7 @@
         <v>6404</v>
       </c>
       <c r="E1534" t="n">
-        <v>0.00106995098510447</v>
+        <v>0.001069950985104469</v>
       </c>
       <c r="F1534" t="n">
         <v>0.4690286250586579</v>
@@ -34109,7 +34109,7 @@
         <v>2704</v>
       </c>
       <c r="E1535" t="n">
-        <v>0.0002850466647124701</v>
+        <v>0.0002850466647124702</v>
       </c>
       <c r="F1535" t="n">
         <v>0.450428120775124</v>
@@ -34153,7 +34153,7 @@
         <v>14421</v>
       </c>
       <c r="E1537" t="n">
-        <v>0.0007476115535844964</v>
+        <v>0.0007476115535844963</v>
       </c>
       <c r="F1537" t="n">
         <v>0.4962760675273089</v>
@@ -34241,7 +34241,7 @@
         <v>4744</v>
       </c>
       <c r="E1541" t="n">
-        <v>0.01056800477755899</v>
+        <v>0.01056800477755898</v>
       </c>
       <c r="F1541" t="n">
         <v>0.4446174377224199</v>
@@ -34263,7 +34263,7 @@
         <v>46</v>
       </c>
       <c r="E1542" t="n">
-        <v>2.728092787934553e-05</v>
+        <v>2.728092787934554e-05</v>
       </c>
       <c r="F1542" t="n">
         <v>0.3859818497779494</v>
@@ -34285,7 +34285,7 @@
         <v>36</v>
       </c>
       <c r="E1543" t="n">
-        <v>0.0003131026295039575</v>
+        <v>0.0003131026295039576</v>
       </c>
       <c r="F1543" t="n">
         <v>0.3430581774498027</v>
@@ -34329,7 +34329,7 @@
         <v>14673</v>
       </c>
       <c r="E1545" t="n">
-        <v>0.0006221268766560705</v>
+        <v>0.0006221268766560708</v>
       </c>
       <c r="F1545" t="n">
         <v>0.4910341439449766</v>
@@ -34351,7 +34351,7 @@
         <v>163</v>
       </c>
       <c r="E1546" t="n">
-        <v>5.410802934044474e-07</v>
+        <v>5.41080293404447e-07</v>
       </c>
       <c r="F1546" t="n">
         <v>0.3554409672830726</v>
@@ -34395,7 +34395,7 @@
         <v>1361</v>
       </c>
       <c r="E1548" t="n">
-        <v>0.0009686914861293131</v>
+        <v>0.0009686914861293127</v>
       </c>
       <c r="F1548" t="n">
         <v>0.4388583973655324</v>
@@ -34439,7 +34439,7 @@
         <v>3921</v>
       </c>
       <c r="E1550" t="n">
-        <v>0.0006921719618184775</v>
+        <v>0.0006921719618184774</v>
       </c>
       <c r="F1550" t="n">
         <v>0.458276020174232</v>
@@ -34483,7 +34483,7 @@
         <v>42</v>
       </c>
       <c r="E1552" t="n">
-        <v>0.004780442502769777</v>
+        <v>0.004780442502769778</v>
       </c>
       <c r="F1552" t="n">
         <v>0.3170499603489294</v>
@@ -34527,7 +34527,7 @@
         <v>4603</v>
       </c>
       <c r="E1554" t="n">
-        <v>0.002387252701648526</v>
+        <v>0.002387252701648525</v>
       </c>
       <c r="F1554" t="n">
         <v>0.462410363173722</v>
@@ -34571,7 +34571,7 @@
         <v>16282</v>
       </c>
       <c r="E1556" t="n">
-        <v>0.0101994376179151</v>
+        <v>0.01019943761791509</v>
       </c>
       <c r="F1556" t="n">
         <v>0.5291159343568026</v>
@@ -34593,7 +34593,7 @@
         <v>9744</v>
       </c>
       <c r="E1557" t="n">
-        <v>0.004941505428821717</v>
+        <v>0.004941505428821716</v>
       </c>
       <c r="F1557" t="n">
         <v>0.4799519807923169</v>
@@ -34615,7 +34615,7 @@
         <v>8399</v>
       </c>
       <c r="E1558" t="n">
-        <v>0.0008584610813564003</v>
+        <v>0.0008584610813564005</v>
       </c>
       <c r="F1558" t="n">
         <v>0.4743711438063598</v>
@@ -34637,7 +34637,7 @@
         <v>252</v>
       </c>
       <c r="E1559" t="n">
-        <v>2.923165736320528e-07</v>
+        <v>2.923165736320529e-07</v>
       </c>
       <c r="F1559" t="n">
         <v>0.4155061317813344</v>
@@ -34659,7 +34659,7 @@
         <v>78</v>
       </c>
       <c r="E1560" t="n">
-        <v>2.922924042631822e-05</v>
+        <v>2.922924042631821e-05</v>
       </c>
       <c r="F1560" t="n">
         <v>0.3062662785353149</v>
@@ -34681,7 +34681,7 @@
         <v>10</v>
       </c>
       <c r="E1561" t="n">
-        <v>0.006973727460144103</v>
+        <v>0.006973727460144102</v>
       </c>
       <c r="F1561" t="n">
         <v>0.2586697722567288</v>
@@ -34703,7 +34703,7 @@
         <v>786</v>
       </c>
       <c r="E1562" t="n">
-        <v>1.894897223918199e-05</v>
+        <v>1.894897223918198e-05</v>
       </c>
       <c r="F1562" t="n">
         <v>0.4129312125593885</v>
@@ -34747,7 +34747,7 @@
         <v>14305</v>
       </c>
       <c r="E1564" t="n">
-        <v>0.0002971045460499585</v>
+        <v>0.0002971045460499586</v>
       </c>
       <c r="F1564" t="n">
         <v>0.4866114897760467</v>
@@ -34769,7 +34769,7 @@
         <v>2416</v>
       </c>
       <c r="E1565" t="n">
-        <v>7.923999723535556e-05</v>
+        <v>7.923999723535552e-05</v>
       </c>
       <c r="F1565" t="n">
         <v>0.4303552206673843</v>
@@ -34791,7 +34791,7 @@
         <v>10817</v>
       </c>
       <c r="E1566" t="n">
-        <v>0.0008941877397372737</v>
+        <v>0.0008941877397372736</v>
       </c>
       <c r="F1566" t="n">
         <v>0.4926071956628881</v>
@@ -34813,7 +34813,7 @@
         <v>14049</v>
       </c>
       <c r="E1567" t="n">
-        <v>0.0004524860705972636</v>
+        <v>0.0004524860705972638</v>
       </c>
       <c r="F1567" t="n">
         <v>0.484841135095804</v>
@@ -34857,7 +34857,7 @@
         <v>10845</v>
       </c>
       <c r="E1569" t="n">
-        <v>0.0103255461345986</v>
+        <v>0.01032554613459859</v>
       </c>
       <c r="F1569" t="n">
         <v>0.5021351419241397</v>
@@ -34901,7 +34901,7 @@
         <v>3229</v>
       </c>
       <c r="E1571" t="n">
-        <v>0.0005725669703744282</v>
+        <v>0.0005725669703744279</v>
       </c>
       <c r="F1571" t="n">
         <v>0.4570187471422039</v>
@@ -35011,7 +35011,7 @@
         <v>2710</v>
       </c>
       <c r="E1576" t="n">
-        <v>0.001612687588903927</v>
+        <v>0.001612687588903928</v>
       </c>
       <c r="F1576" t="n">
         <v>0.4638051044083527</v>
@@ -35033,7 +35033,7 @@
         <v>17568</v>
       </c>
       <c r="E1577" t="n">
-        <v>0.0007157423581946233</v>
+        <v>0.0007157423581946229</v>
       </c>
       <c r="F1577" t="n">
         <v>0.5100791018116866</v>
@@ -35077,7 +35077,7 @@
         <v>714</v>
       </c>
       <c r="E1579" t="n">
-        <v>0.0006252553576919148</v>
+        <v>0.0006252553576919152</v>
       </c>
       <c r="F1579" t="n">
         <v>0.4211080682536339</v>
@@ -35165,7 +35165,7 @@
         <v>167</v>
       </c>
       <c r="E1583" t="n">
-        <v>2.2507477808233e-06</v>
+        <v>2.250747780823301e-06</v>
       </c>
       <c r="F1583" t="n">
         <v>0.399640143942423</v>
@@ -35187,7 +35187,7 @@
         <v>12508</v>
       </c>
       <c r="E1584" t="n">
-        <v>0.0004691465128169134</v>
+        <v>0.0004691465128169135</v>
       </c>
       <c r="F1584" t="n">
         <v>0.499375468398701</v>
@@ -35231,7 +35231,7 @@
         <v>14544</v>
       </c>
       <c r="E1586" t="n">
-        <v>0.0007437816667888251</v>
+        <v>0.0007437816667888252</v>
       </c>
       <c r="F1586" t="n">
         <v>0.49875249500998</v>
@@ -35319,7 +35319,7 @@
         <v>8985</v>
       </c>
       <c r="E1590" t="n">
-        <v>0.0003200319653080526</v>
+        <v>0.0003200319653080525</v>
       </c>
       <c r="F1590" t="n">
         <v>0.4784585926280517</v>
@@ -35385,7 +35385,7 @@
         <v>10437</v>
       </c>
       <c r="E1593" t="n">
-        <v>0.002405173433359714</v>
+        <v>0.002405173433359715</v>
       </c>
       <c r="F1593" t="n">
         <v>0.4945571499257794</v>
@@ -35429,7 +35429,7 @@
         <v>320</v>
       </c>
       <c r="E1595" t="n">
-        <v>3.668407917560229e-07</v>
+        <v>3.668407917560228e-07</v>
       </c>
       <c r="F1595" t="n">
         <v>0.4044921084581141</v>
@@ -35451,7 +35451,7 @@
         <v>6836</v>
       </c>
       <c r="E1596" t="n">
-        <v>0.000471045782447021</v>
+        <v>0.0004710457824470211</v>
       </c>
       <c r="F1596" t="n">
         <v>0.4588019279320634</v>
@@ -35517,7 +35517,7 @@
         <v>47</v>
       </c>
       <c r="E1599" t="n">
-        <v>0.004131650266491432</v>
+        <v>0.004131650266491433</v>
       </c>
       <c r="F1599" t="n">
         <v>0.3977317946677278</v>
@@ -35539,7 +35539,7 @@
         <v>15891</v>
       </c>
       <c r="E1600" t="n">
-        <v>0.0004847945492611662</v>
+        <v>0.0004847945492611659</v>
       </c>
       <c r="F1600" t="n">
         <v>0.4957837301587301</v>
@@ -35561,7 +35561,7 @@
         <v>2455</v>
       </c>
       <c r="E1601" t="n">
-        <v>9.685066027168827e-05</v>
+        <v>9.685066027168826e-05</v>
       </c>
       <c r="F1601" t="n">
         <v>0.4322162162162162</v>
@@ -35583,7 +35583,7 @@
         <v>10460</v>
       </c>
       <c r="E1602" t="n">
-        <v>0.0005368255537182886</v>
+        <v>0.0005368255537182884</v>
       </c>
       <c r="F1602" t="n">
         <v>0.4856656948493683</v>
@@ -35627,7 +35627,7 @@
         <v>2889</v>
       </c>
       <c r="E1604" t="n">
-        <v>0.001050845148426185</v>
+        <v>0.001050845148426184</v>
       </c>
       <c r="F1604" t="n">
         <v>0.4470035778175313</v>
@@ -35693,7 +35693,7 @@
         <v>9305</v>
       </c>
       <c r="E1607" t="n">
-        <v>0.0007684722723043964</v>
+        <v>0.0007684722723043963</v>
       </c>
       <c r="F1607" t="n">
         <v>0.4874420872957815</v>
@@ -35715,7 +35715,7 @@
         <v>1261</v>
       </c>
       <c r="E1608" t="n">
-        <v>7.959799844514823e-05</v>
+        <v>7.959799844514822e-05</v>
       </c>
       <c r="F1608" t="n">
         <v>0.4460062472110665</v>
@@ -35781,7 +35781,7 @@
         <v>3490</v>
       </c>
       <c r="E1611" t="n">
-        <v>0.0004436014563605339</v>
+        <v>0.0004436014563605336</v>
       </c>
       <c r="F1611" t="n">
         <v>0.4410856134157105</v>
@@ -35803,7 +35803,7 @@
         <v>746</v>
       </c>
       <c r="E1612" t="n">
-        <v>8.757727802214009e-05</v>
+        <v>8.757727802214006e-05</v>
       </c>
       <c r="F1612" t="n">
         <v>0.4404053756333994</v>
@@ -35825,7 +35825,7 @@
         <v>622</v>
       </c>
       <c r="E1613" t="n">
-        <v>2.083561098876827e-06</v>
+        <v>2.083561098876828e-06</v>
       </c>
       <c r="F1613" t="n">
         <v>0.4241459792064503</v>
@@ -35891,7 +35891,7 @@
         <v>15212</v>
       </c>
       <c r="E1616" t="n">
-        <v>0.0008791539349810518</v>
+        <v>0.000879153934981052</v>
       </c>
       <c r="F1616" t="n">
         <v>0.4983794564946398</v>
@@ -35979,7 +35979,7 @@
         <v>9737</v>
       </c>
       <c r="E1620" t="n">
-        <v>0.0007196102805622163</v>
+        <v>0.0007196102805622161</v>
       </c>
       <c r="F1620" t="n">
         <v>0.4882755251587689</v>
@@ -36001,7 +36001,7 @@
         <v>12853</v>
       </c>
       <c r="E1621" t="n">
-        <v>0.0005164803409826823</v>
+        <v>0.0005164803409826822</v>
       </c>
       <c r="F1621" t="n">
         <v>0.4944348256245363</v>
@@ -36045,7 +36045,7 @@
         <v>4351</v>
       </c>
       <c r="E1623" t="n">
-        <v>0.0003667640083388768</v>
+        <v>0.0003667640083388769</v>
       </c>
       <c r="F1623" t="n">
         <v>0.4466041108132261</v>
@@ -36177,7 +36177,7 @@
         <v>670</v>
       </c>
       <c r="E1629" t="n">
-        <v>5.705890689425743e-05</v>
+        <v>5.705890689425741e-05</v>
       </c>
       <c r="F1629" t="n">
         <v>0.4110631297552951</v>
@@ -36199,7 +36199,7 @@
         <v>42</v>
       </c>
       <c r="E1630" t="n">
-        <v>0.0009701920522258485</v>
+        <v>0.0009701920522258486</v>
       </c>
       <c r="F1630" t="n">
         <v>0.3676659922751517</v>
@@ -36221,7 +36221,7 @@
         <v>1482</v>
       </c>
       <c r="E1631" t="n">
-        <v>6.188846004194904e-05</v>
+        <v>6.188846004194905e-05</v>
       </c>
       <c r="F1631" t="n">
         <v>0.4275021385799829</v>
@@ -36285,7 +36285,7 @@
         <v>33</v>
       </c>
       <c r="E1634" t="n">
-        <v>6.607475009105573e-06</v>
+        <v>6.607475009105576e-06</v>
       </c>
       <c r="F1634" t="n">
         <v>0.2922514619883041</v>
@@ -36307,7 +36307,7 @@
         <v>8187</v>
       </c>
       <c r="E1635" t="n">
-        <v>0.001135948908399952</v>
+        <v>0.001135948908399951</v>
       </c>
       <c r="F1635" t="n">
         <v>0.4809913378248316</v>
@@ -36351,7 +36351,7 @@
         <v>7869</v>
       </c>
       <c r="E1637" t="n">
-        <v>0.0005416613522489861</v>
+        <v>0.0005416613522489862</v>
       </c>
       <c r="F1637" t="n">
         <v>0.476292589945199</v>
@@ -36373,7 +36373,7 @@
         <v>1349</v>
       </c>
       <c r="E1638" t="n">
-        <v>1.901212731583063e-05</v>
+        <v>1.901212731583064e-05</v>
       </c>
       <c r="F1638" t="n">
         <v>0.4355119825708061</v>
@@ -36439,7 +36439,7 @@
         <v>131</v>
       </c>
       <c r="E1641" t="n">
-        <v>0.005555614786897847</v>
+        <v>0.005555614786897845</v>
       </c>
       <c r="F1641" t="n">
         <v>0.365916163280249</v>
@@ -36461,7 +36461,7 @@
         <v>478</v>
       </c>
       <c r="E1642" t="n">
-        <v>8.321450808112369e-06</v>
+        <v>8.321450808112366e-06</v>
       </c>
       <c r="F1642" t="n">
         <v>0.4208421052631579</v>
@@ -36483,7 +36483,7 @@
         <v>2064</v>
       </c>
       <c r="E1643" t="n">
-        <v>7.74850995814146e-05</v>
+        <v>7.748509958141463e-05</v>
       </c>
       <c r="F1643" t="n">
         <v>0.4367489622023159</v>
@@ -36527,7 +36527,7 @@
         <v>13268</v>
       </c>
       <c r="E1645" t="n">
-        <v>0.0007415519064776146</v>
+        <v>0.0007415519064776147</v>
       </c>
       <c r="F1645" t="n">
         <v>0.4954151177199504</v>
@@ -36549,7 +36549,7 @@
         <v>8259</v>
       </c>
       <c r="E1646" t="n">
-        <v>0.0007561929032895726</v>
+        <v>0.0007561929032895728</v>
       </c>
       <c r="F1646" t="n">
         <v>0.473696682464455</v>
@@ -36593,7 +36593,7 @@
         <v>5186</v>
       </c>
       <c r="E1648" t="n">
-        <v>0.0003314434415947651</v>
+        <v>0.000331443441594765</v>
       </c>
       <c r="F1648" t="n">
         <v>0.45246717971933</v>
@@ -36615,7 +36615,7 @@
         <v>1485</v>
       </c>
       <c r="E1649" t="n">
-        <v>4.186891204345881e-05</v>
+        <v>4.186891204345883e-05</v>
       </c>
       <c r="F1649" t="n">
         <v>0.4444197421076034</v>
@@ -36725,7 +36725,7 @@
         <v>4897</v>
       </c>
       <c r="E1654" t="n">
-        <v>0.0006849343950064754</v>
+        <v>0.0006849343950064753</v>
       </c>
       <c r="F1654" t="n">
         <v>0.4632676709154114</v>
@@ -36747,7 +36747,7 @@
         <v>12520</v>
       </c>
       <c r="E1655" t="n">
-        <v>0.0007911737747819581</v>
+        <v>0.000791173774781958</v>
       </c>
       <c r="F1655" t="n">
         <v>0.4855477289288317</v>
@@ -36791,7 +36791,7 @@
         <v>13567</v>
       </c>
       <c r="E1657" t="n">
-        <v>0.0007407657947827262</v>
+        <v>0.000740765794782726</v>
       </c>
       <c r="F1657" t="n">
         <v>0.5031462371004279</v>
@@ -36813,7 +36813,7 @@
         <v>10555</v>
       </c>
       <c r="E1658" t="n">
-        <v>0.001108587640567037</v>
+        <v>0.001108587640567038</v>
       </c>
       <c r="F1658" t="n">
         <v>0.4788023952095808</v>
@@ -36989,7 +36989,7 @@
         <v>8085</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.0006632073261953985</v>
+        <v>0.0006632073261953987</v>
       </c>
       <c r="F1666" t="n">
         <v>0.4723534971644612</v>
@@ -37099,7 +37099,7 @@
         <v>7445</v>
       </c>
       <c r="E1671" t="n">
-        <v>0.0006152776926211385</v>
+        <v>0.0006152776926211381</v>
       </c>
       <c r="F1671" t="n">
         <v>0.4775441949354993</v>
@@ -37143,7 +37143,7 @@
         <v>12287</v>
       </c>
       <c r="E1673" t="n">
-        <v>0.0008627904057423687</v>
+        <v>0.0008627904057423692</v>
       </c>
       <c r="F1673" t="n">
         <v>0.4940682155215027</v>
@@ -37165,7 +37165,7 @@
         <v>6900</v>
       </c>
       <c r="E1674" t="n">
-        <v>0.0007481063679058979</v>
+        <v>0.0007481063679058978</v>
       </c>
       <c r="F1674" t="n">
         <v>0.4632676709154114</v>
@@ -37187,7 +37187,7 @@
         <v>17162</v>
       </c>
       <c r="E1675" t="n">
-        <v>0.0005465999209092838</v>
+        <v>0.0005465999209092834</v>
       </c>
       <c r="F1675" t="n">
         <v>0.4973874098034337</v>
@@ -37209,7 +37209,7 @@
         <v>20420</v>
       </c>
       <c r="E1676" t="n">
-        <v>0.001145197570917505</v>
+        <v>0.001145197570917504</v>
       </c>
       <c r="F1676" t="n">
         <v>0.4982552342971086</v>
@@ -37297,7 +37297,7 @@
         <v>4447</v>
       </c>
       <c r="E1680" t="n">
-        <v>0.000143275850178333</v>
+        <v>0.0001432758501783331</v>
       </c>
       <c r="F1680" t="n">
         <v>0.4467039106145251</v>
@@ -37319,7 +37319,7 @@
         <v>6870</v>
       </c>
       <c r="E1681" t="n">
-        <v>0.0004087867254285732</v>
+        <v>0.0004087867254285733</v>
       </c>
       <c r="F1681" t="n">
         <v>0.4646675964667596</v>
@@ -37363,7 +37363,7 @@
         <v>10915</v>
       </c>
       <c r="E1683" t="n">
-        <v>0.003460031497068376</v>
+        <v>0.003460031497068375</v>
       </c>
       <c r="F1683" t="n">
         <v>0.4957837301587301</v>
@@ -37407,7 +37407,7 @@
         <v>17</v>
       </c>
       <c r="E1685" t="n">
-        <v>1.851864732505475e-05</v>
+        <v>1.851864732505474e-05</v>
       </c>
       <c r="F1685" t="n">
         <v>0.304122927126122</v>
@@ -37429,7 +37429,7 @@
         <v>1617</v>
       </c>
       <c r="E1686" t="n">
-        <v>9.141322837893344e-05</v>
+        <v>9.141322837893347e-05</v>
       </c>
       <c r="F1686" t="n">
         <v>0.4475039176180882</v>
@@ -37517,7 +37517,7 @@
         <v>23</v>
       </c>
       <c r="E1690" t="n">
-        <v>5.466682242964351e-06</v>
+        <v>5.46668224296435e-06</v>
       </c>
       <c r="F1690" t="n">
         <v>0.349292329197973</v>
@@ -37627,7 +37627,7 @@
         <v>11331</v>
       </c>
       <c r="E1695" t="n">
-        <v>0.0008212530947449771</v>
+        <v>0.0008212530947449776</v>
       </c>
       <c r="F1695" t="n">
         <v>0.4882755251587689</v>
@@ -37649,7 +37649,7 @@
         <v>307</v>
       </c>
       <c r="E1696" t="n">
-        <v>5.586451918875962e-05</v>
+        <v>5.586451918875961e-05</v>
       </c>
       <c r="F1696" t="n">
         <v>0.4204880100967606</v>
@@ -37671,7 +37671,7 @@
         <v>14980</v>
       </c>
       <c r="E1697" t="n">
-        <v>0.0006239526987224586</v>
+        <v>0.0006239526987224585</v>
       </c>
       <c r="F1697" t="n">
         <v>0.5010025062656641</v>
@@ -37869,7 +37869,7 @@
         <v>11672</v>
       </c>
       <c r="E1706" t="n">
-        <v>0.0008319432909618727</v>
+        <v>0.0008319432909618728</v>
       </c>
       <c r="F1706" t="n">
         <v>0.495660798413092</v>
@@ -37891,7 +37891,7 @@
         <v>239</v>
       </c>
       <c r="E1707" t="n">
-        <v>0.001720359729341031</v>
+        <v>0.001720359729341032</v>
       </c>
       <c r="F1707" t="n">
         <v>0.3464471403812825</v>
@@ -37935,7 +37935,7 @@
         <v>162</v>
       </c>
       <c r="E1709" t="n">
-        <v>0.003508866692447069</v>
+        <v>0.003508866692447068</v>
       </c>
       <c r="F1709" t="n">
         <v>0.3968632122295017</v>
@@ -37957,7 +37957,7 @@
         <v>6134</v>
       </c>
       <c r="E1710" t="n">
-        <v>0.0006401267706001828</v>
+        <v>0.000640126770600183</v>
       </c>
       <c r="F1710" t="n">
         <v>0.4680402715991571</v>
@@ -37979,7 +37979,7 @@
         <v>28</v>
       </c>
       <c r="E1711" t="n">
-        <v>0.0003070199493967234</v>
+        <v>0.0003070199493967233</v>
       </c>
       <c r="F1711" t="n">
         <v>0.3788137199166193</v>
@@ -38001,7 +38001,7 @@
         <v>10991</v>
       </c>
       <c r="E1712" t="n">
-        <v>0.000537916598208678</v>
+        <v>0.0005379165982086781</v>
       </c>
       <c r="F1712" t="n">
         <v>0.4797216222702184</v>
@@ -38023,7 +38023,7 @@
         <v>1277</v>
       </c>
       <c r="E1713" t="n">
-        <v>0.0002535979392623589</v>
+        <v>0.0002535979392623587</v>
       </c>
       <c r="F1713" t="n">
         <v>0.4281430713214821</v>
@@ -38111,7 +38111,7 @@
         <v>11284</v>
       </c>
       <c r="E1717" t="n">
-        <v>0.00149282054404593</v>
+        <v>0.001492820544045929</v>
       </c>
       <c r="F1717" t="n">
         <v>0.4856656948493683</v>
@@ -38155,7 +38155,7 @@
         <v>12011</v>
       </c>
       <c r="E1719" t="n">
-        <v>0.0006126630711906158</v>
+        <v>0.0006126630711906157</v>
       </c>
       <c r="F1719" t="n">
         <v>0.4945571499257794</v>
@@ -38199,7 +38199,7 @@
         <v>11907</v>
       </c>
       <c r="E1721" t="n">
-        <v>0.0006509957168046175</v>
+        <v>0.0006509957168046176</v>
       </c>
       <c r="F1721" t="n">
         <v>0.4857837181044958</v>
@@ -38221,7 +38221,7 @@
         <v>14075</v>
       </c>
       <c r="E1722" t="n">
-        <v>0.0007400889022493994</v>
+        <v>0.0007400889022493991</v>
       </c>
       <c r="F1722" t="n">
         <v>0.4940682155215027</v>
@@ -38243,7 +38243,7 @@
         <v>5698</v>
       </c>
       <c r="E1723" t="n">
-        <v>0.001515929941453269</v>
+        <v>0.001515929941453268</v>
       </c>
       <c r="F1723" t="n">
         <v>0.468918601923528</v>
@@ -38265,7 +38265,7 @@
         <v>12749</v>
       </c>
       <c r="E1724" t="n">
-        <v>0.0004215014823761447</v>
+        <v>0.0004215014823761448</v>
       </c>
       <c r="F1724" t="n">
         <v>0.4920009844942161</v>
@@ -38287,7 +38287,7 @@
         <v>196</v>
       </c>
       <c r="E1725" t="n">
-        <v>5.424807858075629e-07</v>
+        <v>5.42480785807563e-07</v>
       </c>
       <c r="F1725" t="n">
         <v>0.3238820479585224</v>
@@ -38309,7 +38309,7 @@
         <v>7957</v>
       </c>
       <c r="E1726" t="n">
-        <v>0.0003143082614336427</v>
+        <v>0.0003143082614336426</v>
       </c>
       <c r="F1726" t="n">
         <v>0.4720188902007084</v>
@@ -38353,7 +38353,7 @@
         <v>7327</v>
       </c>
       <c r="E1728" t="n">
-        <v>0.0007153532268034342</v>
+        <v>0.0007153532268034337</v>
       </c>
       <c r="F1728" t="n">
         <v>0.4679307116104869</v>
@@ -38375,7 +38375,7 @@
         <v>11845</v>
       </c>
       <c r="E1729" t="n">
-        <v>0.0009532505894466597</v>
+        <v>0.00095325058944666</v>
       </c>
       <c r="F1729" t="n">
         <v>0.4790318715552361</v>
@@ -38419,7 +38419,7 @@
         <v>16589</v>
       </c>
       <c r="E1731" t="n">
-        <v>0.0005358104556597175</v>
+        <v>0.0005358104556597177</v>
       </c>
       <c r="F1731" t="n">
         <v>0.4992507492507492</v>
@@ -38529,7 +38529,7 @@
         <v>9790</v>
       </c>
       <c r="E1736" t="n">
-        <v>0.000868951278688673</v>
+        <v>0.0008689512786886725</v>
       </c>
       <c r="F1736" t="n">
         <v>0.4767469592177438</v>
@@ -38595,7 +38595,7 @@
         <v>9773</v>
       </c>
       <c r="E1739" t="n">
-        <v>0.0006606148297104573</v>
+        <v>0.0006606148297104569</v>
       </c>
       <c r="F1739" t="n">
         <v>0.4730241362991008</v>
@@ -38617,7 +38617,7 @@
         <v>1384</v>
       </c>
       <c r="E1740" t="n">
-        <v>0.000720693454891149</v>
+        <v>0.0007206934548911492</v>
       </c>
       <c r="F1740" t="n">
         <v>0.3986041874376869</v>
@@ -38639,7 +38639,7 @@
         <v>60</v>
       </c>
       <c r="E1741" t="n">
-        <v>0.003009931674300161</v>
+        <v>0.00300993167430016</v>
       </c>
       <c r="F1741" t="n">
         <v>0.3370994940978078</v>
@@ -38683,7 +38683,7 @@
         <v>71</v>
       </c>
       <c r="E1743" t="n">
-        <v>0.0005956199636203149</v>
+        <v>0.0005956199636203148</v>
       </c>
       <c r="F1743" t="n">
         <v>0.3312344656172328</v>
@@ -38793,7 +38793,7 @@
         <v>3484</v>
       </c>
       <c r="E1748" t="n">
-        <v>0.0003725625808338385</v>
+        <v>0.0003725625808338387</v>
       </c>
       <c r="F1748" t="n">
         <v>0.4628386200509377</v>
@@ -38815,7 +38815,7 @@
         <v>43</v>
       </c>
       <c r="E1749" t="n">
-        <v>8.611695110942726e-05</v>
+        <v>8.611695110942725e-05</v>
       </c>
       <c r="F1749" t="n">
         <v>0.2933665981802172</v>
@@ -38837,7 +38837,7 @@
         <v>17268</v>
       </c>
       <c r="E1750" t="n">
-        <v>0.0008124222724526034</v>
+        <v>0.0008124222724526035</v>
       </c>
       <c r="F1750" t="n">
         <v>0.5008769731896768</v>
@@ -38859,7 +38859,7 @@
         <v>190</v>
       </c>
       <c r="E1751" t="n">
-        <v>5.566983280622173e-06</v>
+        <v>5.566983280622171e-06</v>
       </c>
       <c r="F1751" t="n">
         <v>0.3934264908482582</v>
@@ -38881,7 +38881,7 @@
         <v>11024</v>
       </c>
       <c r="E1752" t="n">
-        <v>0.000585258607615961</v>
+        <v>0.0005852586076159608</v>
       </c>
       <c r="F1752" t="n">
         <v>0.4983794564946398</v>
@@ -38947,7 +38947,7 @@
         <v>12796</v>
       </c>
       <c r="E1755" t="n">
-        <v>0.0008344297586496202</v>
+        <v>0.0008344297586496203</v>
       </c>
       <c r="F1755" t="n">
         <v>0.4968928660203827</v>
@@ -38991,7 +38991,7 @@
         <v>72</v>
       </c>
       <c r="E1757" t="n">
-        <v>0.0009796083600971265</v>
+        <v>0.0009796083600971267</v>
       </c>
       <c r="F1757" t="n">
         <v>0.3543069833392414</v>
@@ -39035,7 +39035,7 @@
         <v>1264</v>
       </c>
       <c r="E1759" t="n">
-        <v>0.0004426505193206152</v>
+        <v>0.0004426505193206153</v>
       </c>
       <c r="F1759" t="n">
         <v>0.3521225999647701</v>
@@ -39057,7 +39057,7 @@
         <v>301</v>
       </c>
       <c r="E1760" t="n">
-        <v>3.704640035473944e-07</v>
+        <v>3.704640035473945e-07</v>
       </c>
       <c r="F1760" t="n">
         <v>0.4043284789644013</v>
@@ -39145,7 +39145,7 @@
         <v>7236</v>
       </c>
       <c r="E1764" t="n">
-        <v>0.0007450190098143584</v>
+        <v>0.0007450190098143588</v>
       </c>
       <c r="F1764" t="n">
         <v>0.4664022398506766</v>
@@ -39167,7 +39167,7 @@
         <v>11671</v>
       </c>
       <c r="E1765" t="n">
-        <v>0.0004699354614455393</v>
+        <v>0.0004699354614455392</v>
       </c>
       <c r="F1765" t="n">
         <v>0.4784585926280517</v>
@@ -39211,7 +39211,7 @@
         <v>14332</v>
       </c>
       <c r="E1767" t="n">
-        <v>0.004348500336784505</v>
+        <v>0.004348500336784503</v>
       </c>
       <c r="F1767" t="n">
         <v>0.5064606029896124</v>
@@ -39255,7 +39255,7 @@
         <v>10929</v>
       </c>
       <c r="E1769" t="n">
-        <v>0.0006012911041675623</v>
+        <v>0.0006012911041675624</v>
       </c>
       <c r="F1769" t="n">
         <v>0.4889921722113503</v>
@@ -39277,7 +39277,7 @@
         <v>172</v>
       </c>
       <c r="E1770" t="n">
-        <v>0.002036873803904844</v>
+        <v>0.002036873803904846</v>
       </c>
       <c r="F1770" t="n">
         <v>0.4035123132821962</v>
@@ -39321,7 +39321,7 @@
         <v>259</v>
       </c>
       <c r="E1772" t="n">
-        <v>4.116727926401841e-06</v>
+        <v>4.11672792640184e-06</v>
       </c>
       <c r="F1772" t="n">
         <v>0.3401395269695423</v>
@@ -39365,7 +39365,7 @@
         <v>5056</v>
       </c>
       <c r="E1774" t="n">
-        <v>0.000262592282870677</v>
+        <v>0.0002625922828706772</v>
       </c>
       <c r="F1774" t="n">
         <v>0.4505296371422132</v>
@@ -39431,7 +39431,7 @@
         <v>4339</v>
       </c>
       <c r="E1777" t="n">
-        <v>0.0009551059955844774</v>
+        <v>0.0009551059955844772</v>
       </c>
       <c r="F1777" t="n">
         <v>0.4558722919042189</v>
@@ -39497,7 +39497,7 @@
         <v>13261</v>
       </c>
       <c r="E1780" t="n">
-        <v>0.001286784318236867</v>
+        <v>0.001286784318236866</v>
       </c>
       <c r="F1780" t="n">
         <v>0.4967693836978131</v>
@@ -39541,7 +39541,7 @@
         <v>52</v>
       </c>
       <c r="E1782" t="n">
-        <v>6.763627211830853e-05</v>
+        <v>6.763627211830857e-05</v>
       </c>
       <c r="F1782" t="n">
         <v>0.3536801132342534</v>
@@ -39563,7 +39563,7 @@
         <v>444</v>
       </c>
       <c r="E1783" t="n">
-        <v>2.185020177425834e-05</v>
+        <v>2.185020177425835e-05</v>
       </c>
       <c r="F1783" t="n">
         <v>0.4256814310051107</v>
@@ -39585,7 +39585,7 @@
         <v>46</v>
       </c>
       <c r="E1784" t="n">
-        <v>8.893234681424867e-05</v>
+        <v>8.893234681424869e-05</v>
       </c>
       <c r="F1784" t="n">
         <v>0.3610910404624277</v>
@@ -39629,7 +39629,7 @@
         <v>130</v>
       </c>
       <c r="E1786" t="n">
-        <v>6.556304800829499e-08</v>
+        <v>6.5563048008295e-08</v>
       </c>
       <c r="F1786" t="n">
         <v>0.3956848772763262</v>
@@ -39695,7 +39695,7 @@
         <v>10161</v>
       </c>
       <c r="E1789" t="n">
-        <v>0.002274772694983186</v>
+        <v>0.002274772694983185</v>
       </c>
       <c r="F1789" t="n">
         <v>0.5006260956674179</v>
@@ -39739,7 +39739,7 @@
         <v>19201</v>
       </c>
       <c r="E1791" t="n">
-        <v>0.0006221003740741973</v>
+        <v>0.0006221003740741975</v>
       </c>
       <c r="F1791" t="n">
         <v>0.4995002498750625</v>
@@ -39761,7 +39761,7 @@
         <v>7111</v>
       </c>
       <c r="E1792" t="n">
-        <v>0.001132467371699331</v>
+        <v>0.001132467371699332</v>
       </c>
       <c r="F1792" t="n">
         <v>0.4794914847685296</v>
@@ -39849,7 +39849,7 @@
         <v>8987</v>
       </c>
       <c r="E1796" t="n">
-        <v>0.0006369118197392431</v>
+        <v>0.0006369118197392432</v>
       </c>
       <c r="F1796" t="n">
         <v>0.4857837181044958</v>
@@ -39871,7 +39871,7 @@
         <v>13588</v>
       </c>
       <c r="E1797" t="n">
-        <v>0.000645989412747148</v>
+        <v>0.0006459894127471479</v>
       </c>
       <c r="F1797" t="n">
         <v>0.4888725849841037</v>
@@ -39893,7 +39893,7 @@
         <v>1717</v>
       </c>
       <c r="E1798" t="n">
-        <v>8.663647914447841e-05</v>
+        <v>8.663647914447844e-05</v>
       </c>
       <c r="F1798" t="n">
         <v>0.445409982174688</v>
@@ -39937,7 +39937,7 @@
         <v>9804</v>
       </c>
       <c r="E1800" t="n">
-        <v>0.0005524317704169084</v>
+        <v>0.0005524317704169083</v>
       </c>
       <c r="F1800" t="n">
         <v>0.4821514712976363</v>
@@ -39959,7 +39959,7 @@
         <v>3</v>
       </c>
       <c r="E1801" t="n">
-        <v>2.259770737345153e-05</v>
+        <v>2.259770737345154e-05</v>
       </c>
       <c r="F1801" t="n">
         <v>0.3142093681232317</v>
@@ -39981,7 +39981,7 @@
         <v>8470</v>
       </c>
       <c r="E1802" t="n">
-        <v>0.0007191037067996797</v>
+        <v>0.0007191037067996798</v>
       </c>
       <c r="F1802" t="n">
         <v>0.4814547206165703</v>
@@ -40003,7 +40003,7 @@
         <v>5778</v>
       </c>
       <c r="E1803" t="n">
-        <v>0.005848466921292135</v>
+        <v>0.005848466921292136</v>
       </c>
       <c r="F1803" t="n">
         <v>0.4867299732164597</v>
@@ -40245,7 +40245,7 @@
         <v>58</v>
       </c>
       <c r="E1814" t="n">
-        <v>9.795658003026335e-06</v>
+        <v>9.795658003026337e-06</v>
       </c>
       <c r="F1814" t="n">
         <v>0.3386413687955277</v>
@@ -40267,7 +40267,7 @@
         <v>2479</v>
       </c>
       <c r="E1815" t="n">
-        <v>0.0002185704364680796</v>
+        <v>0.0002185704364680797</v>
       </c>
       <c r="F1815" t="n">
         <v>0.4508344609833108</v>
@@ -40355,7 +40355,7 @@
         <v>4904</v>
       </c>
       <c r="E1819" t="n">
-        <v>0.0001855331696143203</v>
+        <v>0.0001855331696143202</v>
       </c>
       <c r="F1819" t="n">
         <v>0.4381850065760631</v>
@@ -40509,7 +40509,7 @@
         <v>1296</v>
       </c>
       <c r="E1826" t="n">
-        <v>0.003199854045708899</v>
+        <v>0.0031998540457089</v>
       </c>
       <c r="F1826" t="n">
         <v>0.416979557780559</v>
@@ -40531,7 +40531,7 @@
         <v>244</v>
       </c>
       <c r="E1827" t="n">
-        <v>2.799776037786797e-07</v>
+        <v>2.799776037786796e-07</v>
       </c>
       <c r="F1827" t="n">
         <v>0.4235169491525423</v>
@@ -40575,7 +40575,7 @@
         <v>15451</v>
       </c>
       <c r="E1829" t="n">
-        <v>0.0004370373003640826</v>
+        <v>0.0004370373003640825</v>
       </c>
       <c r="F1829" t="n">
         <v>0.4856656948493683</v>
@@ -40619,7 +40619,7 @@
         <v>1097</v>
       </c>
       <c r="E1831" t="n">
-        <v>9.134268677494766e-05</v>
+        <v>9.134268677494764e-05</v>
       </c>
       <c r="F1831" t="n">
         <v>0.4275935828877005</v>
@@ -40641,7 +40641,7 @@
         <v>8252</v>
       </c>
       <c r="E1832" t="n">
-        <v>0.0005398407892038376</v>
+        <v>0.0005398407892038375</v>
       </c>
       <c r="F1832" t="n">
         <v>0.473696682464455</v>
@@ -40707,7 +40707,7 @@
         <v>9486</v>
       </c>
       <c r="E1835" t="n">
-        <v>0.002443825078612753</v>
+        <v>0.002443825078612754</v>
       </c>
       <c r="F1835" t="n">
         <v>0.473696682464455</v>
@@ -40729,7 +40729,7 @@
         <v>526</v>
       </c>
       <c r="E1836" t="n">
-        <v>6.653218365779849e-05</v>
+        <v>6.653218365779853e-05</v>
       </c>
       <c r="F1836" t="n">
         <v>0.4361771765219289</v>
@@ -40817,7 +40817,7 @@
         <v>25</v>
       </c>
       <c r="E1840" t="n">
-        <v>0.0007826887531683108</v>
+        <v>0.0007826887531683107</v>
       </c>
       <c r="F1840" t="n">
         <v>0.3475312934631433</v>
@@ -40905,7 +40905,7 @@
         <v>60</v>
       </c>
       <c r="E1844" t="n">
-        <v>8.625972055369674e-08</v>
+        <v>8.625972055369671e-08</v>
       </c>
       <c r="F1844" t="n">
         <v>0.3363621066801279</v>
@@ -40949,7 +40949,7 @@
         <v>7440</v>
       </c>
       <c r="E1846" t="n">
-        <v>0.0008929111374538054</v>
+        <v>0.0008929111374538053</v>
       </c>
       <c r="F1846" t="n">
         <v>0.4662934452997434</v>
@@ -41081,7 +41081,7 @@
         <v>241</v>
       </c>
       <c r="E1852" t="n">
-        <v>4.428794268527862e-05</v>
+        <v>4.428794268527863e-05</v>
       </c>
       <c r="F1852" t="n">
         <v>0.3067833026396562</v>
@@ -41103,7 +41103,7 @@
         <v>11388</v>
       </c>
       <c r="E1853" t="n">
-        <v>0.0005233127817759015</v>
+        <v>0.0005233127817759019</v>
       </c>
       <c r="F1853" t="n">
         <v>0.4932149025413274</v>
@@ -41125,7 +41125,7 @@
         <v>78</v>
       </c>
       <c r="E1854" t="n">
-        <v>8.935513153825725e-07</v>
+        <v>8.93551315382572e-07</v>
       </c>
       <c r="F1854" t="n">
         <v>0.3884570540225418</v>
@@ -41191,7 +41191,7 @@
         <v>11120</v>
       </c>
       <c r="E1857" t="n">
-        <v>0.0008719745114061872</v>
+        <v>0.0008719745114061871</v>
       </c>
       <c r="F1857" t="n">
         <v>0.486256385307711</v>
@@ -41213,7 +41213,7 @@
         <v>15691</v>
       </c>
       <c r="E1858" t="n">
-        <v>0.0007354828343091343</v>
+        <v>0.0007354828343091342</v>
       </c>
       <c r="F1858" t="n">
         <v>0.5036533131771227</v>
@@ -41235,7 +41235,7 @@
         <v>14226</v>
       </c>
       <c r="E1859" t="n">
-        <v>0.0009196049734763848</v>
+        <v>0.0009196049734763847</v>
       </c>
       <c r="F1859" t="n">
         <v>0.495660798413092</v>
@@ -41257,7 +41257,7 @@
         <v>19557</v>
       </c>
       <c r="E1860" t="n">
-        <v>0.0005967283544746513</v>
+        <v>0.0005967283544746514</v>
       </c>
       <c r="F1860" t="n">
         <v>0.4977589641434263</v>
@@ -41323,7 +41323,7 @@
         <v>3956</v>
       </c>
       <c r="E1863" t="n">
-        <v>0.0003799281465137046</v>
+        <v>0.0003799281465137045</v>
       </c>
       <c r="F1863" t="n">
         <v>0.4534936479128857</v>
@@ -41345,7 +41345,7 @@
         <v>346</v>
       </c>
       <c r="E1864" t="n">
-        <v>0.006352386639497474</v>
+        <v>0.006352386639497473</v>
       </c>
       <c r="F1864" t="n">
         <v>0.3959984152139461</v>
@@ -41389,7 +41389,7 @@
         <v>53</v>
       </c>
       <c r="E1866" t="n">
-        <v>2.67076141913342e-05</v>
+        <v>2.670761419133419e-05</v>
       </c>
       <c r="F1866" t="n">
         <v>0.3945913936044216</v>
@@ -41411,7 +41411,7 @@
         <v>169</v>
       </c>
       <c r="E1867" t="n">
-        <v>0.0006986131050591342</v>
+        <v>0.0006986131050591344</v>
       </c>
       <c r="F1867" t="n">
         <v>0.2949247565653585</v>
@@ -41455,7 +41455,7 @@
         <v>175</v>
       </c>
       <c r="E1869" t="n">
-        <v>9.25075658725042e-05</v>
+        <v>9.250756587250424e-05</v>
       </c>
       <c r="F1869" t="n">
         <v>0.3979693410312562</v>
@@ -41543,7 +41543,7 @@
         <v>721</v>
       </c>
       <c r="E1873" t="n">
-        <v>2.89485160671214e-05</v>
+        <v>2.894851606712139e-05</v>
       </c>
       <c r="F1873" t="n">
         <v>0.4300774526678141</v>
@@ -41609,7 +41609,7 @@
         <v>19310</v>
       </c>
       <c r="E1876" t="n">
-        <v>0.0005823519251078848</v>
+        <v>0.0005823519251078847</v>
       </c>
       <c r="F1876" t="n">
         <v>0.4920009844942161</v>
@@ -41653,7 +41653,7 @@
         <v>11668</v>
       </c>
       <c r="E1878" t="n">
-        <v>0.0009587500445907129</v>
+        <v>0.000958750044590713</v>
       </c>
       <c r="F1878" t="n">
         <v>0.4905521472392638</v>
@@ -41719,7 +41719,7 @@
         <v>5151</v>
       </c>
       <c r="E1881" t="n">
-        <v>0.0006112242778852974</v>
+        <v>0.0006112242778852975</v>
       </c>
       <c r="F1881" t="n">
         <v>0.4602809118121114</v>
@@ -41741,7 +41741,7 @@
         <v>9075</v>
       </c>
       <c r="E1882" t="n">
-        <v>0.0006064407370373774</v>
+        <v>0.0006064407370373776</v>
       </c>
       <c r="F1882" t="n">
         <v>0.4790318715552361</v>
@@ -41785,7 +41785,7 @@
         <v>86</v>
       </c>
       <c r="E1884" t="n">
-        <v>5.432847644975976e-05</v>
+        <v>5.432847644975975e-05</v>
       </c>
       <c r="F1884" t="n">
         <v>0.3840537944284342</v>
@@ -41807,7 +41807,7 @@
         <v>12275</v>
       </c>
       <c r="E1885" t="n">
-        <v>0.003518025025371505</v>
+        <v>0.003518025025371504</v>
       </c>
       <c r="F1885" t="n">
         <v>0.4996250937265684</v>
@@ -41829,7 +41829,7 @@
         <v>10019</v>
       </c>
       <c r="E1886" t="n">
-        <v>0.0003638516585099798</v>
+        <v>0.0003638516585099797</v>
       </c>
       <c r="F1886" t="n">
         <v>0.4786877394636015</v>
@@ -41873,7 +41873,7 @@
         <v>9815</v>
       </c>
       <c r="E1888" t="n">
-        <v>0.0005432586825354748</v>
+        <v>0.0005432586825354746</v>
       </c>
       <c r="F1888" t="n">
         <v>0.484841135095804</v>
@@ -41895,7 +41895,7 @@
         <v>4620</v>
       </c>
       <c r="E1889" t="n">
-        <v>0.008533766835363917</v>
+        <v>0.008533766835363915</v>
       </c>
       <c r="F1889" t="n">
         <v>0.4377052769870813</v>
@@ -41939,7 +41939,7 @@
         <v>7671</v>
       </c>
       <c r="E1891" t="n">
-        <v>0.0003065657031365145</v>
+        <v>0.0003065657031365146</v>
       </c>
       <c r="F1891" t="n">
         <v>0.4761791329204383</v>
@@ -41961,7 +41961,7 @@
         <v>556</v>
       </c>
       <c r="E1892" t="n">
-        <v>9.223633747948495e-05</v>
+        <v>9.223633747948497e-05</v>
       </c>
       <c r="F1892" t="n">
         <v>0.4443209602133807</v>
@@ -42005,7 +42005,7 @@
         <v>142</v>
       </c>
       <c r="E1894" t="n">
-        <v>0.0005292061760018253</v>
+        <v>0.0005292061760018256</v>
       </c>
       <c r="F1894" t="n">
         <v>0.4010030090270812</v>
@@ -42027,7 +42027,7 @@
         <v>1333</v>
       </c>
       <c r="E1895" t="n">
-        <v>0.0004924755981077733</v>
+        <v>0.0004924755981077735</v>
       </c>
       <c r="F1895" t="n">
         <v>0.4249574829931972</v>
@@ -42049,7 +42049,7 @@
         <v>4188</v>
       </c>
       <c r="E1896" t="n">
-        <v>0.0007821540257141921</v>
+        <v>0.0007821540257141924</v>
       </c>
       <c r="F1896" t="n">
         <v>0.4568098720292504</v>
@@ -42115,7 +42115,7 @@
         <v>10444</v>
       </c>
       <c r="E1899" t="n">
-        <v>0.000943633726028723</v>
+        <v>0.0009436337260287229</v>
       </c>
       <c r="F1899" t="n">
         <v>0.4903115035565366</v>
@@ -42159,7 +42159,7 @@
         <v>148</v>
       </c>
       <c r="E1901" t="n">
-        <v>5.229242225245919e-05</v>
+        <v>5.229242225245917e-05</v>
       </c>
       <c r="F1901" t="n">
         <v>0.4137003311258278</v>
@@ -42225,7 +42225,7 @@
         <v>159</v>
       </c>
       <c r="E1904" t="n">
-        <v>3.486717570199366e-06</v>
+        <v>3.486717570199367e-06</v>
       </c>
       <c r="F1904" t="n">
         <v>0.410388010675426</v>
@@ -42247,7 +42247,7 @@
         <v>61</v>
       </c>
       <c r="E1905" t="n">
-        <v>0.0002998586203019976</v>
+        <v>0.0002998586203019977</v>
       </c>
       <c r="F1905" t="n">
         <v>0.3942023269572077</v>
@@ -42291,7 +42291,7 @@
         <v>6283</v>
       </c>
       <c r="E1907" t="n">
-        <v>0.0003057016703633875</v>
+        <v>0.0003057016703633877</v>
       </c>
       <c r="F1907" t="n">
         <v>0.4651000465332713</v>
@@ -42313,7 +42313,7 @@
         <v>1671</v>
       </c>
       <c r="E1908" t="n">
-        <v>0.0008474428293891744</v>
+        <v>0.0008474428293891746</v>
       </c>
       <c r="F1908" t="n">
         <v>0.4153334718470808</v>
@@ -42335,7 +42335,7 @@
         <v>845</v>
       </c>
       <c r="E1909" t="n">
-        <v>6.02697669480464e-06</v>
+        <v>6.026976694804638e-06</v>
       </c>
       <c r="F1909" t="n">
         <v>0.4090444035195416</v>
@@ -42379,7 +42379,7 @@
         <v>9581</v>
       </c>
       <c r="E1911" t="n">
-        <v>0.0005875020051936854</v>
+        <v>0.0005875020051936855</v>
       </c>
       <c r="F1911" t="n">
         <v>0.4873232569478303</v>
@@ -42401,7 +42401,7 @@
         <v>13</v>
       </c>
       <c r="E1912" t="n">
-        <v>1.119137027096752e-05</v>
+        <v>1.119137027096751e-05</v>
       </c>
       <c r="F1912" t="n">
         <v>0.3053773296669722</v>
@@ -42423,7 +42423,7 @@
         <v>18</v>
       </c>
       <c r="E1913" t="n">
-        <v>1.974982530818371e-05</v>
+        <v>1.97498253081837e-05</v>
       </c>
       <c r="F1913" t="n">
         <v>0.2990276738967839</v>
@@ -42445,7 +42445,7 @@
         <v>18103</v>
       </c>
       <c r="E1914" t="n">
-        <v>0.000480966470655092</v>
+        <v>0.0004809664706550919</v>
       </c>
       <c r="F1914" t="n">
         <v>0.4996250937265684</v>
@@ -42555,7 +42555,7 @@
         <v>18331</v>
       </c>
       <c r="E1919" t="n">
-        <v>0.002309960680477098</v>
+        <v>0.002309960680477099</v>
       </c>
       <c r="F1919" t="n">
         <v>0.5208441896821261</v>
@@ -42577,7 +42577,7 @@
         <v>33</v>
       </c>
       <c r="E1920" t="n">
-        <v>5.237227678550622e-07</v>
+        <v>5.237227678550624e-07</v>
       </c>
       <c r="F1920" t="n">
         <v>0.3949032003160806</v>
@@ -42621,7 +42621,7 @@
         <v>4431</v>
       </c>
       <c r="E1922" t="n">
-        <v>0.0002990954085552048</v>
+        <v>0.0002990954085552049</v>
       </c>
       <c r="F1922" t="n">
         <v>0.4331527627302275</v>
@@ -42665,7 +42665,7 @@
         <v>6484</v>
       </c>
       <c r="E1924" t="n">
-        <v>0.0004995545247084919</v>
+        <v>0.000499554524708492</v>
       </c>
       <c r="F1924" t="n">
         <v>0.4679307116104869</v>
@@ -42709,7 +42709,7 @@
         <v>11485</v>
       </c>
       <c r="E1926" t="n">
-        <v>0.001713212896028226</v>
+        <v>0.001713212896028227</v>
       </c>
       <c r="F1926" t="n">
         <v>0.4782296650717703</v>
@@ -42775,7 +42775,7 @@
         <v>27</v>
       </c>
       <c r="E1929" t="n">
-        <v>3.461827643426153e-08</v>
+        <v>3.461827643426152e-08</v>
       </c>
       <c r="F1929" t="n">
         <v>0.382291069038057</v>
@@ -42797,7 +42797,7 @@
         <v>1920</v>
       </c>
       <c r="E1930" t="n">
-        <v>0.0004683196185219131</v>
+        <v>0.000468319618521913</v>
       </c>
       <c r="F1930" t="n">
         <v>0.4465043555952647</v>
@@ -42819,7 +42819,7 @@
         <v>10267</v>
       </c>
       <c r="E1931" t="n">
-        <v>0.0007305256711412729</v>
+        <v>0.0007305256711412728</v>
       </c>
       <c r="F1931" t="n">
         <v>0.4851941747572815</v>
@@ -42841,7 +42841,7 @@
         <v>2268</v>
       </c>
       <c r="E1932" t="n">
-        <v>0.002735780945935249</v>
+        <v>0.002735780945935248</v>
       </c>
       <c r="F1932" t="n">
         <v>0.4211080682536339</v>
@@ -42885,7 +42885,7 @@
         <v>15</v>
       </c>
       <c r="E1934" t="n">
-        <v>0.0001758173741453011</v>
+        <v>0.000175817374145301</v>
       </c>
       <c r="F1934" t="n">
         <v>0.351194659170766</v>
@@ -42907,7 +42907,7 @@
         <v>3698</v>
       </c>
       <c r="E1935" t="n">
-        <v>0.000721837189257814</v>
+        <v>0.0007218371892578135</v>
       </c>
       <c r="F1935" t="n">
         <v>0.454835039817975</v>
@@ -43061,7 +43061,7 @@
         <v>11223</v>
       </c>
       <c r="E1942" t="n">
-        <v>0.0008226597588104737</v>
+        <v>0.000822659758810474</v>
       </c>
       <c r="F1942" t="n">
         <v>0.4872044845235194</v>
@@ -43105,7 +43105,7 @@
         <v>833</v>
       </c>
       <c r="E1944" t="n">
-        <v>0.0006720152491874527</v>
+        <v>0.0006720152491874528</v>
       </c>
       <c r="F1944" t="n">
         <v>0.4196934705017846</v>
@@ -43127,7 +43127,7 @@
         <v>13238</v>
       </c>
       <c r="E1945" t="n">
-        <v>0.0005118475681055445</v>
+        <v>0.0005118475681055443</v>
       </c>
       <c r="F1945" t="n">
         <v>0.4813387912352516</v>
@@ -43149,7 +43149,7 @@
         <v>407</v>
       </c>
       <c r="E1946" t="n">
-        <v>0.0002110966173786034</v>
+        <v>0.0002110966173786033</v>
       </c>
       <c r="F1946" t="n">
         <v>0.4007618283881315</v>
@@ -43171,7 +43171,7 @@
         <v>15113</v>
       </c>
       <c r="E1947" t="n">
-        <v>0.000538712119419537</v>
+        <v>0.0005387121194195369</v>
       </c>
       <c r="F1947" t="n">
         <v>0.4935802469135803</v>
@@ -43193,7 +43193,7 @@
         <v>241</v>
       </c>
       <c r="E1948" t="n">
-        <v>0.0003514763163953193</v>
+        <v>0.0003514763163953194</v>
       </c>
       <c r="F1948" t="n">
         <v>0.3149023314429742</v>
@@ -43215,7 +43215,7 @@
         <v>580</v>
       </c>
       <c r="E1949" t="n">
-        <v>7.036934652065734e-06</v>
+        <v>7.036934652065735e-06</v>
       </c>
       <c r="F1949" t="n">
         <v>0.4144723201326975</v>
@@ -43347,7 +43347,7 @@
         <v>1536</v>
       </c>
       <c r="E1955" t="n">
-        <v>3.512877260119783e-05</v>
+        <v>3.512877260119782e-05</v>
       </c>
       <c r="F1955" t="n">
         <v>0.4213743676222597</v>
@@ -43413,7 +43413,7 @@
         <v>82</v>
       </c>
       <c r="E1958" t="n">
-        <v>0.0003251461879217736</v>
+        <v>0.0003251461879217735</v>
       </c>
       <c r="F1958" t="n">
         <v>0.3597264711175094</v>
@@ -43479,7 +43479,7 @@
         <v>437</v>
       </c>
       <c r="E1961" t="n">
-        <v>8.569273285196666e-06</v>
+        <v>8.569273285196665e-06</v>
       </c>
       <c r="F1961" t="n">
         <v>0.4119950535861501</v>
@@ -43501,7 +43501,7 @@
         <v>370</v>
       </c>
       <c r="E1962" t="n">
-        <v>4.484322493317667e-06</v>
+        <v>4.484322493317668e-06</v>
       </c>
       <c r="F1962" t="n">
         <v>0.4207535255735634</v>
@@ -43523,7 +43523,7 @@
         <v>21878</v>
       </c>
       <c r="E1963" t="n">
-        <v>0.0006001265055019055</v>
+        <v>0.0006001265055019057</v>
       </c>
       <c r="F1963" t="n">
         <v>0.5016311166875784</v>
@@ -43567,7 +43567,7 @@
         <v>138</v>
       </c>
       <c r="E1965" t="n">
-        <v>5.308825017458091e-06</v>
+        <v>5.308825017458093e-06</v>
       </c>
       <c r="F1965" t="n">
         <v>0.3473501303214596</v>
@@ -43589,7 +43589,7 @@
         <v>9489</v>
       </c>
       <c r="E1966" t="n">
-        <v>0.0002411509803694274</v>
+        <v>0.0002411509803694275</v>
       </c>
       <c r="F1966" t="n">
         <v>0.4690286250586579</v>
@@ -43633,7 +43633,7 @@
         <v>5533</v>
       </c>
       <c r="E1968" t="n">
-        <v>0.00058981288630408</v>
+        <v>0.0005898128863040801</v>
       </c>
       <c r="F1968" t="n">
         <v>0.4518535262206148</v>
@@ -43655,7 +43655,7 @@
         <v>8024</v>
       </c>
       <c r="E1969" t="n">
-        <v>0.0007492034943539868</v>
+        <v>0.0007492034943539869</v>
       </c>
       <c r="F1969" t="n">
         <v>0.4691386998357193</v>
@@ -43699,7 +43699,7 @@
         <v>249</v>
       </c>
       <c r="E1971" t="n">
-        <v>3.720814660322484e-05</v>
+        <v>3.720814660322483e-05</v>
       </c>
       <c r="F1971" t="n">
         <v>0.4240560033941451</v>
@@ -43721,7 +43721,7 @@
         <v>5871</v>
       </c>
       <c r="E1972" t="n">
-        <v>0.0004571606847098005</v>
+        <v>0.0004571606847098006</v>
       </c>
       <c r="F1972" t="n">
         <v>0.4654249126891735</v>
@@ -43809,7 +43809,7 @@
         <v>2244</v>
       </c>
       <c r="E1976" t="n">
-        <v>0.004240745928328831</v>
+        <v>0.004240745928328832</v>
       </c>
       <c r="F1976" t="n">
         <v>0.4562885186030587</v>
@@ -43831,7 +43831,7 @@
         <v>197</v>
       </c>
       <c r="E1977" t="n">
-        <v>2.405996696844522e-05</v>
+        <v>2.405996696844521e-05</v>
       </c>
       <c r="F1977" t="n">
         <v>0.2540994025676878</v>
@@ -43853,7 +43853,7 @@
         <v>54</v>
       </c>
       <c r="E1978" t="n">
-        <v>5.98091022544236e-07</v>
+        <v>5.980910225442359e-07</v>
       </c>
       <c r="F1978" t="n">
         <v>0.3905059581949599</v>
@@ -43875,7 +43875,7 @@
         <v>6422</v>
       </c>
       <c r="E1979" t="n">
-        <v>0.00031136323121824</v>
+        <v>0.0003113632312182399</v>
       </c>
       <c r="F1979" t="n">
         <v>0.4563926940639269</v>
@@ -43919,7 +43919,7 @@
         <v>184</v>
       </c>
       <c r="E1981" t="n">
-        <v>1.939367031684551e-06</v>
+        <v>1.939367031684552e-06</v>
       </c>
       <c r="F1981" t="n">
         <v>0.3364753408517085</v>
@@ -43941,7 +43941,7 @@
         <v>17376</v>
       </c>
       <c r="E1982" t="n">
-        <v>0.0005545194067823692</v>
+        <v>0.0005545194067823694</v>
       </c>
       <c r="F1982" t="n">
         <v>0.4934584053320168</v>
@@ -44029,7 +44029,7 @@
         <v>4014</v>
       </c>
       <c r="E1986" t="n">
-        <v>0.0001302946142474749</v>
+        <v>0.0001302946142474748</v>
       </c>
       <c r="F1986" t="n">
         <v>0.4551457194899818</v>
@@ -44073,7 +44073,7 @@
         <v>9974</v>
       </c>
       <c r="E1988" t="n">
-        <v>0.0004734646933474439</v>
+        <v>0.000473464693347444</v>
       </c>
       <c r="F1988" t="n">
         <v>0.4847235693501455</v>
@@ -44117,7 +44117,7 @@
         <v>17771</v>
       </c>
       <c r="E1990" t="n">
-        <v>0.0003808872271277133</v>
+        <v>0.0003808872271277134</v>
       </c>
       <c r="F1990" t="n">
         <v>0.4906725576828669</v>
@@ -44139,7 +44139,7 @@
         <v>34</v>
       </c>
       <c r="E1991" t="n">
-        <v>6.07337082626542e-05</v>
+        <v>6.073370826265418e-05</v>
       </c>
       <c r="F1991" t="n">
         <v>0.3610910404624277</v>
@@ -44161,7 +44161,7 @@
         <v>297</v>
       </c>
       <c r="E1992" t="n">
-        <v>0.0007519441936200161</v>
+        <v>0.0007519441936200162</v>
       </c>
       <c r="F1992" t="n">
         <v>0.2835863243013193</v>
@@ -44359,7 +44359,7 @@
         <v>11071</v>
       </c>
       <c r="E2001" t="n">
-        <v>0.002280016469805085</v>
+        <v>0.002280016469805087</v>
       </c>
       <c r="F2001" t="n">
         <v>0.4966459627329193</v>
@@ -44381,7 +44381,7 @@
         <v>1676</v>
       </c>
       <c r="E2002" t="n">
-        <v>0.003733971068432039</v>
+        <v>0.003733971068432038</v>
       </c>
       <c r="F2002" t="n">
         <v>0.4631603336422613</v>
@@ -44469,7 +44469,7 @@
         <v>1241</v>
       </c>
       <c r="E2006" t="n">
-        <v>6.272897638088929e-05</v>
+        <v>6.272897638088928e-05</v>
       </c>
       <c r="F2006" t="n">
         <v>0.4351327818894209</v>
@@ -44513,7 +44513,7 @@
         <v>11</v>
       </c>
       <c r="E2008" t="n">
-        <v>0.0001090474509915095</v>
+        <v>0.0001090474509915096</v>
       </c>
       <c r="F2008" t="n">
         <v>0.3402553191489362</v>
@@ -44535,7 +44535,7 @@
         <v>6629</v>
       </c>
       <c r="E2009" t="n">
-        <v>0.0006635367072229139</v>
+        <v>0.000663536707222914</v>
       </c>
       <c r="F2009" t="n">
         <v>0.4711289182182418</v>
@@ -44557,7 +44557,7 @@
         <v>1744</v>
       </c>
       <c r="E2010" t="n">
-        <v>4.934377435739855e-05</v>
+        <v>4.934377435739856e-05</v>
       </c>
       <c r="F2010" t="n">
         <v>0.4424524125719345</v>
@@ -44579,7 +44579,7 @@
         <v>6137</v>
       </c>
       <c r="E2011" t="n">
-        <v>0.0003535820373094961</v>
+        <v>0.0003535820373094959</v>
       </c>
       <c r="F2011" t="n">
         <v>0.4583811052510892</v>
@@ -44667,7 +44667,7 @@
         <v>7939</v>
       </c>
       <c r="E2015" t="n">
-        <v>0.0008653611201030831</v>
+        <v>0.0008653611201030832</v>
       </c>
       <c r="F2015" t="n">
         <v>0.4733601704949088</v>
@@ -44711,7 +44711,7 @@
         <v>10</v>
       </c>
       <c r="E2017" t="n">
-        <v>1.825112582768751e-05</v>
+        <v>1.825112582768753e-05</v>
       </c>
       <c r="F2017" t="n">
         <v>0.3490483673825738</v>
@@ -44733,7 +44733,7 @@
         <v>121</v>
       </c>
       <c r="E2018" t="n">
-        <v>5.002489435610029e-05</v>
+        <v>5.002489435610027e-05</v>
       </c>
       <c r="F2018" t="n">
         <v>0.4008421896932023</v>
@@ -44799,7 +44799,7 @@
         <v>2035</v>
       </c>
       <c r="E2021" t="n">
-        <v>6.310264140667833e-05</v>
+        <v>6.310264140667835e-05</v>
       </c>
       <c r="F2021" t="n">
         <v>0.4357018308631212</v>
@@ -44821,7 +44821,7 @@
         <v>31</v>
       </c>
       <c r="E2022" t="n">
-        <v>3.249748567726567e-06</v>
+        <v>3.249748567726566e-06</v>
       </c>
       <c r="F2022" t="n">
         <v>0.2897521379910132</v>
@@ -44887,7 +44887,7 @@
         <v>891</v>
       </c>
       <c r="E2025" t="n">
-        <v>4.218460037869619e-05</v>
+        <v>4.21846003786962e-05</v>
       </c>
       <c r="F2025" t="n">
         <v>0.352184637068358</v>
@@ -44909,7 +44909,7 @@
         <v>15645</v>
       </c>
       <c r="E2026" t="n">
-        <v>0.003044493225626932</v>
+        <v>0.00304449322562693</v>
       </c>
       <c r="F2026" t="n">
         <v>0.5082634121535723</v>
@@ -44997,7 +44997,7 @@
         <v>818</v>
       </c>
       <c r="E2030" t="n">
-        <v>1.852634741705213e-05</v>
+        <v>1.852634741705212e-05</v>
       </c>
       <c r="F2030" t="n">
         <v>0.4300774526678141</v>
@@ -45041,7 +45041,7 @@
         <v>281</v>
       </c>
       <c r="E2032" t="n">
-        <v>1.829524653657539e-06</v>
+        <v>1.82952465365754e-06</v>
       </c>
       <c r="F2032" t="n">
         <v>0.4024562109925509</v>
@@ -45107,7 +45107,7 @@
         <v>6256</v>
       </c>
       <c r="E2035" t="n">
-        <v>0.000425071484370331</v>
+        <v>0.0004250714843703309</v>
       </c>
       <c r="F2035" t="n">
         <v>0.4474037600716204</v>
